--- a/My_Flying_Logbook.xlsx
+++ b/My_Flying_Logbook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/log/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC552791-FE8B-DD49-AA75-3C69E3A77128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32E0393-DA59-4E49-B83D-C5871530BED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="86">
   <si>
     <t>Month</t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>Pre-area Solo Check</t>
+  </si>
+  <si>
+    <t>M. Shih</t>
   </si>
 </sst>
 </file>
@@ -1031,6 +1034,51 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1064,50 +1112,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1146,30 +1173,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1630,98 +1633,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53" t="s">
+      <c r="C2" s="68"/>
+      <c r="D2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="56" t="s">
+      <c r="E2" s="68"/>
+      <c r="F2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="63" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63" t="s">
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="63" t="s">
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="66"/>
+      <c r="AC2" s="62"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="60" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60" t="s">
+      <c r="O3" s="56"/>
+      <c r="P3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60" t="s">
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60" t="s">
+      <c r="S3" s="56"/>
+      <c r="T3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60" t="s">
+      <c r="U3" s="56"/>
+      <c r="V3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60" t="s">
+      <c r="W3" s="56"/>
+      <c r="X3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60" t="s">
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60" t="s">
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="61" t="s">
+      <c r="AC3" s="57" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1738,8 +1741,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1749,9 +1752,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -1794,8 +1797,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="62"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="58"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -2812,22 +2815,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -2906,22 +2909,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -2943,22 +2946,22 @@
       <c r="AC27" s="44"/>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H28" s="73" t="s">
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -3038,12 +3041,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -3057,15 +3063,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -3099,98 +3102,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3207,8 +3210,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -3218,9 +3221,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -3263,8 +3266,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -4067,22 +4070,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -4161,22 +4164,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 01'!K28</f>
         <v/>
@@ -4255,22 +4258,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H28" s="73" t="s">
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -4350,12 +4353,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -4369,15 +4375,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4412,98 +4415,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4520,8 +4523,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -4531,9 +4534,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -4576,8 +4579,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -5069,20 +5072,38 @@
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B15" s="32"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="C15" s="13">
+        <v>16</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="11"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="11"/>
+      <c r="P15" s="11">
+        <v>0.6</v>
+      </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="11"/>
       <c r="S15" s="6"/>
@@ -5398,22 +5419,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="H26" s="69" t="s">
+        <v>9.4</v>
+      </c>
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -5436,7 +5457,7 @@
       </c>
       <c r="P26" s="18">
         <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
-        <v>8.2000000000000011</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="Q26" s="5" t="str">
         <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
@@ -5492,22 +5513,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>39.1</v>
-      </c>
-      <c r="H27" s="74" t="s">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 02'!K28</f>
         <v/>
@@ -5586,22 +5607,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>39.1</v>
-      </c>
-      <c r="H28" s="73" t="s">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -5624,7 +5645,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>36.9</v>
+        <v>37.5</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -5681,12 +5702,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -5700,15 +5724,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5742,98 +5763,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5850,8 +5871,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -5861,9 +5882,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -5906,8 +5927,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
@@ -6540,22 +6561,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -6634,22 +6655,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>39.1</v>
-      </c>
-      <c r="H27" s="74" t="s">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 03'!K28</f>
         <v/>
@@ -6672,7 +6693,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 03'!P28</f>
-        <v>36.9</v>
+        <v>37.5</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 03'!Q28</f>
@@ -6728,22 +6749,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>39.1</v>
-      </c>
-      <c r="H28" s="73" t="s">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -6766,7 +6787,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>36.9</v>
+        <v>37.5</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -6823,12 +6844,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -6842,15 +6866,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -6880,98 +6901,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6988,8 +7009,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -6999,9 +7020,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -7044,8 +7065,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
@@ -7678,22 +7699,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -7772,22 +7793,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>39.1</v>
-      </c>
-      <c r="H27" s="74" t="s">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 04'!K28</f>
         <v/>
@@ -7810,7 +7831,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 04'!P28</f>
-        <v>36.9</v>
+        <v>37.5</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 04'!Q28</f>
@@ -7866,22 +7887,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>39.1</v>
-      </c>
-      <c r="H28" s="73" t="s">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -7904,7 +7925,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>36.9</v>
+        <v>37.5</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -7961,12 +7982,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -7980,15 +8004,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/My_Flying_Logbook.xlsx
+++ b/My_Flying_Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32E0393-DA59-4E49-B83D-C5871530BED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B74976D-E356-1341-A28F-070836208876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="86">
   <si>
     <t>Month</t>
   </si>
@@ -1034,6 +1034,63 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1055,61 +1112,43 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1134,45 +1173,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1633,98 +1633,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="71" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="59" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59" t="s">
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="59" t="s">
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="62"/>
+      <c r="AC2" s="66"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="56" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56" t="s">
+      <c r="O3" s="60"/>
+      <c r="P3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56" t="s">
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56" t="s">
+      <c r="S3" s="60"/>
+      <c r="T3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56" t="s">
+      <c r="U3" s="60"/>
+      <c r="V3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56" t="s">
+      <c r="W3" s="60"/>
+      <c r="X3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56" t="s">
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56" t="s">
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="57" t="s">
+      <c r="AC3" s="61" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1741,8 +1741,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1752,9 +1752,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -1797,8 +1797,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="58"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="62"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -2815,22 +2815,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -2909,22 +2909,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -2946,22 +2946,22 @@
       <c r="AC27" s="44"/>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -3041,15 +3041,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -3063,12 +3060,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -3102,98 +3102,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3210,8 +3210,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -3221,9 +3221,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -3266,8 +3266,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -4070,22 +4070,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -4164,22 +4164,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 01'!K28</f>
         <v/>
@@ -4258,22 +4258,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -4353,15 +4353,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -4375,12 +4372,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4396,7 +4396,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4415,98 +4417,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4523,8 +4525,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -4534,9 +4536,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -4579,8 +4581,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -5120,20 +5122,38 @@
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B16" s="32"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="C16" s="13">
+        <v>18</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="11"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="11"/>
+      <c r="P16" s="11">
+        <v>0.8</v>
+      </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="11"/>
       <c r="S16" s="6"/>
@@ -5419,22 +5439,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v>9.4</v>
-      </c>
-      <c r="H26" s="50" t="s">
+        <v>10.200000000000001</v>
+      </c>
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -5457,7 +5477,7 @@
       </c>
       <c r="P26" s="18">
         <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
-        <v>8.8000000000000007</v>
+        <v>9.6000000000000014</v>
       </c>
       <c r="Q26" s="5" t="str">
         <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
@@ -5513,22 +5533,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>39.700000000000003</v>
-      </c>
-      <c r="H27" s="55" t="s">
+        <v>40.5</v>
+      </c>
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 02'!K28</f>
         <v/>
@@ -5607,22 +5627,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>39.700000000000003</v>
-      </c>
-      <c r="H28" s="54" t="s">
+        <v>40.5</v>
+      </c>
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -5645,7 +5665,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>37.5</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -5702,15 +5722,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -5724,12 +5741,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5763,98 +5783,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5871,8 +5891,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -5882,9 +5902,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -5927,8 +5947,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
@@ -6561,22 +6581,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -6655,22 +6675,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>39.700000000000003</v>
-      </c>
-      <c r="H27" s="55" t="s">
+        <v>40.5</v>
+      </c>
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 03'!K28</f>
         <v/>
@@ -6693,7 +6713,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 03'!P28</f>
-        <v>37.5</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 03'!Q28</f>
@@ -6749,22 +6769,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>39.700000000000003</v>
-      </c>
-      <c r="H28" s="54" t="s">
+        <v>40.5</v>
+      </c>
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -6787,7 +6807,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>37.5</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -6844,15 +6864,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -6866,12 +6883,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -6901,98 +6921,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7009,8 +7029,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -7020,9 +7040,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -7065,8 +7085,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
@@ -7699,22 +7719,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -7793,22 +7813,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>39.700000000000003</v>
-      </c>
-      <c r="H27" s="55" t="s">
+        <v>40.5</v>
+      </c>
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 04'!K28</f>
         <v/>
@@ -7831,7 +7851,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 04'!P28</f>
-        <v>37.5</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 04'!Q28</f>
@@ -7887,22 +7907,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>39.700000000000003</v>
-      </c>
-      <c r="H28" s="54" t="s">
+        <v>40.5</v>
+      </c>
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -7925,7 +7945,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>37.5</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -7982,15 +8002,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -8004,12 +8021,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/My_Flying_Logbook.xlsx
+++ b/My_Flying_Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B74976D-E356-1341-A28F-070836208876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6905B02B-FB33-254D-8439-5CFD988BB0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="86">
   <si>
     <t>Month</t>
   </si>
@@ -4396,9 +4396,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5170,20 +5168,38 @@
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B17" s="32"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="C17" s="13">
+        <v>21</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="11"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="11"/>
+      <c r="P17" s="11">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="Q17" s="6"/>
       <c r="R17" s="11"/>
       <c r="S17" s="6"/>
@@ -5448,7 +5464,7 @@
       <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v>10.200000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="H26" s="69" t="s">
         <v>49</v>
@@ -5477,7 +5493,7 @@
       </c>
       <c r="P26" s="18">
         <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
-        <v>9.6000000000000014</v>
+        <v>10.700000000000001</v>
       </c>
       <c r="Q26" s="5" t="str">
         <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
@@ -5542,7 +5558,7 @@
       <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>40.5</v>
+        <v>41.6</v>
       </c>
       <c r="H27" s="74" t="s">
         <v>61</v>
@@ -5636,7 +5652,7 @@
       <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>40.5</v>
+        <v>41.6</v>
       </c>
       <c r="H28" s="73" t="s">
         <v>50</v>
@@ -5665,7 +5681,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>38.299999999999997</v>
+        <v>39.4</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -6684,7 +6700,7 @@
       <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>40.5</v>
+        <v>41.6</v>
       </c>
       <c r="H27" s="74" t="s">
         <v>61</v>
@@ -6713,7 +6729,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 03'!P28</f>
-        <v>38.299999999999997</v>
+        <v>39.4</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 03'!Q28</f>
@@ -6778,7 +6794,7 @@
       <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>40.5</v>
+        <v>41.6</v>
       </c>
       <c r="H28" s="73" t="s">
         <v>50</v>
@@ -6807,7 +6823,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>38.299999999999997</v>
+        <v>39.4</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -7822,7 +7838,7 @@
       <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>40.5</v>
+        <v>41.6</v>
       </c>
       <c r="H27" s="74" t="s">
         <v>61</v>
@@ -7851,7 +7867,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 04'!P28</f>
-        <v>38.299999999999997</v>
+        <v>39.4</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 04'!Q28</f>
@@ -7916,7 +7932,7 @@
       <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>40.5</v>
+        <v>41.6</v>
       </c>
       <c r="H28" s="73" t="s">
         <v>50</v>
@@ -7945,7 +7961,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>38.299999999999997</v>
+        <v>39.4</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>

--- a/My_Flying_Logbook.xlsx
+++ b/My_Flying_Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6905B02B-FB33-254D-8439-5CFD988BB0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C83E24E-697D-C34A-98A4-1A8F547CF43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="86">
   <si>
     <t>Month</t>
   </si>
@@ -1034,6 +1034,51 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1067,50 +1112,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1149,30 +1173,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1633,98 +1633,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53" t="s">
+      <c r="C2" s="68"/>
+      <c r="D2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="56" t="s">
+      <c r="E2" s="68"/>
+      <c r="F2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="63" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63" t="s">
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="63" t="s">
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="66"/>
+      <c r="AC2" s="62"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="60" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60" t="s">
+      <c r="O3" s="56"/>
+      <c r="P3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60" t="s">
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60" t="s">
+      <c r="S3" s="56"/>
+      <c r="T3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60" t="s">
+      <c r="U3" s="56"/>
+      <c r="V3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60" t="s">
+      <c r="W3" s="56"/>
+      <c r="X3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60" t="s">
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60" t="s">
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="61" t="s">
+      <c r="AC3" s="57" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1741,8 +1741,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1752,9 +1752,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -1797,8 +1797,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="62"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="58"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -2815,22 +2815,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -2909,22 +2909,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -2946,22 +2946,22 @@
       <c r="AC27" s="44"/>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H28" s="73" t="s">
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -3041,12 +3041,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -3060,15 +3063,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -3102,98 +3102,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3210,8 +3210,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -3221,9 +3221,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -3266,8 +3266,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -4070,22 +4070,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -4164,22 +4164,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 01'!K28</f>
         <v/>
@@ -4258,22 +4258,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H28" s="73" t="s">
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -4353,12 +4353,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -4372,15 +4375,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4396,7 +4396,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4415,98 +4417,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4523,8 +4525,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -4534,9 +4536,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -4579,8 +4581,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -5216,20 +5218,38 @@
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B18" s="32"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="C18" s="13">
+        <v>23</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="11"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="11"/>
+      <c r="P18" s="11">
+        <v>0.8</v>
+      </c>
       <c r="Q18" s="6"/>
       <c r="R18" s="11"/>
       <c r="S18" s="6"/>
@@ -5455,22 +5475,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v>11.3</v>
-      </c>
-      <c r="H26" s="69" t="s">
+        <v>12.100000000000001</v>
+      </c>
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -5493,7 +5513,7 @@
       </c>
       <c r="P26" s="18">
         <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
-        <v>10.700000000000001</v>
+        <v>11.500000000000002</v>
       </c>
       <c r="Q26" s="5" t="str">
         <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
@@ -5549,22 +5569,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>41.6</v>
-      </c>
-      <c r="H27" s="74" t="s">
+        <v>42.4</v>
+      </c>
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 02'!K28</f>
         <v/>
@@ -5643,22 +5663,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>41.6</v>
-      </c>
-      <c r="H28" s="73" t="s">
+        <v>42.4</v>
+      </c>
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -5681,7 +5701,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>39.4</v>
+        <v>40.199999999999996</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -5738,12 +5758,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -5757,15 +5780,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5799,98 +5819,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5907,8 +5927,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -5918,9 +5938,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -5963,8 +5983,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
@@ -6597,22 +6617,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -6691,22 +6711,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>41.6</v>
-      </c>
-      <c r="H27" s="74" t="s">
+        <v>42.4</v>
+      </c>
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 03'!K28</f>
         <v/>
@@ -6729,7 +6749,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 03'!P28</f>
-        <v>39.4</v>
+        <v>40.199999999999996</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 03'!Q28</f>
@@ -6785,22 +6805,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>41.6</v>
-      </c>
-      <c r="H28" s="73" t="s">
+        <v>42.4</v>
+      </c>
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -6823,7 +6843,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>39.4</v>
+        <v>40.199999999999996</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -6880,12 +6900,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -6899,15 +6922,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -6937,98 +6957,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7045,8 +7065,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -7056,9 +7076,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -7101,8 +7121,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
@@ -7735,22 +7755,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -7829,22 +7849,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>41.6</v>
-      </c>
-      <c r="H27" s="74" t="s">
+        <v>42.4</v>
+      </c>
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 04'!K28</f>
         <v/>
@@ -7867,7 +7887,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 04'!P28</f>
-        <v>39.4</v>
+        <v>40.199999999999996</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 04'!Q28</f>
@@ -7923,22 +7943,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>41.6</v>
-      </c>
-      <c r="H28" s="73" t="s">
+        <v>42.4</v>
+      </c>
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -7961,7 +7981,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>39.4</v>
+        <v>40.199999999999996</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -8018,12 +8038,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -8037,15 +8060,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/My_Flying_Logbook.xlsx
+++ b/My_Flying_Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C83E24E-697D-C34A-98A4-1A8F547CF43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09B3EBD-3AE3-074E-AAFE-2D714E702258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="87">
   <si>
     <t>Month</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>M. Shih</t>
+  </si>
+  <si>
+    <t>Crosswind Circuits (Min 15KTS)</t>
   </si>
 </sst>
 </file>
@@ -4396,9 +4399,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5266,20 +5267,38 @@
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B19" s="32"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="C19" s="13">
+        <v>30</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="11"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="11"/>
+      <c r="P19" s="11">
+        <v>0.8</v>
+      </c>
       <c r="Q19" s="6"/>
       <c r="R19" s="11"/>
       <c r="S19" s="6"/>
@@ -5384,65 +5403,65 @@
       <c r="AB22" s="11"/>
       <c r="AC22" s="39"/>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B23" s="40"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="41"/>
+    <row r="23" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="34"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="42"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B24" s="32"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="39"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="38"/>
     </row>
     <row r="25" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="34"/>
@@ -5484,7 +5503,7 @@
       <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v>12.100000000000001</v>
+        <v>12.900000000000002</v>
       </c>
       <c r="H26" s="50" t="s">
         <v>49</v>
@@ -5513,7 +5532,7 @@
       </c>
       <c r="P26" s="18">
         <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
-        <v>11.500000000000002</v>
+        <v>12.300000000000002</v>
       </c>
       <c r="Q26" s="5" t="str">
         <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
@@ -5578,7 +5597,7 @@
       <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>42.4</v>
+        <v>43.2</v>
       </c>
       <c r="H27" s="55" t="s">
         <v>61</v>
@@ -5672,7 +5691,7 @@
       <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>42.4</v>
+        <v>43.2</v>
       </c>
       <c r="H28" s="54" t="s">
         <v>50</v>
@@ -5701,7 +5720,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>40.199999999999996</v>
+        <v>41</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -6720,7 +6739,7 @@
       <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>42.4</v>
+        <v>43.2</v>
       </c>
       <c r="H27" s="55" t="s">
         <v>61</v>
@@ -6749,7 +6768,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 03'!P28</f>
-        <v>40.199999999999996</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 03'!Q28</f>
@@ -6814,7 +6833,7 @@
       <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>42.4</v>
+        <v>43.2</v>
       </c>
       <c r="H28" s="54" t="s">
         <v>50</v>
@@ -6843,7 +6862,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>40.199999999999996</v>
+        <v>41</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -7858,7 +7877,7 @@
       <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>42.4</v>
+        <v>43.2</v>
       </c>
       <c r="H27" s="55" t="s">
         <v>61</v>
@@ -7887,7 +7906,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 04'!P28</f>
-        <v>40.199999999999996</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 04'!Q28</f>
@@ -7952,7 +7971,7 @@
       <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>42.4</v>
+        <v>43.2</v>
       </c>
       <c r="H28" s="54" t="s">
         <v>50</v>
@@ -7981,7 +8000,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>40.199999999999996</v>
+        <v>41</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>

--- a/My_Flying_Logbook.xlsx
+++ b/My_Flying_Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09B3EBD-3AE3-074E-AAFE-2D714E702258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66442F6-3E84-1C47-B42C-D160FB914201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="88">
   <si>
     <t>Month</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>Crosswind Circuits (Min 15KTS)</t>
+  </si>
+  <si>
+    <t>Training Area</t>
   </si>
 </sst>
 </file>
@@ -1037,6 +1040,63 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1058,61 +1118,43 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1137,45 +1179,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1636,98 +1639,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="71" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="59" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59" t="s">
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="59" t="s">
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="62"/>
+      <c r="AC2" s="66"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="56" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56" t="s">
+      <c r="O3" s="60"/>
+      <c r="P3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56" t="s">
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56" t="s">
+      <c r="S3" s="60"/>
+      <c r="T3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56" t="s">
+      <c r="U3" s="60"/>
+      <c r="V3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56" t="s">
+      <c r="W3" s="60"/>
+      <c r="X3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56" t="s">
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56" t="s">
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="57" t="s">
+      <c r="AC3" s="61" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1744,8 +1747,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1755,9 +1758,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -1800,8 +1803,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="58"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="62"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -2818,22 +2821,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -2912,22 +2915,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -2949,22 +2952,22 @@
       <c r="AC27" s="44"/>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -3044,15 +3047,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -3066,12 +3066,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -3105,98 +3108,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3213,8 +3216,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -3224,9 +3227,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -3269,8 +3272,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -4073,22 +4076,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -4167,22 +4170,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 01'!K28</f>
         <v/>
@@ -4261,22 +4264,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -4356,15 +4359,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -4378,12 +4378,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4418,98 +4421,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4526,8 +4529,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -4537,9 +4540,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -4582,8 +4585,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -5314,21 +5317,41 @@
       <c r="AC19" s="39"/>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B20" s="32"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="B20" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="13">
+        <v>3</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
       <c r="N20" s="11"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="11"/>
+      <c r="P20" s="11">
+        <v>1</v>
+      </c>
       <c r="Q20" s="6"/>
       <c r="R20" s="11"/>
       <c r="S20" s="6"/>
@@ -5494,22 +5517,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v>12.900000000000002</v>
-      </c>
-      <c r="H26" s="50" t="s">
+        <v>13.900000000000002</v>
+      </c>
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -5532,7 +5555,7 @@
       </c>
       <c r="P26" s="18">
         <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
-        <v>12.300000000000002</v>
+        <v>13.300000000000002</v>
       </c>
       <c r="Q26" s="5" t="str">
         <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
@@ -5588,22 +5611,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>43.2</v>
-      </c>
-      <c r="H27" s="55" t="s">
+        <v>44.2</v>
+      </c>
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 02'!K28</f>
         <v/>
@@ -5682,22 +5705,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>43.2</v>
-      </c>
-      <c r="H28" s="54" t="s">
+        <v>44.2</v>
+      </c>
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -5720,7 +5743,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -5777,15 +5800,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -5799,12 +5819,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5838,98 +5861,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5946,8 +5969,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -5957,9 +5980,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -6002,8 +6025,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
@@ -6636,22 +6659,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -6730,22 +6753,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>43.2</v>
-      </c>
-      <c r="H27" s="55" t="s">
+        <v>44.2</v>
+      </c>
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 03'!K28</f>
         <v/>
@@ -6768,7 +6791,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 03'!P28</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 03'!Q28</f>
@@ -6824,22 +6847,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>43.2</v>
-      </c>
-      <c r="H28" s="54" t="s">
+        <v>44.2</v>
+      </c>
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -6862,7 +6885,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -6919,15 +6942,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -6941,12 +6961,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -6976,98 +6999,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7084,8 +7107,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -7095,9 +7118,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -7140,8 +7163,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
@@ -7774,22 +7797,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -7868,22 +7891,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>43.2</v>
-      </c>
-      <c r="H27" s="55" t="s">
+        <v>44.2</v>
+      </c>
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 04'!K28</f>
         <v/>
@@ -7906,7 +7929,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 04'!P28</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 04'!Q28</f>
@@ -7962,22 +7985,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>43.2</v>
-      </c>
-      <c r="H28" s="54" t="s">
+        <v>44.2</v>
+      </c>
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -8000,7 +8023,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -8057,15 +8080,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -8079,12 +8099,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/My_Flying_Logbook.xlsx
+++ b/My_Flying_Logbook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66442F6-3E84-1C47-B42C-D160FB914201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D8DC40-8332-F24C-B779-B46E29703D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="88">
   <si>
     <t>Month</t>
   </si>
@@ -1040,6 +1040,51 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1073,50 +1118,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1155,30 +1179,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1639,98 +1639,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53" t="s">
+      <c r="C2" s="68"/>
+      <c r="D2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="56" t="s">
+      <c r="E2" s="68"/>
+      <c r="F2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="63" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63" t="s">
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="63" t="s">
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="66"/>
+      <c r="AC2" s="62"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="60" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60" t="s">
+      <c r="O3" s="56"/>
+      <c r="P3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60" t="s">
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60" t="s">
+      <c r="S3" s="56"/>
+      <c r="T3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60" t="s">
+      <c r="U3" s="56"/>
+      <c r="V3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60" t="s">
+      <c r="W3" s="56"/>
+      <c r="X3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60" t="s">
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60" t="s">
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="61" t="s">
+      <c r="AC3" s="57" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1747,8 +1747,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1758,9 +1758,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -1803,8 +1803,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="62"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="58"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -2821,22 +2821,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -2915,22 +2915,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -2952,22 +2952,22 @@
       <c r="AC27" s="44"/>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H28" s="73" t="s">
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -3047,12 +3047,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -3066,15 +3069,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -3108,98 +3108,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3216,8 +3216,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -3227,9 +3227,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -3272,8 +3272,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -4076,22 +4076,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -4170,22 +4170,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 01'!K28</f>
         <v/>
@@ -4264,22 +4264,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H28" s="73" t="s">
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -4359,12 +4359,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -4378,15 +4381,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4421,98 +4421,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4529,8 +4529,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -4540,9 +4540,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -4585,8 +4585,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -5367,21 +5367,41 @@
       <c r="AC20" s="39"/>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B21" s="32"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="B21" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="13">
+        <v>4</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="11"/>
       <c r="O21" s="6"/>
-      <c r="P21" s="11"/>
+      <c r="P21" s="11">
+        <v>1</v>
+      </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="11"/>
       <c r="S21" s="6"/>
@@ -5517,22 +5537,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v>13.900000000000002</v>
-      </c>
-      <c r="H26" s="69" t="s">
+        <v>14.900000000000002</v>
+      </c>
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -5555,7 +5575,7 @@
       </c>
       <c r="P26" s="18">
         <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
-        <v>13.300000000000002</v>
+        <v>14.300000000000002</v>
       </c>
       <c r="Q26" s="5" t="str">
         <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
@@ -5611,22 +5631,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>44.2</v>
-      </c>
-      <c r="H27" s="74" t="s">
+        <v>45.2</v>
+      </c>
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 02'!K28</f>
         <v/>
@@ -5705,22 +5725,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>44.2</v>
-      </c>
-      <c r="H28" s="73" t="s">
+        <v>45.2</v>
+      </c>
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -5743,7 +5763,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -5800,12 +5820,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -5819,15 +5842,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5861,98 +5881,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5969,8 +5989,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -5980,9 +6000,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -6025,8 +6045,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
@@ -6659,22 +6679,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -6753,22 +6773,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>44.2</v>
-      </c>
-      <c r="H27" s="74" t="s">
+        <v>45.2</v>
+      </c>
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 03'!K28</f>
         <v/>
@@ -6791,7 +6811,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 03'!P28</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 03'!Q28</f>
@@ -6847,22 +6867,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>44.2</v>
-      </c>
-      <c r="H28" s="73" t="s">
+        <v>45.2</v>
+      </c>
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -6885,7 +6905,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -6942,12 +6962,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -6961,15 +6984,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -6999,98 +7019,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7107,8 +7127,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -7118,9 +7138,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -7163,8 +7183,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
@@ -7797,22 +7817,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -7891,22 +7911,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>44.2</v>
-      </c>
-      <c r="H27" s="74" t="s">
+        <v>45.2</v>
+      </c>
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 04'!K28</f>
         <v/>
@@ -7929,7 +7949,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 04'!P28</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 04'!Q28</f>
@@ -7985,22 +8005,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>44.2</v>
-      </c>
-      <c r="H28" s="73" t="s">
+        <v>45.2</v>
+      </c>
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -8023,7 +8043,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -8080,12 +8100,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -8099,15 +8122,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/My_Flying_Logbook.xlsx
+++ b/My_Flying_Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D8DC40-8332-F24C-B779-B46E29703D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D087A1E0-05DE-4941-8171-4F9D32DF0165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="89">
   <si>
     <t>Month</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>Training Area</t>
+  </si>
+  <si>
+    <t>Training Area Consolidation</t>
   </si>
 </sst>
 </file>
@@ -1040,6 +1043,63 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1061,61 +1121,43 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1140,45 +1182,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1639,98 +1642,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="71" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="59" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59" t="s">
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="59" t="s">
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="62"/>
+      <c r="AC2" s="66"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="56" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56" t="s">
+      <c r="O3" s="60"/>
+      <c r="P3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56" t="s">
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56" t="s">
+      <c r="S3" s="60"/>
+      <c r="T3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56" t="s">
+      <c r="U3" s="60"/>
+      <c r="V3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56" t="s">
+      <c r="W3" s="60"/>
+      <c r="X3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56" t="s">
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56" t="s">
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="57" t="s">
+      <c r="AC3" s="61" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1747,8 +1750,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1758,9 +1761,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -1803,8 +1806,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="58"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="62"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -2821,22 +2824,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -2915,22 +2918,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -2952,22 +2955,22 @@
       <c r="AC27" s="44"/>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -3047,15 +3050,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -3069,12 +3069,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -3108,98 +3111,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3216,8 +3219,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -3227,9 +3230,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -3272,8 +3275,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -4076,22 +4079,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -4170,22 +4173,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 01'!K28</f>
         <v/>
@@ -4264,22 +4267,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -4359,15 +4362,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -4381,12 +4381,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4421,98 +4424,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4529,8 +4532,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -4540,9 +4543,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -4585,8 +4588,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -5418,20 +5421,38 @@
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B22" s="32"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="C22" s="13">
+        <v>14</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
       <c r="N22" s="11"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="11"/>
+      <c r="P22" s="11">
+        <v>1</v>
+      </c>
       <c r="Q22" s="6"/>
       <c r="R22" s="11"/>
       <c r="S22" s="6"/>
@@ -5537,22 +5558,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v>14.900000000000002</v>
-      </c>
-      <c r="H26" s="50" t="s">
+        <v>15.900000000000002</v>
+      </c>
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -5575,7 +5596,7 @@
       </c>
       <c r="P26" s="18">
         <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
-        <v>14.300000000000002</v>
+        <v>15.300000000000002</v>
       </c>
       <c r="Q26" s="5" t="str">
         <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
@@ -5631,22 +5652,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>45.2</v>
-      </c>
-      <c r="H27" s="55" t="s">
+        <v>46.2</v>
+      </c>
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 02'!K28</f>
         <v/>
@@ -5725,22 +5746,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>45.2</v>
-      </c>
-      <c r="H28" s="54" t="s">
+        <v>46.2</v>
+      </c>
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -5763,7 +5784,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -5820,15 +5841,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -5842,12 +5860,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5881,98 +5902,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5989,8 +6010,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -6000,9 +6021,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -6045,8 +6066,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
@@ -6679,22 +6700,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -6773,22 +6794,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>45.2</v>
-      </c>
-      <c r="H27" s="55" t="s">
+        <v>46.2</v>
+      </c>
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 03'!K28</f>
         <v/>
@@ -6811,7 +6832,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 03'!P28</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 03'!Q28</f>
@@ -6867,22 +6888,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>45.2</v>
-      </c>
-      <c r="H28" s="54" t="s">
+        <v>46.2</v>
+      </c>
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -6905,7 +6926,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -6962,15 +6983,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -6984,12 +7002,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -7019,98 +7040,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7127,8 +7148,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -7138,9 +7159,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -7183,8 +7204,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
@@ -7817,22 +7838,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -7911,22 +7932,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>45.2</v>
-      </c>
-      <c r="H27" s="55" t="s">
+        <v>46.2</v>
+      </c>
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 04'!K28</f>
         <v/>
@@ -7949,7 +7970,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 04'!P28</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 04'!Q28</f>
@@ -8005,22 +8026,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>45.2</v>
-      </c>
-      <c r="H28" s="54" t="s">
+        <v>46.2</v>
+      </c>
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -8043,7 +8064,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -8100,15 +8121,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -8122,12 +8140,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/My_Flying_Logbook.xlsx
+++ b/My_Flying_Logbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D087A1E0-05DE-4941-8171-4F9D32DF0165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC607A8B-C5D5-BC45-9308-93F58091E2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
   <sheets>
     <sheet name="Theorem Exam Pass Record" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="90">
   <si>
     <t>Month</t>
   </si>
@@ -345,6 +345,9 @@
   </si>
   <si>
     <t>Training Area Consolidation</t>
+  </si>
+  <si>
+    <t>First Area Solo Flight</t>
   </si>
 </sst>
 </file>
@@ -1043,6 +1046,51 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1076,50 +1124,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1158,30 +1185,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1642,98 +1645,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53" t="s">
+      <c r="C2" s="68"/>
+      <c r="D2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="56" t="s">
+      <c r="E2" s="68"/>
+      <c r="F2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="63" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63" t="s">
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="63" t="s">
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="66"/>
+      <c r="AC2" s="62"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="60" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60" t="s">
+      <c r="O3" s="56"/>
+      <c r="P3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60" t="s">
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60" t="s">
+      <c r="S3" s="56"/>
+      <c r="T3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60" t="s">
+      <c r="U3" s="56"/>
+      <c r="V3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60" t="s">
+      <c r="W3" s="56"/>
+      <c r="X3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60" t="s">
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60" t="s">
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="61" t="s">
+      <c r="AC3" s="57" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1750,8 +1753,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1761,9 +1764,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -1806,8 +1809,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="62"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="58"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -2824,22 +2827,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -2918,22 +2921,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -2955,22 +2958,22 @@
       <c r="AC27" s="44"/>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H28" s="73" t="s">
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -3050,12 +3053,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -3069,15 +3075,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -3111,98 +3114,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3219,8 +3222,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -3230,9 +3233,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -3275,8 +3278,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -4079,22 +4082,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -4173,22 +4176,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 01'!K28</f>
         <v/>
@@ -4267,22 +4270,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H28" s="73" t="s">
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -4362,12 +4365,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -4381,15 +4387,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4405,7 +4408,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4424,98 +4427,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4532,8 +4535,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -4543,9 +4546,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -4588,8 +4591,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -5469,20 +5472,38 @@
     </row>
     <row r="23" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="34"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
+      <c r="C23" s="14">
+        <v>18</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="12"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="12"/>
+      <c r="P23" s="12">
+        <v>0.9</v>
+      </c>
       <c r="Q23" s="7"/>
       <c r="R23" s="12"/>
       <c r="S23" s="7"/>
@@ -5558,22 +5579,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v>15.900000000000002</v>
-      </c>
-      <c r="H26" s="69" t="s">
+        <v>16.800000000000004</v>
+      </c>
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -5596,7 +5617,7 @@
       </c>
       <c r="P26" s="18">
         <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
-        <v>15.300000000000002</v>
+        <v>16.200000000000003</v>
       </c>
       <c r="Q26" s="5" t="str">
         <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
@@ -5652,22 +5673,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>46.2</v>
-      </c>
-      <c r="H27" s="74" t="s">
+        <v>47.1</v>
+      </c>
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 02'!K28</f>
         <v/>
@@ -5746,22 +5767,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>46.2</v>
-      </c>
-      <c r="H28" s="73" t="s">
+        <v>47.1</v>
+      </c>
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -5784,7 +5805,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>44</v>
+        <v>44.9</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -5841,12 +5862,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -5860,15 +5884,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5883,7 +5904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13AED63-1410-A341-9CF8-EFDD2A09DD73}">
   <dimension ref="B1:AC28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5902,98 +5923,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="B2" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6010,8 +6031,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -6021,9 +6042,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -6066,8 +6087,1168 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B5" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="5"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="38"/>
+    </row>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B6" s="32"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="39"/>
+    </row>
+    <row r="7" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B7" s="32"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="39"/>
+    </row>
+    <row r="8" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B8" s="32"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="39"/>
+    </row>
+    <row r="9" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B9" s="32"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="39"/>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B10" s="32"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="39"/>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B11" s="32"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="39"/>
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B12" s="32"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="39"/>
+    </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B13" s="32"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="39"/>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B14" s="32"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="39"/>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B15" s="32"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="39"/>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B16" s="32"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="39"/>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B17" s="32"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="39"/>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B18" s="32"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="39"/>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B19" s="32"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="39"/>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B20" s="32"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="39"/>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B21" s="32"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="39"/>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B22" s="32"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="39"/>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B23" s="40"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="41"/>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B24" s="32"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="39"/>
+    </row>
+    <row r="25" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="34"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="42"/>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B26" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="18">
+        <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
+        <v>1</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="18" t="str">
+        <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
+        <v/>
+      </c>
+      <c r="L26" s="18" t="str">
+        <f t="shared" ref="L26:M26" si="0">IF(SUM(L5:L25)=0,"",SUM(L5:L25))</f>
+        <v/>
+      </c>
+      <c r="M26" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N26" s="18" t="str">
+        <f>IF(SUM(N5:N25)=0,"",SUM(N5:N25))</f>
+        <v/>
+      </c>
+      <c r="O26" s="5" t="str">
+        <f>IF(SUM(O5:O25)=0,"",SUM(O5:O25))</f>
+        <v/>
+      </c>
+      <c r="P26" s="18" t="str">
+        <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
+        <v/>
+      </c>
+      <c r="Q26" s="5" t="str">
+        <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
+        <v/>
+      </c>
+      <c r="R26" s="18">
+        <f>IF(SUM(R5:R25)=0,"",SUM(R5:R25))</f>
+        <v>1</v>
+      </c>
+      <c r="S26" s="5" t="str">
+        <f t="shared" ref="S26:AC26" si="1">IF(SUM(S5:S25)=0,"",SUM(S5:S25))</f>
+        <v/>
+      </c>
+      <c r="T26" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V26" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X26" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z26" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AB26" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AC26" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B27" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="19">
+        <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
+        <v>48.1</v>
+      </c>
+      <c r="H27" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="19" t="str">
+        <f>'Page 03'!K28</f>
+        <v/>
+      </c>
+      <c r="L27" s="19" t="str">
+        <f>'Page 03'!L28</f>
+        <v/>
+      </c>
+      <c r="M27" s="19" t="str">
+        <f>'Page 03'!M28</f>
+        <v/>
+      </c>
+      <c r="N27" s="19" t="str">
+        <f>'Page 03'!N28</f>
+        <v/>
+      </c>
+      <c r="O27" s="6" t="str">
+        <f>'Page 03'!O28</f>
+        <v/>
+      </c>
+      <c r="P27" s="19">
+        <f>'Page 03'!P28</f>
+        <v>44.9</v>
+      </c>
+      <c r="Q27" s="6" t="str">
+        <f>'Page 03'!Q28</f>
+        <v/>
+      </c>
+      <c r="R27" s="19">
+        <f>'Page 03'!R28</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S27" s="6" t="str">
+        <f>'Page 03'!S28</f>
+        <v/>
+      </c>
+      <c r="T27" s="19" t="str">
+        <f>'Page 03'!T28</f>
+        <v/>
+      </c>
+      <c r="U27" s="6" t="str">
+        <f>'Page 03'!U28</f>
+        <v/>
+      </c>
+      <c r="V27" s="19" t="str">
+        <f>'Page 03'!V28</f>
+        <v/>
+      </c>
+      <c r="W27" s="6" t="str">
+        <f>'Page 03'!W28</f>
+        <v/>
+      </c>
+      <c r="X27" s="19" t="str">
+        <f>'Page 03'!X28</f>
+        <v/>
+      </c>
+      <c r="Y27" s="6" t="str">
+        <f>'Page 03'!Y28</f>
+        <v/>
+      </c>
+      <c r="Z27" s="19" t="str">
+        <f>'Page 03'!Z28</f>
+        <v/>
+      </c>
+      <c r="AA27" s="6" t="str">
+        <f>'Page 03'!AA28</f>
+        <v/>
+      </c>
+      <c r="AB27" s="19">
+        <f>'Page 03'!AB28</f>
+        <v>0.6</v>
+      </c>
+      <c r="AC27" s="44" t="str">
+        <f>'Page 03'!AC28</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="45">
+        <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
+        <v>48.1</v>
+      </c>
+      <c r="H28" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="45" t="str">
+        <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
+        <v/>
+      </c>
+      <c r="L28" s="45" t="str">
+        <f t="shared" ref="L28:N28" si="2">IF(SUM(L26:L27)=0,"",SUM(L26:L27))</f>
+        <v/>
+      </c>
+      <c r="M28" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N28" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O28" s="7" t="str">
+        <f>IF(SUM(O26:O27)=0,"",SUM(O26:O27))</f>
+        <v/>
+      </c>
+      <c r="P28" s="45">
+        <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
+        <v>44.9</v>
+      </c>
+      <c r="Q28" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R28" s="45">
+        <f t="shared" si="3"/>
+        <v>3.2</v>
+      </c>
+      <c r="S28" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T28" s="45" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U28" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V28" s="45" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="W28" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="X28" s="45" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y28" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z28" s="45" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA28" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AB28" s="45">
+        <f>IF(SUM(AB26:AB27)=0,"",SUM(AB26:AB27))</f>
+        <v>0.6</v>
+      </c>
+      <c r="AC28" s="46" t="str">
+        <f>IF(SUM(AC26:AC27)=0,"",SUM(AC26:AC27))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A45E971-D6A9-B24C-98F3-0CF59774AD53}">
+  <dimension ref="B1:AC28"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="13" width="7.42578125" customWidth="1"/>
+    <col min="14" max="27" width="5.7109375" customWidth="1"/>
+    <col min="28" max="29" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B2" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC2" s="80"/>
+    </row>
+    <row r="3" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC3" s="77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
@@ -6700,22 +7881,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -6794,116 +7975,116 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>46.2</v>
-      </c>
-      <c r="H27" s="74" t="s">
+        <v>48.1</v>
+      </c>
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
-        <f>'Page 03'!K28</f>
+        <f>'Page 04'!K28</f>
         <v/>
       </c>
       <c r="L27" s="19" t="str">
-        <f>'Page 03'!L28</f>
+        <f>'Page 04'!L28</f>
         <v/>
       </c>
       <c r="M27" s="19" t="str">
-        <f>'Page 03'!M28</f>
+        <f>'Page 04'!M28</f>
         <v/>
       </c>
       <c r="N27" s="19" t="str">
-        <f>'Page 03'!N28</f>
+        <f>'Page 04'!N28</f>
         <v/>
       </c>
       <c r="O27" s="6" t="str">
-        <f>'Page 03'!O28</f>
+        <f>'Page 04'!O28</f>
         <v/>
       </c>
       <c r="P27" s="19">
-        <f>'Page 03'!P28</f>
-        <v>44</v>
+        <f>'Page 04'!P28</f>
+        <v>44.9</v>
       </c>
       <c r="Q27" s="6" t="str">
-        <f>'Page 03'!Q28</f>
+        <f>'Page 04'!Q28</f>
         <v/>
       </c>
       <c r="R27" s="19">
-        <f>'Page 03'!R28</f>
-        <v>2.2000000000000002</v>
+        <f>'Page 04'!R28</f>
+        <v>3.2</v>
       </c>
       <c r="S27" s="6" t="str">
-        <f>'Page 03'!S28</f>
+        <f>'Page 04'!S28</f>
         <v/>
       </c>
       <c r="T27" s="19" t="str">
-        <f>'Page 03'!T28</f>
+        <f>'Page 04'!T28</f>
         <v/>
       </c>
       <c r="U27" s="6" t="str">
-        <f>'Page 03'!U28</f>
+        <f>'Page 04'!U28</f>
         <v/>
       </c>
       <c r="V27" s="19" t="str">
-        <f>'Page 03'!V28</f>
+        <f>'Page 04'!V28</f>
         <v/>
       </c>
       <c r="W27" s="6" t="str">
-        <f>'Page 03'!W28</f>
+        <f>'Page 04'!W28</f>
         <v/>
       </c>
       <c r="X27" s="19" t="str">
-        <f>'Page 03'!X28</f>
+        <f>'Page 04'!X28</f>
         <v/>
       </c>
       <c r="Y27" s="6" t="str">
-        <f>'Page 03'!Y28</f>
+        <f>'Page 04'!Y28</f>
         <v/>
       </c>
       <c r="Z27" s="19" t="str">
-        <f>'Page 03'!Z28</f>
+        <f>'Page 04'!Z28</f>
         <v/>
       </c>
       <c r="AA27" s="6" t="str">
-        <f>'Page 03'!AA28</f>
+        <f>'Page 04'!AA28</f>
         <v/>
       </c>
       <c r="AB27" s="19">
-        <f>'Page 03'!AB28</f>
+        <f>'Page 04'!AB28</f>
         <v>0.6</v>
       </c>
       <c r="AC27" s="44" t="str">
-        <f>'Page 03'!AC28</f>
+        <f>'Page 04'!AC28</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>46.2</v>
-      </c>
-      <c r="H28" s="73" t="s">
+        <v>48.1</v>
+      </c>
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -6926,7 +8107,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>44</v>
+        <v>44.9</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -6934,7 +8115,7 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="S28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -6983,12 +8164,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -7002,1153 +8186,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A45E971-D6A9-B24C-98F3-0CF59774AD53}">
-  <dimension ref="B1:AC28"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" customWidth="1"/>
-    <col min="9" max="10" width="6.7109375" customWidth="1"/>
-    <col min="11" max="13" width="7.42578125" customWidth="1"/>
-    <col min="14" max="27" width="5.7109375" customWidth="1"/>
-    <col min="28" max="29" width="9.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC2" s="93"/>
-    </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC3" s="90" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="S4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="T4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="U4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="V4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="W4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="X4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
-    </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B5" s="37"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="38"/>
-    </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B6" s="32"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="39"/>
-    </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B7" s="32"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="39"/>
-    </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B8" s="32"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="39"/>
-    </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B9" s="32"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="39"/>
-    </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B10" s="32"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="39"/>
-    </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B11" s="32"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="39"/>
-    </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B12" s="32"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="39"/>
-    </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B13" s="32"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="39"/>
-    </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B14" s="32"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="39"/>
-    </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B15" s="32"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="39"/>
-    </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B16" s="32"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="39"/>
-    </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B17" s="32"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="39"/>
-    </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B18" s="32"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="39"/>
-    </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B19" s="32"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="39"/>
-    </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B20" s="32"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="39"/>
-    </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B21" s="32"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="39"/>
-    </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B22" s="32"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="39"/>
-    </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B23" s="40"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="41"/>
-    </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B24" s="32"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="39"/>
-    </row>
-    <row r="25" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="34"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="42"/>
-    </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="18" t="str">
-        <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v/>
-      </c>
-      <c r="H26" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="18" t="str">
-        <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
-        <v/>
-      </c>
-      <c r="L26" s="18" t="str">
-        <f t="shared" ref="L26:M26" si="0">IF(SUM(L5:L25)=0,"",SUM(L5:L25))</f>
-        <v/>
-      </c>
-      <c r="M26" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N26" s="18" t="str">
-        <f>IF(SUM(N5:N25)=0,"",SUM(N5:N25))</f>
-        <v/>
-      </c>
-      <c r="O26" s="5" t="str">
-        <f>IF(SUM(O5:O25)=0,"",SUM(O5:O25))</f>
-        <v/>
-      </c>
-      <c r="P26" s="18" t="str">
-        <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
-        <v/>
-      </c>
-      <c r="Q26" s="5" t="str">
-        <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
-        <v/>
-      </c>
-      <c r="R26" s="18" t="str">
-        <f>IF(SUM(R5:R25)=0,"",SUM(R5:R25))</f>
-        <v/>
-      </c>
-      <c r="S26" s="5" t="str">
-        <f t="shared" ref="S26:AC26" si="1">IF(SUM(S5:S25)=0,"",SUM(S5:S25))</f>
-        <v/>
-      </c>
-      <c r="T26" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U26" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V26" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W26" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X26" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y26" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z26" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AA26" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AB26" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AC26" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="19">
-        <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>46.2</v>
-      </c>
-      <c r="H27" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="19" t="str">
-        <f>'Page 04'!K28</f>
-        <v/>
-      </c>
-      <c r="L27" s="19" t="str">
-        <f>'Page 04'!L28</f>
-        <v/>
-      </c>
-      <c r="M27" s="19" t="str">
-        <f>'Page 04'!M28</f>
-        <v/>
-      </c>
-      <c r="N27" s="19" t="str">
-        <f>'Page 04'!N28</f>
-        <v/>
-      </c>
-      <c r="O27" s="6" t="str">
-        <f>'Page 04'!O28</f>
-        <v/>
-      </c>
-      <c r="P27" s="19">
-        <f>'Page 04'!P28</f>
-        <v>44</v>
-      </c>
-      <c r="Q27" s="6" t="str">
-        <f>'Page 04'!Q28</f>
-        <v/>
-      </c>
-      <c r="R27" s="19">
-        <f>'Page 04'!R28</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="S27" s="6" t="str">
-        <f>'Page 04'!S28</f>
-        <v/>
-      </c>
-      <c r="T27" s="19" t="str">
-        <f>'Page 04'!T28</f>
-        <v/>
-      </c>
-      <c r="U27" s="6" t="str">
-        <f>'Page 04'!U28</f>
-        <v/>
-      </c>
-      <c r="V27" s="19" t="str">
-        <f>'Page 04'!V28</f>
-        <v/>
-      </c>
-      <c r="W27" s="6" t="str">
-        <f>'Page 04'!W28</f>
-        <v/>
-      </c>
-      <c r="X27" s="19" t="str">
-        <f>'Page 04'!X28</f>
-        <v/>
-      </c>
-      <c r="Y27" s="6" t="str">
-        <f>'Page 04'!Y28</f>
-        <v/>
-      </c>
-      <c r="Z27" s="19" t="str">
-        <f>'Page 04'!Z28</f>
-        <v/>
-      </c>
-      <c r="AA27" s="6" t="str">
-        <f>'Page 04'!AA28</f>
-        <v/>
-      </c>
-      <c r="AB27" s="19">
-        <f>'Page 04'!AB28</f>
-        <v>0.6</v>
-      </c>
-      <c r="AC27" s="44" t="str">
-        <f>'Page 04'!AC28</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="45">
-        <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>46.2</v>
-      </c>
-      <c r="H28" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="45" t="str">
-        <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
-        <v/>
-      </c>
-      <c r="L28" s="45" t="str">
-        <f t="shared" ref="L28:N28" si="2">IF(SUM(L26:L27)=0,"",SUM(L26:L27))</f>
-        <v/>
-      </c>
-      <c r="M28" s="45" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N28" s="45" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O28" s="7" t="str">
-        <f>IF(SUM(O26:O27)=0,"",SUM(O26:O27))</f>
-        <v/>
-      </c>
-      <c r="P28" s="45">
-        <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>44</v>
-      </c>
-      <c r="Q28" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R28" s="45">
-        <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="S28" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="T28" s="45" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="U28" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="V28" s="45" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="W28" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="X28" s="45" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Y28" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Z28" s="45" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AA28" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AB28" s="45">
-        <f>IF(SUM(AB26:AB27)=0,"",SUM(AB26:AB27))</f>
-        <v>0.6</v>
-      </c>
-      <c r="AC28" s="46" t="str">
-        <f>IF(SUM(AC26:AC27)=0,"",SUM(AC26:AC27))</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="H27:J27"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="H28:J28"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/My_Flying_Logbook.xlsx
+++ b/My_Flying_Logbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC607A8B-C5D5-BC45-9308-93F58091E2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E100AD6-17F4-FE4E-8FC9-547CE9C41416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
   <sheets>
     <sheet name="Theorem Exam Pass Record" sheetId="2" r:id="rId1"/>
@@ -1046,6 +1046,63 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1067,61 +1124,43 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1146,45 +1185,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1645,98 +1645,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="71" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="59" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59" t="s">
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="59" t="s">
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="62"/>
+      <c r="AC2" s="66"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="56" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56" t="s">
+      <c r="O3" s="60"/>
+      <c r="P3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56" t="s">
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56" t="s">
+      <c r="S3" s="60"/>
+      <c r="T3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56" t="s">
+      <c r="U3" s="60"/>
+      <c r="V3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56" t="s">
+      <c r="W3" s="60"/>
+      <c r="X3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56" t="s">
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56" t="s">
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="57" t="s">
+      <c r="AC3" s="61" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1753,8 +1753,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1764,9 +1764,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -1809,8 +1809,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="58"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="62"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -2827,22 +2827,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -2921,22 +2921,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -2958,22 +2958,22 @@
       <c r="AC27" s="44"/>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -3053,15 +3053,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -3075,12 +3072,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -3114,98 +3114,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3222,8 +3222,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -3233,9 +3233,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -3278,8 +3278,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -4082,22 +4082,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -4176,22 +4176,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 01'!K28</f>
         <v/>
@@ -4270,22 +4270,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -4365,15 +4365,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -4387,12 +4384,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4408,7 +4408,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:AC28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4427,98 +4429,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4535,8 +4537,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -4546,9 +4548,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -4591,8 +4593,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -5473,7 +5475,7 @@
     <row r="23" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="34"/>
       <c r="C23" s="14">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>22</v>
@@ -5579,22 +5581,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>16.800000000000004</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -5673,22 +5675,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>47.1</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 02'!K28</f>
         <v/>
@@ -5767,22 +5769,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>47.1</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -5862,15 +5864,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -5884,12 +5883,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5904,7 +5906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13AED63-1410-A341-9CF8-EFDD2A09DD73}">
   <dimension ref="B1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5923,98 +5925,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6031,8 +6033,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -6042,9 +6044,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -6087,8 +6089,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -6741,22 +6743,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>1</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -6835,22 +6837,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>48.1</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 03'!K28</f>
         <v/>
@@ -6929,22 +6931,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>48.1</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -7024,15 +7026,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -7046,12 +7045,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -7083,98 +7085,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7191,8 +7193,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -7202,9 +7204,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -7247,8 +7249,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
@@ -7881,22 +7883,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -7975,22 +7977,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>48.1</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 04'!K28</f>
         <v/>
@@ -8069,22 +8071,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>48.1</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -8164,15 +8166,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -8186,12 +8185,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/My_Flying_Logbook.xlsx
+++ b/My_Flying_Logbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E100AD6-17F4-FE4E-8FC9-547CE9C41416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107B0853-160C-6F4F-85E7-ECCF0223C155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
   <sheets>
     <sheet name="Theorem Exam Pass Record" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="92">
   <si>
     <t>Month</t>
   </si>
@@ -348,6 +348,12 @@
   </si>
   <si>
     <t>First Area Solo Flight</t>
+  </si>
+  <si>
+    <t>B. Rout</t>
+  </si>
+  <si>
+    <t>Precautionary Search &amp; Landing</t>
   </si>
 </sst>
 </file>
@@ -1046,6 +1052,51 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1079,50 +1130,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1161,30 +1191,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1645,98 +1651,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53" t="s">
+      <c r="C2" s="68"/>
+      <c r="D2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="56" t="s">
+      <c r="E2" s="68"/>
+      <c r="F2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="63" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63" t="s">
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="63" t="s">
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="66"/>
+      <c r="AC2" s="62"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="60" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60" t="s">
+      <c r="O3" s="56"/>
+      <c r="P3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60" t="s">
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60" t="s">
+      <c r="S3" s="56"/>
+      <c r="T3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60" t="s">
+      <c r="U3" s="56"/>
+      <c r="V3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60" t="s">
+      <c r="W3" s="56"/>
+      <c r="X3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60" t="s">
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60" t="s">
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="61" t="s">
+      <c r="AC3" s="57" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1753,8 +1759,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1764,9 +1770,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -1809,8 +1815,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="62"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="58"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -2827,22 +2833,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -2921,22 +2927,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -2958,22 +2964,22 @@
       <c r="AC27" s="44"/>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H28" s="73" t="s">
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -3053,12 +3059,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -3072,15 +3081,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -3114,98 +3120,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3222,8 +3228,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -3233,9 +3239,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -3278,8 +3284,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -4082,22 +4088,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -4176,22 +4182,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 01'!K28</f>
         <v/>
@@ -4270,22 +4276,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H28" s="73" t="s">
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -4365,12 +4371,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -4384,15 +4393,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4408,7 +4414,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -4429,98 +4435,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4537,8 +4543,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -4548,9 +4554,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -4593,8 +4599,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -5581,22 +5587,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>16.800000000000004</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -5675,22 +5681,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>47.1</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 02'!K28</f>
         <v/>
@@ -5769,22 +5775,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>47.1</v>
       </c>
-      <c r="H28" s="73" t="s">
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -5864,12 +5870,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -5883,15 +5892,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5906,7 +5912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13AED63-1410-A341-9CF8-EFDD2A09DD73}">
   <dimension ref="B1:AC28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5925,98 +5931,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6033,8 +6039,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -6044,9 +6050,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -6089,8 +6095,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -6143,21 +6149,41 @@
       <c r="AC5" s="38"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B6" s="32"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="B6" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="13">
+        <v>2</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="11"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="11"/>
+      <c r="P6" s="11">
+        <v>0.9</v>
+      </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="11"/>
       <c r="S6" s="6"/>
@@ -6743,22 +6769,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v>1</v>
-      </c>
-      <c r="H26" s="69" t="s">
+        <v>1.9</v>
+      </c>
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -6779,9 +6805,9 @@
         <f>IF(SUM(O5:O25)=0,"",SUM(O5:O25))</f>
         <v/>
       </c>
-      <c r="P26" s="18" t="str">
+      <c r="P26" s="18">
         <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
-        <v/>
+        <v>0.9</v>
       </c>
       <c r="Q26" s="5" t="str">
         <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
@@ -6837,22 +6863,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>48.1</v>
-      </c>
-      <c r="H27" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 03'!K28</f>
         <v/>
@@ -6931,22 +6957,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>48.1</v>
-      </c>
-      <c r="H28" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -6969,7 +6995,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>44.9</v>
+        <v>45.8</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -7026,12 +7052,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -7045,15 +7074,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -7085,98 +7111,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7193,8 +7219,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -7204,9 +7230,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -7249,8 +7275,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
@@ -7883,22 +7909,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -7977,22 +8003,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>48.1</v>
-      </c>
-      <c r="H27" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 04'!K28</f>
         <v/>
@@ -8015,7 +8041,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 04'!P28</f>
-        <v>44.9</v>
+        <v>45.8</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 04'!Q28</f>
@@ -8071,22 +8097,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>48.1</v>
-      </c>
-      <c r="H28" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -8109,7 +8135,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>44.9</v>
+        <v>45.8</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -8166,12 +8192,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -8185,15 +8214,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/My_Flying_Logbook.xlsx
+++ b/My_Flying_Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107B0853-160C-6F4F-85E7-ECCF0223C155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2485D83-F308-4743-BC1E-4C89509D6E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="93">
   <si>
     <t>Month</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>Precautionary Search &amp; Landing</t>
+  </si>
+  <si>
+    <t>Area-solo Check (X-wind 14KTS)</t>
   </si>
 </sst>
 </file>
@@ -1052,6 +1055,63 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1073,61 +1133,43 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1152,45 +1194,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1651,98 +1654,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="71" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="59" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59" t="s">
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="59" t="s">
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="62"/>
+      <c r="AC2" s="66"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="56" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56" t="s">
+      <c r="O3" s="60"/>
+      <c r="P3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56" t="s">
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56" t="s">
+      <c r="S3" s="60"/>
+      <c r="T3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56" t="s">
+      <c r="U3" s="60"/>
+      <c r="V3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56" t="s">
+      <c r="W3" s="60"/>
+      <c r="X3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56" t="s">
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56" t="s">
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="57" t="s">
+      <c r="AC3" s="61" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1759,8 +1762,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1770,9 +1773,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -1815,8 +1818,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="58"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="62"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -2833,22 +2836,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -2927,22 +2930,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -2964,22 +2967,22 @@
       <c r="AC27" s="44"/>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -3059,15 +3062,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -3081,12 +3081,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -3120,98 +3123,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3228,8 +3231,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -3239,9 +3242,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -3284,8 +3287,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -4088,22 +4091,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -4182,22 +4185,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 01'!K28</f>
         <v/>
@@ -4276,22 +4279,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -4371,15 +4374,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -4393,12 +4393,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4435,98 +4438,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4543,8 +4546,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -4554,9 +4557,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -4599,8 +4602,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -5587,22 +5590,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>16.800000000000004</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -5681,22 +5684,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>47.1</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 02'!K28</f>
         <v/>
@@ -5775,22 +5778,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>47.1</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -5870,15 +5873,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -5892,12 +5892,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5931,98 +5934,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6039,8 +6042,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -6050,9 +6053,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -6095,8 +6098,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -6200,20 +6203,38 @@
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B7" s="32"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="C7" s="13">
+        <v>8</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="11"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="11"/>
+      <c r="P7" s="11">
+        <v>1.2</v>
+      </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="11"/>
       <c r="S7" s="6"/>
@@ -6769,22 +6790,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v>1.9</v>
-      </c>
-      <c r="H26" s="50" t="s">
+        <v>3.1</v>
+      </c>
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -6807,7 +6828,7 @@
       </c>
       <c r="P26" s="18">
         <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q26" s="5" t="str">
         <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
@@ -6863,22 +6884,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>49</v>
-      </c>
-      <c r="H27" s="55" t="s">
+        <v>50.2</v>
+      </c>
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 03'!K28</f>
         <v/>
@@ -6957,22 +6978,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>49</v>
-      </c>
-      <c r="H28" s="54" t="s">
+        <v>50.2</v>
+      </c>
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -6995,7 +7016,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>45.8</v>
+        <v>47</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -7052,15 +7073,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -7074,13 +7092,17 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -7111,98 +7133,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7219,8 +7241,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -7230,9 +7252,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -7275,8 +7297,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
@@ -7909,22 +7931,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -8003,22 +8025,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>49</v>
-      </c>
-      <c r="H27" s="55" t="s">
+        <v>50.2</v>
+      </c>
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 04'!K28</f>
         <v/>
@@ -8041,7 +8063,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 04'!P28</f>
-        <v>45.8</v>
+        <v>47</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 04'!Q28</f>
@@ -8097,22 +8119,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>49</v>
-      </c>
-      <c r="H28" s="54" t="s">
+        <v>50.2</v>
+      </c>
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -8135,7 +8157,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>45.8</v>
+        <v>47</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -8192,15 +8214,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -8214,12 +8233,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/My_Flying_Logbook.xlsx
+++ b/My_Flying_Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2485D83-F308-4743-BC1E-4C89509D6E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D214368-8474-C446-ACE7-DE0C9E98B3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="94">
   <si>
     <t>Month</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>Area-solo Check (X-wind 14KTS)</t>
+  </si>
+  <si>
+    <t>Second Area Solo (X-wind 15KTS)</t>
   </si>
 </sst>
 </file>
@@ -1055,6 +1058,51 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1088,50 +1136,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1170,30 +1197,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1654,98 +1657,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53" t="s">
+      <c r="C2" s="68"/>
+      <c r="D2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="56" t="s">
+      <c r="E2" s="68"/>
+      <c r="F2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="63" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63" t="s">
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="63" t="s">
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="66"/>
+      <c r="AC2" s="62"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="60" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60" t="s">
+      <c r="O3" s="56"/>
+      <c r="P3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60" t="s">
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60" t="s">
+      <c r="S3" s="56"/>
+      <c r="T3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60" t="s">
+      <c r="U3" s="56"/>
+      <c r="V3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60" t="s">
+      <c r="W3" s="56"/>
+      <c r="X3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60" t="s">
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60" t="s">
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="61" t="s">
+      <c r="AC3" s="57" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1762,8 +1765,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1773,9 +1776,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -1818,8 +1821,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="62"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="58"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -2836,22 +2839,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -2930,22 +2933,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -2967,22 +2970,22 @@
       <c r="AC27" s="44"/>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H28" s="73" t="s">
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -3062,12 +3065,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -3081,15 +3087,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -3123,98 +3126,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3231,8 +3234,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -3242,9 +3245,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -3287,8 +3290,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -4091,22 +4094,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -4185,22 +4188,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 01'!K28</f>
         <v/>
@@ -4279,22 +4282,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H28" s="73" t="s">
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -4374,12 +4377,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -4393,15 +4399,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4418,7 +4421,7 @@
   <dimension ref="B1:AC28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4438,98 +4441,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4546,8 +4549,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -4557,9 +4560,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -4602,8 +4605,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -5590,22 +5593,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>16.800000000000004</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -5684,22 +5687,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>47.1</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 02'!K28</f>
         <v/>
@@ -5778,22 +5781,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>47.1</v>
       </c>
-      <c r="H28" s="73" t="s">
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -5873,12 +5876,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -5892,15 +5898,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5934,98 +5937,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6042,8 +6045,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -6053,9 +6056,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -6098,8 +6101,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -6251,14 +6254,30 @@
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B8" s="32"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="C8" s="13">
+        <v>9</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
@@ -6266,7 +6285,9 @@
       <c r="O8" s="6"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="6"/>
-      <c r="R8" s="11"/>
+      <c r="R8" s="11">
+        <v>1</v>
+      </c>
       <c r="S8" s="6"/>
       <c r="T8" s="11"/>
       <c r="U8" s="6"/>
@@ -6790,22 +6811,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v>3.1</v>
-      </c>
-      <c r="H26" s="69" t="s">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -6836,7 +6857,7 @@
       </c>
       <c r="R26" s="18">
         <f>IF(SUM(R5:R25)=0,"",SUM(R5:R25))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S26" s="5" t="str">
         <f t="shared" ref="S26:AC26" si="1">IF(SUM(S5:S25)=0,"",SUM(S5:S25))</f>
@@ -6884,22 +6905,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>50.2</v>
-      </c>
-      <c r="H27" s="74" t="s">
+        <v>51.2</v>
+      </c>
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 03'!K28</f>
         <v/>
@@ -6978,22 +6999,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>50.2</v>
-      </c>
-      <c r="H28" s="73" t="s">
+        <v>51.2</v>
+      </c>
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -7024,7 +7045,7 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="S28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -7073,12 +7094,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -7092,15 +7116,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7133,98 +7154,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7241,8 +7262,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -7252,9 +7273,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -7297,8 +7318,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
@@ -7931,22 +7952,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -8025,22 +8046,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>50.2</v>
-      </c>
-      <c r="H27" s="74" t="s">
+        <v>51.2</v>
+      </c>
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 04'!K28</f>
         <v/>
@@ -8071,7 +8092,7 @@
       </c>
       <c r="R27" s="19">
         <f>'Page 04'!R28</f>
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="S27" s="6" t="str">
         <f>'Page 04'!S28</f>
@@ -8119,22 +8140,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>50.2</v>
-      </c>
-      <c r="H28" s="73" t="s">
+        <v>51.2</v>
+      </c>
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -8165,7 +8186,7 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="S28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -8214,12 +8235,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -8233,15 +8257,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/My_Flying_Logbook.xlsx
+++ b/My_Flying_Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D214368-8474-C446-ACE7-DE0C9E98B3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48079F68-62F7-9C43-A089-4801821FA59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="95">
   <si>
     <t>Month</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>Second Area Solo (X-wind 15KTS)</t>
+  </si>
+  <si>
+    <t>Third Area Solo  Flight</t>
   </si>
 </sst>
 </file>
@@ -1058,6 +1061,63 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1079,61 +1139,43 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1158,45 +1200,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1657,98 +1660,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="71" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="59" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59" t="s">
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="59" t="s">
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="62"/>
+      <c r="AC2" s="66"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="56" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56" t="s">
+      <c r="O3" s="60"/>
+      <c r="P3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56" t="s">
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56" t="s">
+      <c r="S3" s="60"/>
+      <c r="T3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56" t="s">
+      <c r="U3" s="60"/>
+      <c r="V3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56" t="s">
+      <c r="W3" s="60"/>
+      <c r="X3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56" t="s">
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56" t="s">
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="57" t="s">
+      <c r="AC3" s="61" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1765,8 +1768,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1776,9 +1779,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -1821,8 +1824,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="58"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="62"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -2839,22 +2842,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -2933,22 +2936,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -2970,22 +2973,22 @@
       <c r="AC27" s="44"/>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -3065,15 +3068,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -3087,12 +3087,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -3126,98 +3129,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3234,8 +3237,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -3245,9 +3248,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -3290,8 +3293,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -4094,22 +4097,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -4188,22 +4191,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 01'!K28</f>
         <v/>
@@ -4282,22 +4285,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -4377,15 +4380,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -4399,12 +4399,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4441,98 +4444,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4549,8 +4552,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -4560,9 +4563,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -4605,8 +4608,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -5593,22 +5596,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>16.800000000000004</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -5687,22 +5690,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>47.1</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 02'!K28</f>
         <v/>
@@ -5781,22 +5784,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>47.1</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -5876,15 +5879,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -5898,12 +5898,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5937,98 +5940,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6045,8 +6048,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -6056,9 +6059,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -6101,8 +6104,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -6302,14 +6305,30 @@
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B9" s="32"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="C9" s="13">
+        <v>11</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
@@ -6317,7 +6336,9 @@
       <c r="O9" s="6"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="6"/>
-      <c r="R9" s="11"/>
+      <c r="R9" s="11">
+        <v>1</v>
+      </c>
       <c r="S9" s="6"/>
       <c r="T9" s="11"/>
       <c r="U9" s="6"/>
@@ -6811,22 +6832,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H26" s="50" t="s">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -6857,7 +6878,7 @@
       </c>
       <c r="R26" s="18">
         <f>IF(SUM(R5:R25)=0,"",SUM(R5:R25))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S26" s="5" t="str">
         <f t="shared" ref="S26:AC26" si="1">IF(SUM(S5:S25)=0,"",SUM(S5:S25))</f>
@@ -6905,22 +6926,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>51.2</v>
-      </c>
-      <c r="H27" s="55" t="s">
+        <v>52.2</v>
+      </c>
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 03'!K28</f>
         <v/>
@@ -6999,22 +7020,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>51.2</v>
-      </c>
-      <c r="H28" s="54" t="s">
+        <v>52.2</v>
+      </c>
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -7045,7 +7066,7 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="3"/>
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="S28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -7094,15 +7115,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -7116,12 +7134,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7154,98 +7175,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7262,8 +7283,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -7273,9 +7294,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -7318,8 +7339,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
@@ -7952,22 +7973,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -8046,22 +8067,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>51.2</v>
-      </c>
-      <c r="H27" s="55" t="s">
+        <v>52.2</v>
+      </c>
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 04'!K28</f>
         <v/>
@@ -8092,7 +8113,7 @@
       </c>
       <c r="R27" s="19">
         <f>'Page 04'!R28</f>
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="S27" s="6" t="str">
         <f>'Page 04'!S28</f>
@@ -8140,22 +8161,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>51.2</v>
-      </c>
-      <c r="H28" s="54" t="s">
+        <v>52.2</v>
+      </c>
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -8186,7 +8207,7 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="3"/>
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="S28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -8235,15 +8256,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -8257,12 +8275,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/My_Flying_Logbook.xlsx
+++ b/My_Flying_Logbook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48079F68-62F7-9C43-A089-4801821FA59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F31D83E-06D5-3143-9FCE-1FFD4DF1428B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="96">
   <si>
     <t>Month</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>Third Area Solo  Flight</t>
+  </si>
+  <si>
+    <t>Pre-licence Check</t>
   </si>
 </sst>
 </file>
@@ -1061,6 +1064,51 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1094,50 +1142,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1176,30 +1203,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1660,98 +1663,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53" t="s">
+      <c r="C2" s="68"/>
+      <c r="D2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="56" t="s">
+      <c r="E2" s="68"/>
+      <c r="F2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="63" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63" t="s">
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="63" t="s">
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="66"/>
+      <c r="AC2" s="62"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="60" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60" t="s">
+      <c r="O3" s="56"/>
+      <c r="P3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60" t="s">
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60" t="s">
+      <c r="S3" s="56"/>
+      <c r="T3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60" t="s">
+      <c r="U3" s="56"/>
+      <c r="V3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60" t="s">
+      <c r="W3" s="56"/>
+      <c r="X3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60" t="s">
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60" t="s">
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="61" t="s">
+      <c r="AC3" s="57" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1768,8 +1771,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1779,9 +1782,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -1824,8 +1827,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="62"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="58"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -2842,22 +2845,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -2936,22 +2939,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -2973,22 +2976,22 @@
       <c r="AC27" s="44"/>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H28" s="73" t="s">
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -3068,12 +3071,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -3087,15 +3093,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -3129,98 +3132,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3237,8 +3240,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -3248,9 +3251,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -3293,8 +3296,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -4097,22 +4100,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -4191,22 +4194,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 01'!K28</f>
         <v/>
@@ -4285,22 +4288,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H28" s="73" t="s">
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -4380,12 +4383,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -4399,15 +4405,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4444,98 +4447,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4552,8 +4555,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -4563,9 +4566,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -4608,8 +4611,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -5596,22 +5599,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>16.800000000000004</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -5690,22 +5693,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>47.1</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 02'!K28</f>
         <v/>
@@ -5784,22 +5787,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>47.1</v>
       </c>
-      <c r="H28" s="73" t="s">
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -5879,12 +5882,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -5898,15 +5904,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5940,98 +5943,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6048,8 +6051,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -6059,9 +6062,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -6104,8 +6107,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -6352,21 +6355,41 @@
       <c r="AC9" s="39"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B10" s="32"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="B10" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="13">
+        <v>18</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="11"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="11"/>
+      <c r="P10" s="11">
+        <v>1.2</v>
+      </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="11"/>
       <c r="S10" s="6"/>
@@ -6832,22 +6855,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H26" s="69" t="s">
+        <v>6.3</v>
+      </c>
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -6870,7 +6893,7 @@
       </c>
       <c r="P26" s="18">
         <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q26" s="5" t="str">
         <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
@@ -6926,22 +6949,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>52.2</v>
-      </c>
-      <c r="H27" s="74" t="s">
+        <v>53.4</v>
+      </c>
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 03'!K28</f>
         <v/>
@@ -7020,22 +7043,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>52.2</v>
-      </c>
-      <c r="H28" s="73" t="s">
+        <v>53.4</v>
+      </c>
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -7058,7 +7081,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>47</v>
+        <v>48.199999999999996</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -7115,12 +7138,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -7134,15 +7160,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7175,98 +7198,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7283,8 +7306,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -7294,9 +7317,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -7339,8 +7362,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
@@ -7973,22 +7996,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -8067,22 +8090,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>52.2</v>
-      </c>
-      <c r="H27" s="74" t="s">
+        <v>53.4</v>
+      </c>
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 04'!K28</f>
         <v/>
@@ -8105,7 +8128,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 04'!P28</f>
-        <v>47</v>
+        <v>48.199999999999996</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 04'!Q28</f>
@@ -8161,22 +8184,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>52.2</v>
-      </c>
-      <c r="H28" s="73" t="s">
+        <v>53.4</v>
+      </c>
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -8199,7 +8222,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>47</v>
+        <v>48.199999999999996</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -8256,12 +8279,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -8275,15 +8301,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/My_Flying_Logbook.xlsx
+++ b/My_Flying_Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F31D83E-06D5-3143-9FCE-1FFD4DF1428B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFE29E6-E6A2-2C45-BAE1-D331306ADABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="96">
   <si>
     <t>Month</t>
   </si>
@@ -1064,6 +1064,63 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1085,61 +1142,43 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1164,45 +1203,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1663,98 +1663,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="71" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="59" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59" t="s">
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="59" t="s">
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="62"/>
+      <c r="AC2" s="66"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="56" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56" t="s">
+      <c r="O3" s="60"/>
+      <c r="P3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56" t="s">
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56" t="s">
+      <c r="S3" s="60"/>
+      <c r="T3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56" t="s">
+      <c r="U3" s="60"/>
+      <c r="V3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56" t="s">
+      <c r="W3" s="60"/>
+      <c r="X3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56" t="s">
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56" t="s">
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="57" t="s">
+      <c r="AC3" s="61" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1771,8 +1771,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1782,9 +1782,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -1827,8 +1827,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="58"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="62"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -2845,22 +2845,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -2939,22 +2939,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -2976,22 +2976,22 @@
       <c r="AC27" s="44"/>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -3071,15 +3071,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -3093,12 +3090,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -3132,98 +3132,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3240,8 +3240,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -3251,9 +3251,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -3296,8 +3296,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -4100,22 +4100,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -4194,22 +4194,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 01'!K28</f>
         <v/>
@@ -4288,22 +4288,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -4383,15 +4383,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -4405,12 +4402,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4447,98 +4447,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4555,8 +4555,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -4566,9 +4566,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -4611,8 +4611,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -5599,22 +5599,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>16.800000000000004</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -5693,22 +5693,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>47.1</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 02'!K28</f>
         <v/>
@@ -5787,22 +5787,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>47.1</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -5882,15 +5882,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -5904,12 +5901,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5943,98 +5943,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6051,8 +6051,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -6062,9 +6062,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -6107,8 +6107,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -6406,20 +6406,38 @@
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B11" s="32"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+      <c r="C11" s="13">
+        <v>28</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="11"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="11"/>
+      <c r="P11" s="11">
+        <v>1</v>
+      </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="11"/>
       <c r="S11" s="6"/>
@@ -6855,22 +6873,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v>6.3</v>
-      </c>
-      <c r="H26" s="50" t="s">
+        <v>7.3</v>
+      </c>
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -6893,7 +6911,7 @@
       </c>
       <c r="P26" s="18">
         <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="Q26" s="5" t="str">
         <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
@@ -6949,22 +6967,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>53.4</v>
-      </c>
-      <c r="H27" s="55" t="s">
+        <v>54.4</v>
+      </c>
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 03'!K28</f>
         <v/>
@@ -7043,22 +7061,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>53.4</v>
-      </c>
-      <c r="H28" s="54" t="s">
+        <v>54.4</v>
+      </c>
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -7081,7 +7099,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>48.199999999999996</v>
+        <v>49.199999999999996</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -7138,15 +7156,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -7160,12 +7175,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7198,98 +7216,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7306,8 +7324,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -7317,9 +7335,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -7362,8 +7380,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
@@ -7996,22 +8014,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -8090,22 +8108,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>53.4</v>
-      </c>
-      <c r="H27" s="55" t="s">
+        <v>54.4</v>
+      </c>
+      <c r="H27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 04'!K28</f>
         <v/>
@@ -8128,7 +8146,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 04'!P28</f>
-        <v>48.199999999999996</v>
+        <v>49.199999999999996</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 04'!Q28</f>
@@ -8184,22 +8202,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>53.4</v>
-      </c>
-      <c r="H28" s="54" t="s">
+        <v>54.4</v>
+      </c>
+      <c r="H28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -8222,7 +8240,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>48.199999999999996</v>
+        <v>49.199999999999996</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -8279,15 +8297,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -8301,12 +8316,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/My_Flying_Logbook.xlsx
+++ b/My_Flying_Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFE29E6-E6A2-2C45-BAE1-D331306ADABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502CD942-AE12-364F-A3CB-22C2E04FA8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="99">
   <si>
     <t>Month</t>
   </si>
@@ -366,6 +366,15 @@
   </si>
   <si>
     <t>Pre-licence Check</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>M. King</t>
+  </si>
+  <si>
+    <t>RPL Flight Test</t>
   </si>
 </sst>
 </file>
@@ -1064,6 +1073,51 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1097,50 +1151,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1179,30 +1212,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1663,98 +1672,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53" t="s">
+      <c r="C2" s="68"/>
+      <c r="D2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="56" t="s">
+      <c r="E2" s="68"/>
+      <c r="F2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="63" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63" t="s">
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="63" t="s">
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="66"/>
+      <c r="AC2" s="62"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="60" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60" t="s">
+      <c r="O3" s="56"/>
+      <c r="P3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60" t="s">
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60" t="s">
+      <c r="S3" s="56"/>
+      <c r="T3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60" t="s">
+      <c r="U3" s="56"/>
+      <c r="V3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60" t="s">
+      <c r="W3" s="56"/>
+      <c r="X3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60" t="s">
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60" t="s">
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="61" t="s">
+      <c r="AC3" s="57" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1771,8 +1780,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -1782,9 +1791,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -1827,8 +1836,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="62"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="58"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -2845,22 +2854,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -2939,22 +2948,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -2976,22 +2985,22 @@
       <c r="AC27" s="44"/>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H28" s="73" t="s">
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -3071,12 +3080,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -3090,15 +3102,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -3132,98 +3141,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3240,8 +3249,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -3251,9 +3260,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -3296,8 +3305,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -4100,22 +4109,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -4194,22 +4203,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 01'!K28</f>
         <v/>
@@ -4288,22 +4297,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H28" s="73" t="s">
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -4383,12 +4392,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -4402,15 +4414,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4447,98 +4456,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4555,8 +4564,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -4566,9 +4575,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -4611,8 +4620,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -5599,22 +5608,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>16.800000000000004</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -5693,22 +5702,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>47.1</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 02'!K28</f>
         <v/>
@@ -5787,22 +5796,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>47.1</v>
       </c>
-      <c r="H28" s="73" t="s">
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -5882,12 +5891,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -5901,15 +5913,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5943,98 +5952,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6051,8 +6060,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -6062,9 +6071,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -6107,8 +6116,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -6453,21 +6462,41 @@
       <c r="AC11" s="39"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B12" s="32"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="B12" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="13">
+        <v>2</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="11"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="11"/>
+      <c r="P12" s="11">
+        <v>1.4</v>
+      </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="11"/>
       <c r="S12" s="6"/>
@@ -6479,7 +6508,9 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="11"/>
       <c r="AA12" s="6"/>
-      <c r="AB12" s="11"/>
+      <c r="AB12" s="11">
+        <v>0.2</v>
+      </c>
       <c r="AC12" s="39"/>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.2">
@@ -6873,22 +6904,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v>7.3</v>
-      </c>
-      <c r="H26" s="69" t="s">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -6911,7 +6942,7 @@
       </c>
       <c r="P26" s="18">
         <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
-        <v>4.3</v>
+        <v>5.6999999999999993</v>
       </c>
       <c r="Q26" s="5" t="str">
         <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
@@ -6957,9 +6988,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AB26" s="18" t="str">
+      <c r="AB26" s="18">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.2</v>
       </c>
       <c r="AC26" s="43" t="str">
         <f t="shared" si="1"/>
@@ -6967,22 +6998,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>54.4</v>
-      </c>
-      <c r="H27" s="74" t="s">
+        <v>55.8</v>
+      </c>
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 03'!K28</f>
         <v/>
@@ -7061,22 +7092,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>54.4</v>
-      </c>
-      <c r="H28" s="73" t="s">
+        <v>55.8</v>
+      </c>
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -7099,7 +7130,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>49.199999999999996</v>
+        <v>50.599999999999994</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -7147,7 +7178,7 @@
       </c>
       <c r="AB28" s="45">
         <f>IF(SUM(AB26:AB27)=0,"",SUM(AB26:AB27))</f>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AC28" s="46" t="str">
         <f>IF(SUM(AC26:AC27)=0,"",SUM(AC26:AC27))</f>
@@ -7156,12 +7187,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -7175,15 +7209,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7216,98 +7247,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="76"/>
+      <c r="X3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7324,8 +7355,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
@@ -7335,9 +7366,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -7380,8 +7411,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
@@ -8014,22 +8045,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -8108,22 +8139,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>54.4</v>
-      </c>
-      <c r="H27" s="74" t="s">
+        <v>55.8</v>
+      </c>
+      <c r="H27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="19" t="str">
         <f>'Page 04'!K28</f>
         <v/>
@@ -8146,7 +8177,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 04'!P28</f>
-        <v>49.199999999999996</v>
+        <v>50.599999999999994</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 04'!Q28</f>
@@ -8194,7 +8225,7 @@
       </c>
       <c r="AB27" s="19">
         <f>'Page 04'!AB28</f>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AC27" s="44" t="str">
         <f>'Page 04'!AC28</f>
@@ -8202,22 +8233,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>54.4</v>
-      </c>
-      <c r="H28" s="73" t="s">
+        <v>55.8</v>
+      </c>
+      <c r="H28" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -8240,7 +8271,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>49.199999999999996</v>
+        <v>50.599999999999994</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -8288,7 +8319,7 @@
       </c>
       <c r="AB28" s="45">
         <f>IF(SUM(AB26:AB27)=0,"",SUM(AB26:AB27))</f>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AC28" s="46" t="str">
         <f>IF(SUM(AC26:AC27)=0,"",SUM(AC26:AC27))</f>
@@ -8297,12 +8328,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -8316,15 +8350,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/My_Flying_Logbook.xlsx
+++ b/My_Flying_Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502CD942-AE12-364F-A3CB-22C2E04FA8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A220B7-4265-0F4B-96EB-3D3C2814DA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="101">
   <si>
     <t>Month</t>
   </si>
@@ -375,6 +375,12 @@
   </si>
   <si>
     <t>RPL Flight Test</t>
+  </si>
+  <si>
+    <t>M. N. Ting</t>
+  </si>
+  <si>
+    <t>YSBK-LOE-LRF-LOE-YSBK</t>
   </si>
 </sst>
 </file>
@@ -5933,7 +5939,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13AED63-1410-A341-9CF8-EFDD2A09DD73}">
   <dimension ref="B1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6515,20 +6523,38 @@
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B13" s="32"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="C13" s="13">
+        <v>15</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="11"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="11"/>
+      <c r="P13" s="11">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="11"/>
       <c r="S13" s="6"/>
@@ -6913,7 +6939,7 @@
       <c r="F26" s="50"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v>8.6999999999999993</v>
+        <v>9.7999999999999989</v>
       </c>
       <c r="H26" s="50" t="s">
         <v>49</v>
@@ -6942,7 +6968,7 @@
       </c>
       <c r="P26" s="18">
         <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
-        <v>5.6999999999999993</v>
+        <v>6.7999999999999989</v>
       </c>
       <c r="Q26" s="5" t="str">
         <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
@@ -7007,7 +7033,7 @@
       <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>55.8</v>
+        <v>56.9</v>
       </c>
       <c r="H27" s="55" t="s">
         <v>61</v>
@@ -7101,7 +7127,7 @@
       <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>55.8</v>
+        <v>56.9</v>
       </c>
       <c r="H28" s="54" t="s">
         <v>50</v>
@@ -7130,7 +7156,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>50.599999999999994</v>
+        <v>51.699999999999996</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -8148,7 +8174,7 @@
       <c r="F27" s="52"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>55.8</v>
+        <v>56.9</v>
       </c>
       <c r="H27" s="55" t="s">
         <v>61</v>
@@ -8177,7 +8203,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 04'!P28</f>
-        <v>50.599999999999994</v>
+        <v>51.699999999999996</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 04'!Q28</f>
@@ -8242,7 +8268,7 @@
       <c r="F28" s="54"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>55.8</v>
+        <v>56.9</v>
       </c>
       <c r="H28" s="54" t="s">
         <v>50</v>
@@ -8271,7 +8297,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>50.599999999999994</v>
+        <v>51.699999999999996</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>

--- a/My_Flying_Logbook.xlsx
+++ b/My_Flying_Logbook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A220B7-4265-0F4B-96EB-3D3C2814DA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54CB70E-E358-D242-A4A0-08DD01CB6BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -110,9 +110,6 @@
     <t>April</t>
   </si>
   <si>
-    <t>PA-28</t>
-  </si>
-  <si>
     <t>VH-LXP</t>
   </si>
   <si>
@@ -381,6 +378,9 @@
   </si>
   <si>
     <t>YSBK-LOE-LRF-LOE-YSBK</t>
+  </si>
+  <si>
+    <t>P28A</t>
   </si>
 </sst>
 </file>
@@ -933,7 +933,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1079,6 +1079,63 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1100,61 +1157,43 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1181,43 +1220,7 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1509,15 +1512,15 @@
     <row r="1" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="23">
         <v>1127225</v>
@@ -1526,13 +1529,13 @@
     <row r="4" spans="2:4" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:4" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="D5" s="29" t="s">
         <v>41</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -1540,10 +1543,10 @@
         <v>44308</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="31" t="s">
         <v>43</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -1551,10 +1554,10 @@
         <v>44575</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -1678,98 +1681,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68" t="s">
+      <c r="B2" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="71" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="59" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59" t="s">
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="59" t="s">
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="62"/>
+      <c r="AC2" s="66"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="56" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56" t="s">
+      <c r="O3" s="60"/>
+      <c r="P3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56" t="s">
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56" t="s">
+      <c r="S3" s="60"/>
+      <c r="T3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56" t="s">
+      <c r="U3" s="60"/>
+      <c r="V3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56" t="s">
+      <c r="W3" s="60"/>
+      <c r="X3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56" t="s">
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56" t="s">
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="57" t="s">
+      <c r="AC3" s="61" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1786,20 +1789,20 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -1842,8 +1845,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="58"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="62"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -1853,25 +1856,25 @@
         <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -1900,26 +1903,26 @@
       <c r="C6" s="13">
         <v>29</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="H6" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -1948,26 +1951,26 @@
       <c r="C7" s="13">
         <v>30</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="H7" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
@@ -1996,26 +1999,26 @@
       <c r="C8" s="13">
         <v>30</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="H8" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
@@ -2044,26 +2047,26 @@
       <c r="C9" s="13">
         <v>31</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="F9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="G9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="H9" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
@@ -2094,26 +2097,26 @@
       <c r="C10" s="13">
         <v>1</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="F10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="G10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="H10" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -2142,26 +2145,26 @@
       <c r="C11" s="13">
         <v>7</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="F11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="G11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="H11" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
@@ -2190,26 +2193,26 @@
       <c r="C12" s="13">
         <v>8</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="F12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="G12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="H12" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
@@ -2238,26 +2241,26 @@
       <c r="C13" s="13">
         <v>8</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="F13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="G13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="H13" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
@@ -2286,26 +2289,26 @@
       <c r="C14" s="13">
         <v>9</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="F14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="G14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="H14" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
@@ -2334,26 +2337,26 @@
       <c r="C15" s="13">
         <v>9</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="F15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="G15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="H15" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
@@ -2382,26 +2385,26 @@
       <c r="C16" s="13">
         <v>12</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="F16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="G16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="H16" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -2430,26 +2433,26 @@
       <c r="C17" s="13">
         <v>13</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="F17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="G17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="H17" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
@@ -2478,26 +2481,26 @@
       <c r="C18" s="13">
         <v>14</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="F18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="G18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="H18" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -2526,26 +2529,26 @@
       <c r="C19" s="13">
         <v>20</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="F19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="G19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="H19" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
@@ -2574,26 +2577,26 @@
       <c r="C20" s="13">
         <v>20</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="F20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="G20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="H20" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
@@ -2622,26 +2625,26 @@
       <c r="C21" s="13">
         <v>28</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="F21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="G21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="H21" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
@@ -2670,26 +2673,26 @@
       <c r="C22" s="13">
         <v>29</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="F22" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="G22" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="H22" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -2715,31 +2718,31 @@
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="13">
         <v>10</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="F23" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="G23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="H23" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -2768,26 +2771,26 @@
       <c r="C24" s="15">
         <v>10</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="F24" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
@@ -2816,26 +2819,26 @@
       <c r="C25" s="14">
         <v>25</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="F25" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="G25" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="H25" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
@@ -2860,22 +2863,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="B26" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H26" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="H26" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -2954,22 +2957,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="B27" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H27" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="H27" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -2991,22 +2994,22 @@
       <c r="AC27" s="44"/>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="B28" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H28" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="H28" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -3086,15 +3089,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -3108,12 +3108,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -3147,98 +3150,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="B2" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3255,20 +3258,20 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -3311,36 +3314,36 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1">
         <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -3369,26 +3372,26 @@
       <c r="C6" s="8">
         <v>31</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="F6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -3414,31 +3417,31 @@
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B7" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="13">
         <v>2</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="H7" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -3468,25 +3471,25 @@
         <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -3515,26 +3518,26 @@
       <c r="C9" s="13">
         <v>22</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="F9" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -3560,31 +3563,31 @@
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B10" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -3613,26 +3616,26 @@
       <c r="C11" s="13">
         <v>6</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="F11" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
@@ -3658,31 +3661,31 @@
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B12" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="13">
         <v>4</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="F12" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
@@ -3711,26 +3714,26 @@
       <c r="C13" s="14">
         <v>9</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>23</v>
-      </c>
       <c r="F13" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
@@ -4115,22 +4118,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="B26" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="H26" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="H26" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -4209,22 +4212,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="B27" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H27" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="H27" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 01'!K28</f>
         <v/>
@@ -4303,22 +4306,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="B28" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H28" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="H28" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -4398,15 +4401,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -4420,12 +4420,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4441,9 +4444,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:AC28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4462,98 +4463,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="B2" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4570,20 +4571,20 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -4626,36 +4627,36 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1">
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -4685,25 +4686,25 @@
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -4732,26 +4733,26 @@
       <c r="C7" s="13">
         <v>21</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>22</v>
+      <c r="D7" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="E7" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>72</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -4780,26 +4781,26 @@
       <c r="C8" s="13">
         <v>26</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>22</v>
+      <c r="D8" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
@@ -4830,26 +4831,26 @@
       <c r="C9" s="13">
         <v>29</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>22</v>
+      <c r="D9" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -4875,31 +4876,31 @@
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B10" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="13">
         <v>9</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -4928,26 +4929,26 @@
       <c r="C11" s="13">
         <v>10</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
@@ -4976,26 +4977,26 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="F12" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
@@ -5024,26 +5025,26 @@
       <c r="C13" s="13">
         <v>13</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
@@ -5074,26 +5075,26 @@
       <c r="C14" s="13">
         <v>11</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -5122,26 +5123,26 @@
       <c r="C15" s="13">
         <v>16</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="F15" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
@@ -5170,26 +5171,26 @@
       <c r="C16" s="13">
         <v>18</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="F16" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -5218,26 +5219,26 @@
       <c r="C17" s="13">
         <v>21</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="F17" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
@@ -5266,26 +5267,26 @@
       <c r="C18" s="13">
         <v>23</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="F18" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
@@ -5314,26 +5315,26 @@
       <c r="C19" s="13">
         <v>30</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>22</v>
+      <c r="D19" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
@@ -5364,26 +5365,26 @@
       <c r="C20" s="13">
         <v>3</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>22</v>
+      <c r="D20" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -5409,31 +5410,31 @@
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B21" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="13">
         <v>4</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="F21" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
@@ -5462,26 +5463,26 @@
       <c r="C22" s="13">
         <v>14</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="F22" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
@@ -5510,26 +5511,26 @@
       <c r="C23" s="14">
         <v>16</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>23</v>
-      </c>
       <c r="F23" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
@@ -5614,22 +5615,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="B26" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>16.800000000000004</v>
       </c>
-      <c r="H26" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="H26" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -5708,22 +5709,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="B27" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>47.1</v>
       </c>
-      <c r="H27" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="H27" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 02'!K28</f>
         <v/>
@@ -5802,22 +5803,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="B28" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>47.1</v>
       </c>
-      <c r="H28" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="H28" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -5897,15 +5898,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -5919,12 +5917,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5939,9 +5940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13AED63-1410-A341-9CF8-EFDD2A09DD73}">
   <dimension ref="B1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5960,98 +5959,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="B2" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6068,20 +6067,20 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -6124,36 +6123,36 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1">
         <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -6179,31 +6178,31 @@
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B6" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="13">
         <v>2</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="F6" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>91</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -6232,26 +6231,26 @@
       <c r="C7" s="13">
         <v>8</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="F7" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -6280,26 +6279,26 @@
       <c r="C8" s="13">
         <v>9</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="F8" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
@@ -6328,26 +6327,26 @@
       <c r="C9" s="13">
         <v>11</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="F9" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -6373,31 +6372,31 @@
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B10" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="13">
         <v>18</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="F10" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -6426,26 +6425,26 @@
       <c r="C11" s="13">
         <v>28</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="F11" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
@@ -6471,31 +6470,31 @@
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B12" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="13">
         <v>2</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="F12" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>98</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
@@ -6526,26 +6525,26 @@
       <c r="C13" s="13">
         <v>15</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="F13" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>100</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
@@ -6930,22 +6929,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="B26" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>9.7999999999999989</v>
       </c>
-      <c r="H26" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="H26" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -7024,22 +7023,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="B27" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>56.9</v>
       </c>
-      <c r="H27" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="H27" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 03'!K28</f>
         <v/>
@@ -7118,22 +7117,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="B28" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>56.9</v>
       </c>
-      <c r="H28" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="H28" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -7213,15 +7212,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -7235,12 +7231,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7273,98 +7272,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="87" t="s">
+      <c r="B2" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="75" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="89"/>
+      <c r="T3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="89"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="77" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7381,20 +7380,20 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -7437,8 +7436,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="91"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
@@ -8071,22 +8070,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="B26" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="H26" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -8165,22 +8164,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="B27" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>56.9</v>
       </c>
-      <c r="H27" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="H27" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="19" t="str">
         <f>'Page 04'!K28</f>
         <v/>
@@ -8259,22 +8258,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="B28" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>56.9</v>
       </c>
-      <c r="H28" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="H28" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -8354,15 +8353,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -8376,12 +8372,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/My_Flying_Logbook.xlsx
+++ b/My_Flying_Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54CB70E-E358-D242-A4A0-08DD01CB6BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20963A4-72AD-3C45-9D63-CD2FDD5E334A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="102">
   <si>
     <t>Month</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>P28A</t>
+  </si>
+  <si>
+    <t>YSBK-TA-YSBK</t>
   </si>
 </sst>
 </file>
@@ -1079,6 +1082,54 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1112,50 +1163,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1194,33 +1224,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1681,98 +1684,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="56" t="s">
+      <c r="E2" s="69"/>
+      <c r="F2" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="63" t="s">
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63" t="s">
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="63" t="s">
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="66"/>
+      <c r="AC2" s="63"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="60" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60" t="s">
+      <c r="O3" s="57"/>
+      <c r="P3" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60" t="s">
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60" t="s">
+      <c r="S3" s="57"/>
+      <c r="T3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60" t="s">
+      <c r="U3" s="57"/>
+      <c r="V3" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60" t="s">
+      <c r="W3" s="57"/>
+      <c r="X3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60" t="s">
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60" t="s">
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="61" t="s">
+      <c r="AC3" s="58" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1789,8 +1792,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="21" t="s">
         <v>29</v>
       </c>
@@ -1800,9 +1803,9 @@
       <c r="J4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -1845,8 +1848,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="62"/>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="59"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -2863,22 +2866,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -2957,22 +2960,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -2994,22 +2997,22 @@
       <c r="AC27" s="44"/>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H28" s="73" t="s">
+      <c r="H28" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -3089,12 +3092,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -3108,15 +3114,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -3150,98 +3153,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="85"/>
+      <c r="D2" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="93"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="81"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="77"/>
+      <c r="P3" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="77"/>
+      <c r="R3" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="77"/>
+      <c r="T3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="77"/>
+      <c r="V3" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="77"/>
+      <c r="X3" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="78" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3258,8 +3261,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
       <c r="H4" s="21" t="s">
         <v>29</v>
       </c>
@@ -3269,9 +3272,9 @@
       <c r="J4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -3314,8 +3317,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="79"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -3372,7 +3375,7 @@
       <c r="C6" s="8">
         <v>31</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="49" t="s">
         <v>100</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -4118,22 +4121,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -4212,22 +4215,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
       <c r="K27" s="19" t="str">
         <f>'Page 01'!K28</f>
         <v/>
@@ -4306,22 +4309,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H28" s="73" t="s">
+      <c r="H28" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -4401,12 +4404,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -4420,15 +4426,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4463,98 +4466,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="85"/>
+      <c r="D2" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="93"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="81"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="77"/>
+      <c r="P3" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="77"/>
+      <c r="R3" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="77"/>
+      <c r="T3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="77"/>
+      <c r="V3" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="77"/>
+      <c r="X3" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="78" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4571,8 +4574,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
       <c r="H4" s="21" t="s">
         <v>29</v>
       </c>
@@ -4582,9 +4585,9 @@
       <c r="J4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -4627,8 +4630,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="79"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -5615,22 +5618,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>16.800000000000004</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -5709,22 +5712,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>47.1</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
       <c r="K27" s="19" t="str">
         <f>'Page 02'!K28</f>
         <v/>
@@ -5803,22 +5806,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>47.1</v>
       </c>
-      <c r="H28" s="73" t="s">
+      <c r="H28" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -5898,12 +5901,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -5917,15 +5923,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5959,98 +5962,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="85"/>
+      <c r="D2" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="93"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="81"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="77"/>
+      <c r="P3" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="77"/>
+      <c r="R3" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="77"/>
+      <c r="T3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="77"/>
+      <c r="V3" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="77"/>
+      <c r="X3" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="78" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6067,8 +6070,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
       <c r="H4" s="21" t="s">
         <v>29</v>
       </c>
@@ -6078,9 +6081,9 @@
       <c r="J4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -6123,8 +6126,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="79"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -6570,14 +6573,30 @@
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B14" s="32"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="C14" s="13">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
@@ -6585,7 +6604,9 @@
       <c r="O14" s="6"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="6"/>
-      <c r="R14" s="11"/>
+      <c r="R14" s="11">
+        <v>0.8</v>
+      </c>
       <c r="S14" s="6"/>
       <c r="T14" s="11"/>
       <c r="U14" s="6"/>
@@ -6929,22 +6950,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v>9.7999999999999989</v>
-      </c>
-      <c r="H26" s="69" t="s">
+        <v>10.599999999999998</v>
+      </c>
+      <c r="H26" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -6975,7 +6996,7 @@
       </c>
       <c r="R26" s="18">
         <f>IF(SUM(R5:R25)=0,"",SUM(R5:R25))</f>
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="S26" s="5" t="str">
         <f t="shared" ref="S26:AC26" si="1">IF(SUM(S5:S25)=0,"",SUM(S5:S25))</f>
@@ -7023,22 +7044,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>56.9</v>
-      </c>
-      <c r="H27" s="74" t="s">
+        <v>57.699999999999996</v>
+      </c>
+      <c r="H27" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
       <c r="K27" s="19" t="str">
         <f>'Page 03'!K28</f>
         <v/>
@@ -7117,22 +7138,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>56.9</v>
-      </c>
-      <c r="H28" s="73" t="s">
+        <v>57.699999999999996</v>
+      </c>
+      <c r="H28" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -7163,7 +7184,7 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="S28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -7212,12 +7233,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -7231,15 +7255,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7272,98 +7293,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="85"/>
+      <c r="D2" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="93"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="93"/>
+      <c r="AC2" s="81"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="77"/>
+      <c r="P3" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="77"/>
+      <c r="R3" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="77"/>
+      <c r="T3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="77"/>
+      <c r="V3" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88" t="s">
+      <c r="W3" s="77"/>
+      <c r="X3" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="94" t="s">
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AC3" s="78" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7380,8 +7401,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
       <c r="H4" s="21" t="s">
         <v>29</v>
       </c>
@@ -7391,9 +7412,9 @@
       <c r="J4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -7436,8 +7457,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="91"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="79"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
@@ -8070,22 +8091,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -8164,22 +8185,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>56.9</v>
-      </c>
-      <c r="H27" s="74" t="s">
+        <v>57.699999999999996</v>
+      </c>
+      <c r="H27" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
       <c r="K27" s="19" t="str">
         <f>'Page 04'!K28</f>
         <v/>
@@ -8210,7 +8231,7 @@
       </c>
       <c r="R27" s="19">
         <f>'Page 04'!R28</f>
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="S27" s="6" t="str">
         <f>'Page 04'!S28</f>
@@ -8258,22 +8279,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>56.9</v>
-      </c>
-      <c r="H28" s="73" t="s">
+        <v>57.699999999999996</v>
+      </c>
+      <c r="H28" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -8304,7 +8325,7 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="S28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -8353,12 +8374,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -8372,15 +8396,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/My_Flying_Logbook.xlsx
+++ b/My_Flying_Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20963A4-72AD-3C45-9D63-CD2FDD5E334A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA2ECCE-302F-F14A-AB43-E2A0EBA398ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="104">
   <si>
     <t>Month</t>
   </si>
@@ -384,6 +384,12 @@
   </si>
   <si>
     <t>YSBK-TA-YSBK</t>
+  </si>
+  <si>
+    <t>A. Muscat</t>
+  </si>
+  <si>
+    <t>VHF Costal Route Victor 1</t>
   </si>
 </sst>
 </file>
@@ -1085,6 +1091,63 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1106,61 +1169,43 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1185,45 +1230,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1684,98 +1690,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="72" t="s">
+      <c r="E2" s="54"/>
+      <c r="F2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="65" t="s">
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60" t="s">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="60" t="s">
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="63"/>
+      <c r="AC2" s="67"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="57" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57" t="s">
+      <c r="O3" s="61"/>
+      <c r="P3" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57" t="s">
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57" t="s">
+      <c r="S3" s="61"/>
+      <c r="T3" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57" t="s">
+      <c r="U3" s="61"/>
+      <c r="V3" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57" t="s">
+      <c r="W3" s="61"/>
+      <c r="X3" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57" t="s">
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57" t="s">
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="58" t="s">
+      <c r="AC3" s="62" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1792,8 +1798,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="21" t="s">
         <v>29</v>
       </c>
@@ -1803,9 +1809,9 @@
       <c r="J4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -1848,8 +1854,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="64"/>
-      <c r="AC4" s="59"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="63"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -2866,22 +2872,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H26" s="51" t="s">
+      <c r="H26" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -2960,22 +2966,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H27" s="56" t="s">
+      <c r="H27" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -2997,22 +3003,22 @@
       <c r="AC27" s="44"/>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H28" s="55" t="s">
+      <c r="H28" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -3092,15 +3098,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -3114,12 +3117,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -3153,98 +3159,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="88" t="s">
+      <c r="C2" s="77"/>
+      <c r="D2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="90" t="s">
+      <c r="E2" s="77"/>
+      <c r="F2" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="90" t="s">
+      <c r="G2" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="88" t="s">
+      <c r="H2" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="93"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="65" t="s">
+      <c r="I2" s="85"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="61" t="s">
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="61" t="s">
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="61" t="s">
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="81"/>
+      <c r="AC2" s="94"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="76" t="s">
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="77"/>
-      <c r="P3" s="76" t="s">
+      <c r="O3" s="90"/>
+      <c r="P3" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="76" t="s">
+      <c r="Q3" s="90"/>
+      <c r="R3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="77"/>
-      <c r="T3" s="76" t="s">
+      <c r="S3" s="90"/>
+      <c r="T3" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="77"/>
-      <c r="V3" s="76" t="s">
+      <c r="U3" s="90"/>
+      <c r="V3" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="77"/>
-      <c r="X3" s="76" t="s">
+      <c r="W3" s="90"/>
+      <c r="X3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="76" t="s">
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="82" t="s">
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="78" t="s">
+      <c r="AC3" s="91" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3261,8 +3267,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
       <c r="H4" s="21" t="s">
         <v>29</v>
       </c>
@@ -3272,9 +3278,9 @@
       <c r="J4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -3317,8 +3323,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="79"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="92"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -4121,22 +4127,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="H26" s="51" t="s">
+      <c r="H26" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -4215,22 +4221,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H27" s="56" t="s">
+      <c r="H27" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
       <c r="K27" s="19" t="str">
         <f>'Page 01'!K28</f>
         <v/>
@@ -4309,22 +4315,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H28" s="55" t="s">
+      <c r="H28" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -4404,15 +4410,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -4426,12 +4429,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4466,98 +4472,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="88" t="s">
+      <c r="C2" s="77"/>
+      <c r="D2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="90" t="s">
+      <c r="E2" s="77"/>
+      <c r="F2" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="90" t="s">
+      <c r="G2" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="88" t="s">
+      <c r="H2" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="93"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="65" t="s">
+      <c r="I2" s="85"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="61" t="s">
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="61" t="s">
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="61" t="s">
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="81"/>
+      <c r="AC2" s="94"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="76" t="s">
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="77"/>
-      <c r="P3" s="76" t="s">
+      <c r="O3" s="90"/>
+      <c r="P3" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="76" t="s">
+      <c r="Q3" s="90"/>
+      <c r="R3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="77"/>
-      <c r="T3" s="76" t="s">
+      <c r="S3" s="90"/>
+      <c r="T3" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="77"/>
-      <c r="V3" s="76" t="s">
+      <c r="U3" s="90"/>
+      <c r="V3" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="77"/>
-      <c r="X3" s="76" t="s">
+      <c r="W3" s="90"/>
+      <c r="X3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="76" t="s">
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="82" t="s">
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="78" t="s">
+      <c r="AC3" s="91" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4574,8 +4580,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
       <c r="H4" s="21" t="s">
         <v>29</v>
       </c>
@@ -4585,9 +4591,9 @@
       <c r="J4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -4630,8 +4636,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="79"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="92"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -5618,22 +5624,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>16.800000000000004</v>
       </c>
-      <c r="H26" s="51" t="s">
+      <c r="H26" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -5712,22 +5718,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>47.1</v>
       </c>
-      <c r="H27" s="56" t="s">
+      <c r="H27" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
       <c r="K27" s="19" t="str">
         <f>'Page 02'!K28</f>
         <v/>
@@ -5806,22 +5812,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>47.1</v>
       </c>
-      <c r="H28" s="55" t="s">
+      <c r="H28" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -5901,15 +5907,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -5923,12 +5926,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5962,98 +5968,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="88" t="s">
+      <c r="C2" s="77"/>
+      <c r="D2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="90" t="s">
+      <c r="E2" s="77"/>
+      <c r="F2" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="90" t="s">
+      <c r="G2" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="88" t="s">
+      <c r="H2" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="93"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="65" t="s">
+      <c r="I2" s="85"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="61" t="s">
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="61" t="s">
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="61" t="s">
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="81"/>
+      <c r="AC2" s="94"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="76" t="s">
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="77"/>
-      <c r="P3" s="76" t="s">
+      <c r="O3" s="90"/>
+      <c r="P3" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="76" t="s">
+      <c r="Q3" s="90"/>
+      <c r="R3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="77"/>
-      <c r="T3" s="76" t="s">
+      <c r="S3" s="90"/>
+      <c r="T3" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="77"/>
-      <c r="V3" s="76" t="s">
+      <c r="U3" s="90"/>
+      <c r="V3" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="77"/>
-      <c r="X3" s="76" t="s">
+      <c r="W3" s="90"/>
+      <c r="X3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="76" t="s">
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="82" t="s">
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="78" t="s">
+      <c r="AC3" s="91" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6070,8 +6076,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
       <c r="H4" s="21" t="s">
         <v>29</v>
       </c>
@@ -6081,9 +6087,9 @@
       <c r="J4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -6126,8 +6132,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="79"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="92"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -6621,20 +6627,38 @@
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B15" s="32"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="C15" s="13">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="11"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="11"/>
+      <c r="P15" s="11">
+        <v>1.2</v>
+      </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="11"/>
       <c r="S15" s="6"/>
@@ -6950,22 +6974,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v>10.599999999999998</v>
-      </c>
-      <c r="H26" s="51" t="s">
+        <v>11.799999999999999</v>
+      </c>
+      <c r="H26" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -6988,7 +7012,7 @@
       </c>
       <c r="P26" s="18">
         <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
-        <v>6.7999999999999989</v>
+        <v>7.9999999999999991</v>
       </c>
       <c r="Q26" s="5" t="str">
         <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
@@ -7044,22 +7068,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>57.699999999999996</v>
-      </c>
-      <c r="H27" s="56" t="s">
+        <v>58.9</v>
+      </c>
+      <c r="H27" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
       <c r="K27" s="19" t="str">
         <f>'Page 03'!K28</f>
         <v/>
@@ -7138,22 +7162,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>57.699999999999996</v>
-      </c>
-      <c r="H28" s="55" t="s">
+        <v>58.9</v>
+      </c>
+      <c r="H28" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -7176,7 +7200,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>51.699999999999996</v>
+        <v>52.9</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -7233,15 +7257,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -7255,12 +7276,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7293,98 +7317,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="88" t="s">
+      <c r="C2" s="77"/>
+      <c r="D2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="90" t="s">
+      <c r="E2" s="77"/>
+      <c r="F2" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="90" t="s">
+      <c r="G2" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="88" t="s">
+      <c r="H2" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="93"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="65" t="s">
+      <c r="I2" s="85"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="61" t="s">
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="61" t="s">
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="61" t="s">
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="81"/>
+      <c r="AC2" s="94"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="76" t="s">
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="77"/>
-      <c r="P3" s="76" t="s">
+      <c r="O3" s="90"/>
+      <c r="P3" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="76" t="s">
+      <c r="Q3" s="90"/>
+      <c r="R3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="77"/>
-      <c r="T3" s="76" t="s">
+      <c r="S3" s="90"/>
+      <c r="T3" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="77"/>
-      <c r="V3" s="76" t="s">
+      <c r="U3" s="90"/>
+      <c r="V3" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="77"/>
-      <c r="X3" s="76" t="s">
+      <c r="W3" s="90"/>
+      <c r="X3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="76" t="s">
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="82" t="s">
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="78" t="s">
+      <c r="AC3" s="91" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7401,8 +7425,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
       <c r="H4" s="21" t="s">
         <v>29</v>
       </c>
@@ -7412,9 +7436,9 @@
       <c r="J4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -7457,8 +7481,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="79"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="92"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
@@ -8091,22 +8115,22 @@
       <c r="AC25" s="42"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="51" t="s">
+      <c r="H26" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -8185,22 +8209,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>57.699999999999996</v>
-      </c>
-      <c r="H27" s="56" t="s">
+        <v>58.9</v>
+      </c>
+      <c r="H27" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
       <c r="K27" s="19" t="str">
         <f>'Page 04'!K28</f>
         <v/>
@@ -8223,7 +8247,7 @@
       </c>
       <c r="P27" s="19">
         <f>'Page 04'!P28</f>
-        <v>51.699999999999996</v>
+        <v>52.9</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 04'!Q28</f>
@@ -8279,22 +8303,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
       <c r="G28" s="45">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>57.699999999999996</v>
-      </c>
-      <c r="H28" s="55" t="s">
+        <v>58.9</v>
+      </c>
+      <c r="H28" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
       <c r="K28" s="45" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -8317,7 +8341,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>51.699999999999996</v>
+        <v>52.9</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -8374,15 +8398,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -8396,12 +8417,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/My_Flying_Logbook.xlsx
+++ b/My_Flying_Logbook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA2ECCE-302F-F14A-AB43-E2A0EBA398ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E018700B-B6EB-9A4A-A672-482465955AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="106">
   <si>
     <t>Month</t>
   </si>
@@ -390,6 +390,12 @@
   </si>
   <si>
     <t>VHF Costal Route Victor 1</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Victor 1</t>
   </si>
 </sst>
 </file>
@@ -942,7 +948,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1007,22 +1013,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1046,12 +1049,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1091,6 +1088,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1124,50 +1166,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1206,30 +1227,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1505,7 +1502,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0954CD-8BCF-B44D-B508-FF8A17311B21}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1520,144 +1517,124 @@
   <sheetData>
     <row r="1" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="22">
         <v>1127225</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:4" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="30">
+      <c r="B6" s="29">
         <v>44308</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="30">
+      <c r="B7" s="29">
         <v>44575</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="32"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="13"/>
-      <c r="D8" s="33"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="32"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="33"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="32"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="33"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="32"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="33"/>
+      <c r="D11" s="32"/>
     </row>
     <row r="12" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="32"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="33"/>
+      <c r="D12" s="32"/>
     </row>
     <row r="13" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="32"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="33"/>
+      <c r="D13" s="32"/>
     </row>
     <row r="14" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="32"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="33"/>
+      <c r="D14" s="32"/>
     </row>
     <row r="15" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="32"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="33"/>
+      <c r="D15" s="32"/>
     </row>
     <row r="16" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="32"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="33"/>
+      <c r="D16" s="32"/>
     </row>
     <row r="17" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="32"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="33"/>
+      <c r="D17" s="32"/>
     </row>
     <row r="18" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="32"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="33"/>
+      <c r="D18" s="32"/>
     </row>
     <row r="19" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="32"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="33"/>
+      <c r="D19" s="32"/>
     </row>
     <row r="20" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="32"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="33"/>
+      <c r="D20" s="32"/>
     </row>
     <row r="21" spans="2:4" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="34"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="35"/>
-    </row>
-    <row r="22" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-    </row>
-    <row r="23" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-    </row>
-    <row r="24" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-    </row>
-    <row r="25" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+      <c r="D21" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1690,103 +1667,103 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="57" t="s">
+      <c r="E2" s="66"/>
+      <c r="F2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="50" t="s">
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64" t="s">
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="64" t="s">
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="67"/>
+      <c r="AC2" s="60"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="61" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61" t="s">
+      <c r="S3" s="54"/>
+      <c r="T3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61" t="s">
+      <c r="U3" s="54"/>
+      <c r="V3" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61" t="s">
+      <c r="W3" s="54"/>
+      <c r="X3" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61" t="s">
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="61" t="s">
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="62" t="s">
+      <c r="AC3" s="55" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -1798,8 +1775,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="21" t="s">
         <v>29</v>
       </c>
@@ -1809,9 +1786,9 @@
       <c r="J4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -1854,11 +1831,11 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="68"/>
-      <c r="AC4" s="63"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="56"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="34" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="1">
@@ -1905,10 +1882,10 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="2"/>
-      <c r="AC5" s="38"/>
+      <c r="AC5" s="35"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B6" s="32"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="13">
         <v>29</v>
       </c>
@@ -1953,10 +1930,10 @@
       <c r="Z6" s="11"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="11"/>
-      <c r="AC6" s="39"/>
+      <c r="AC6" s="36"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B7" s="32"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="13">
         <v>30</v>
       </c>
@@ -2001,10 +1978,10 @@
       <c r="Z7" s="11"/>
       <c r="AA7" s="6"/>
       <c r="AB7" s="11"/>
-      <c r="AC7" s="39"/>
+      <c r="AC7" s="36"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B8" s="32"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="13">
         <v>30</v>
       </c>
@@ -2049,10 +2026,10 @@
       <c r="Z8" s="11"/>
       <c r="AA8" s="6"/>
       <c r="AB8" s="11"/>
-      <c r="AC8" s="39"/>
+      <c r="AC8" s="36"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B9" s="32"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="13">
         <v>31</v>
       </c>
@@ -2097,10 +2074,10 @@
       <c r="Z9" s="11"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="11"/>
-      <c r="AC9" s="39"/>
+      <c r="AC9" s="36"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="13">
@@ -2147,10 +2124,10 @@
       <c r="Z10" s="11"/>
       <c r="AA10" s="6"/>
       <c r="AB10" s="11"/>
-      <c r="AC10" s="39"/>
+      <c r="AC10" s="36"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B11" s="32"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="13">
         <v>7</v>
       </c>
@@ -2195,10 +2172,10 @@
       <c r="Z11" s="11"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="11"/>
-      <c r="AC11" s="39"/>
+      <c r="AC11" s="36"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B12" s="32"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="13">
         <v>8</v>
       </c>
@@ -2243,10 +2220,10 @@
       <c r="Z12" s="11"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="11"/>
-      <c r="AC12" s="39"/>
+      <c r="AC12" s="36"/>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B13" s="32"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="13">
         <v>8</v>
       </c>
@@ -2291,10 +2268,10 @@
       <c r="Z13" s="11"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="11"/>
-      <c r="AC13" s="39"/>
+      <c r="AC13" s="36"/>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B14" s="32"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="13">
         <v>9</v>
       </c>
@@ -2339,10 +2316,10 @@
       <c r="Z14" s="11"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="11"/>
-      <c r="AC14" s="39"/>
+      <c r="AC14" s="36"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B15" s="32"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="13">
         <v>9</v>
       </c>
@@ -2387,10 +2364,10 @@
       <c r="Z15" s="11"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="11"/>
-      <c r="AC15" s="39"/>
+      <c r="AC15" s="36"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B16" s="32"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="13">
         <v>12</v>
       </c>
@@ -2435,10 +2412,10 @@
       <c r="Z16" s="11"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="11"/>
-      <c r="AC16" s="39"/>
+      <c r="AC16" s="36"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B17" s="32"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="13">
         <v>13</v>
       </c>
@@ -2483,10 +2460,10 @@
       <c r="Z17" s="11"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="11"/>
-      <c r="AC17" s="39"/>
+      <c r="AC17" s="36"/>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B18" s="32"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="13">
         <v>14</v>
       </c>
@@ -2531,10 +2508,10 @@
       <c r="Z18" s="11"/>
       <c r="AA18" s="6"/>
       <c r="AB18" s="11"/>
-      <c r="AC18" s="39"/>
+      <c r="AC18" s="36"/>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B19" s="32"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="13">
         <v>20</v>
       </c>
@@ -2579,10 +2556,10 @@
       <c r="Z19" s="11"/>
       <c r="AA19" s="6"/>
       <c r="AB19" s="11"/>
-      <c r="AC19" s="39"/>
+      <c r="AC19" s="36"/>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B20" s="32"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="13">
         <v>20</v>
       </c>
@@ -2627,10 +2604,10 @@
       <c r="Z20" s="11"/>
       <c r="AA20" s="6"/>
       <c r="AB20" s="11"/>
-      <c r="AC20" s="39"/>
+      <c r="AC20" s="36"/>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B21" s="32"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="13">
         <v>28</v>
       </c>
@@ -2675,10 +2652,10 @@
       <c r="Z21" s="11"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="11"/>
-      <c r="AC21" s="39"/>
+      <c r="AC21" s="36"/>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B22" s="32"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="13">
         <v>29</v>
       </c>
@@ -2723,10 +2700,10 @@
       <c r="Z22" s="11"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="11"/>
-      <c r="AC22" s="39"/>
+      <c r="AC22" s="36"/>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="31" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="13">
@@ -2773,10 +2750,10 @@
       <c r="Z23" s="11"/>
       <c r="AA23" s="6"/>
       <c r="AB23" s="11"/>
-      <c r="AC23" s="39"/>
+      <c r="AC23" s="36"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B24" s="40"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="15">
         <v>10</v>
       </c>
@@ -2821,10 +2798,10 @@
       <c r="Z24" s="16"/>
       <c r="AA24" s="17"/>
       <c r="AB24" s="16"/>
-      <c r="AC24" s="41"/>
+      <c r="AC24" s="38"/>
     </row>
     <row r="25" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="34"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="14">
         <v>25</v>
       </c>
@@ -2869,25 +2846,25 @@
       <c r="Z25" s="12"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="12"/>
-      <c r="AC25" s="42"/>
+      <c r="AC25" s="39"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H26" s="70" t="s">
+      <c r="H26" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -2960,28 +2937,28 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC26" s="43" t="str">
+      <c r="AC26" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H27" s="75" t="s">
+      <c r="H27" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -3000,38 +2977,38 @@
       <c r="Z27" s="19"/>
       <c r="AA27" s="6"/>
       <c r="AB27" s="19"/>
-      <c r="AC27" s="44"/>
+      <c r="AC27" s="41"/>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="45">
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="42">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H28" s="74" t="s">
+      <c r="H28" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="45" t="str">
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="42" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
       </c>
-      <c r="L28" s="45" t="str">
+      <c r="L28" s="42" t="str">
         <f t="shared" ref="L28:N28" si="2">IF(SUM(L26:L27)=0,"",SUM(L26:L27))</f>
         <v/>
       </c>
-      <c r="M28" s="45" t="str">
+      <c r="M28" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N28" s="45" t="str">
+      <c r="N28" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -3039,7 +3016,7 @@
         <f>IF(SUM(O26:O27)=0,"",SUM(O26:O27))</f>
         <v/>
       </c>
-      <c r="P28" s="45">
+      <c r="P28" s="42">
         <f t="shared" ref="P28:Q28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
         <v>23.499999999999996</v>
       </c>
@@ -3047,7 +3024,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R28" s="45" t="str">
+      <c r="R28" s="42" t="str">
         <f t="shared" ref="R28:S28" si="4">IF(SUM(R26:R27)=0,"",SUM(R26:R27))</f>
         <v/>
       </c>
@@ -3055,7 +3032,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="T28" s="45" t="str">
+      <c r="T28" s="42" t="str">
         <f t="shared" ref="T28:U28" si="5">IF(SUM(T26:T27)=0,"",SUM(T26:T27))</f>
         <v/>
       </c>
@@ -3063,7 +3040,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="V28" s="45" t="str">
+      <c r="V28" s="42" t="str">
         <f t="shared" ref="V28:W28" si="6">IF(SUM(V26:V27)=0,"",SUM(V26:V27))</f>
         <v/>
       </c>
@@ -3071,7 +3048,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="X28" s="45" t="str">
+      <c r="X28" s="42" t="str">
         <f t="shared" ref="X28:Y28" si="7">IF(SUM(X26:X27)=0,"",SUM(X26:X27))</f>
         <v/>
       </c>
@@ -3079,7 +3056,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Z28" s="45" t="str">
+      <c r="Z28" s="42" t="str">
         <f t="shared" ref="Z28:AA28" si="8">IF(SUM(Z26:Z27)=0,"",SUM(Z26:Z27))</f>
         <v/>
       </c>
@@ -3087,23 +3064,26 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AB28" s="45" t="str">
+      <c r="AB28" s="42" t="str">
         <f>IF(SUM(AB26:AB27)=0,"",SUM(AB26:AB27))</f>
         <v/>
       </c>
-      <c r="AC28" s="46" t="str">
+      <c r="AC28" s="43" t="str">
         <f>IF(SUM(AC26:AC27)=0,"",SUM(AC26:AC27))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -3117,15 +3097,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -3159,103 +3136,103 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="80" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="82" t="s">
+      <c r="E2" s="82"/>
+      <c r="F2" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="82" t="s">
+      <c r="G2" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="85"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="50" t="s">
+      <c r="I2" s="90"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="65" t="s">
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="65" t="s">
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="65" t="s">
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="94"/>
+      <c r="AC2" s="78"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="89" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="90"/>
-      <c r="P3" s="89" t="s">
+      <c r="O3" s="74"/>
+      <c r="P3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="89" t="s">
+      <c r="Q3" s="74"/>
+      <c r="R3" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="90"/>
-      <c r="T3" s="89" t="s">
+      <c r="S3" s="74"/>
+      <c r="T3" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="90"/>
-      <c r="V3" s="89" t="s">
+      <c r="U3" s="74"/>
+      <c r="V3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="90"/>
-      <c r="X3" s="89" t="s">
+      <c r="W3" s="74"/>
+      <c r="X3" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="89" t="s">
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="95" t="s">
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="91" t="s">
+      <c r="AC3" s="75" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -3267,8 +3244,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
       <c r="H4" s="21" t="s">
         <v>29</v>
       </c>
@@ -3278,9 +3255,9 @@
       <c r="J4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -3323,11 +3300,11 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="92"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="76"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="34" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="1">
@@ -3374,14 +3351,14 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="2"/>
-      <c r="AC5" s="38"/>
+      <c r="AC5" s="35"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B6" s="47"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="8">
         <v>31</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="46" t="s">
         <v>100</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -3422,10 +3399,10 @@
       <c r="Z6" s="9"/>
       <c r="AA6" s="10"/>
       <c r="AB6" s="9"/>
-      <c r="AC6" s="48"/>
+      <c r="AC6" s="45"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="13">
@@ -3472,10 +3449,10 @@
       <c r="Z7" s="11"/>
       <c r="AA7" s="6"/>
       <c r="AB7" s="11"/>
-      <c r="AC7" s="39"/>
+      <c r="AC7" s="36"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B8" s="37"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="1">
         <v>22</v>
       </c>
@@ -3520,10 +3497,10 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="2"/>
-      <c r="AC8" s="38"/>
+      <c r="AC8" s="35"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B9" s="32"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="13">
         <v>22</v>
       </c>
@@ -3568,10 +3545,10 @@
       <c r="Z9" s="11"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="11"/>
-      <c r="AC9" s="39"/>
+      <c r="AC9" s="36"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="34" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="1">
@@ -3618,10 +3595,10 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="2"/>
-      <c r="AC10" s="38"/>
+      <c r="AC10" s="35"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B11" s="32"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="13">
         <v>6</v>
       </c>
@@ -3666,10 +3643,10 @@
       <c r="Z11" s="11"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="11"/>
-      <c r="AC11" s="39"/>
+      <c r="AC11" s="36"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="13">
@@ -3716,10 +3693,10 @@
       <c r="Z12" s="11"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="11"/>
-      <c r="AC12" s="39"/>
+      <c r="AC12" s="36"/>
     </row>
     <row r="13" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="34"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="14">
         <v>9</v>
       </c>
@@ -3764,10 +3741,10 @@
       <c r="Z13" s="12"/>
       <c r="AA13" s="7"/>
       <c r="AB13" s="12"/>
-      <c r="AC13" s="42"/>
+      <c r="AC13" s="39"/>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B14" s="37"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -3794,10 +3771,10 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="38"/>
+      <c r="AC14" s="35"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B15" s="32"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -3824,10 +3801,10 @@
       <c r="Z15" s="11"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="11"/>
-      <c r="AC15" s="39"/>
+      <c r="AC15" s="36"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B16" s="32"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -3854,10 +3831,10 @@
       <c r="Z16" s="11"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="11"/>
-      <c r="AC16" s="39"/>
+      <c r="AC16" s="36"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B17" s="32"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -3884,10 +3861,10 @@
       <c r="Z17" s="11"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="11"/>
-      <c r="AC17" s="39"/>
+      <c r="AC17" s="36"/>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B18" s="32"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -3914,10 +3891,10 @@
       <c r="Z18" s="11"/>
       <c r="AA18" s="6"/>
       <c r="AB18" s="11"/>
-      <c r="AC18" s="39"/>
+      <c r="AC18" s="36"/>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B19" s="32"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -3944,10 +3921,10 @@
       <c r="Z19" s="11"/>
       <c r="AA19" s="6"/>
       <c r="AB19" s="11"/>
-      <c r="AC19" s="39"/>
+      <c r="AC19" s="36"/>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B20" s="32"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -3974,10 +3951,10 @@
       <c r="Z20" s="11"/>
       <c r="AA20" s="6"/>
       <c r="AB20" s="11"/>
-      <c r="AC20" s="39"/>
+      <c r="AC20" s="36"/>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B21" s="32"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -4004,10 +3981,10 @@
       <c r="Z21" s="11"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="11"/>
-      <c r="AC21" s="39"/>
+      <c r="AC21" s="36"/>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B22" s="32"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -4034,10 +4011,10 @@
       <c r="Z22" s="11"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="11"/>
-      <c r="AC22" s="39"/>
+      <c r="AC22" s="36"/>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B23" s="32"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
@@ -4064,10 +4041,10 @@
       <c r="Z23" s="11"/>
       <c r="AA23" s="6"/>
       <c r="AB23" s="11"/>
-      <c r="AC23" s="39"/>
+      <c r="AC23" s="36"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B24" s="40"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -4094,10 +4071,10 @@
       <c r="Z24" s="16"/>
       <c r="AA24" s="17"/>
       <c r="AB24" s="16"/>
-      <c r="AC24" s="41"/>
+      <c r="AC24" s="38"/>
     </row>
     <row r="25" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="34"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -4124,25 +4101,25 @@
       <c r="Z25" s="12"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="12"/>
-      <c r="AC25" s="42"/>
+      <c r="AC25" s="39"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="H26" s="70" t="s">
+      <c r="H26" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -4215,28 +4192,28 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC26" s="43" t="str">
+      <c r="AC26" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H27" s="75" t="s">
+      <c r="H27" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
       <c r="K27" s="19" t="str">
         <f>'Page 01'!K28</f>
         <v/>
@@ -4309,41 +4286,41 @@
         <f>'Page 01'!AB28</f>
         <v/>
       </c>
-      <c r="AC27" s="44" t="str">
+      <c r="AC27" s="41" t="str">
         <f>'Page 01'!AC28</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="45">
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="42">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H28" s="74" t="s">
+      <c r="H28" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="45" t="str">
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="42" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
       </c>
-      <c r="L28" s="45" t="str">
+      <c r="L28" s="42" t="str">
         <f t="shared" ref="L28:N28" si="2">IF(SUM(L26:L27)=0,"",SUM(L26:L27))</f>
         <v/>
       </c>
-      <c r="M28" s="45" t="str">
+      <c r="M28" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N28" s="45" t="str">
+      <c r="N28" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4351,7 +4328,7 @@
         <f>IF(SUM(O26:O27)=0,"",SUM(O26:O27))</f>
         <v/>
       </c>
-      <c r="P28" s="45">
+      <c r="P28" s="42">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
         <v>28.699999999999996</v>
       </c>
@@ -4359,7 +4336,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R28" s="45">
+      <c r="R28" s="42">
         <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
@@ -4367,7 +4344,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T28" s="45" t="str">
+      <c r="T28" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4375,7 +4352,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V28" s="45" t="str">
+      <c r="V28" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4383,7 +4360,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="X28" s="45" t="str">
+      <c r="X28" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4391,7 +4368,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Z28" s="45" t="str">
+      <c r="Z28" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4399,23 +4376,26 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AB28" s="45" t="str">
+      <c r="AB28" s="42" t="str">
         <f>IF(SUM(AB26:AB27)=0,"",SUM(AB26:AB27))</f>
         <v/>
       </c>
-      <c r="AC28" s="46" t="str">
+      <c r="AC28" s="43" t="str">
         <f>IF(SUM(AC26:AC27)=0,"",SUM(AC26:AC27))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -4429,15 +4409,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4472,103 +4449,103 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="80" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="82" t="s">
+      <c r="E2" s="82"/>
+      <c r="F2" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="82" t="s">
+      <c r="G2" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="85"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="50" t="s">
+      <c r="I2" s="90"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="65" t="s">
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="65" t="s">
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="65" t="s">
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="94"/>
+      <c r="AC2" s="78"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="89" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="90"/>
-      <c r="P3" s="89" t="s">
+      <c r="O3" s="74"/>
+      <c r="P3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="89" t="s">
+      <c r="Q3" s="74"/>
+      <c r="R3" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="90"/>
-      <c r="T3" s="89" t="s">
+      <c r="S3" s="74"/>
+      <c r="T3" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="90"/>
-      <c r="V3" s="89" t="s">
+      <c r="U3" s="74"/>
+      <c r="V3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="90"/>
-      <c r="X3" s="89" t="s">
+      <c r="W3" s="74"/>
+      <c r="X3" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="89" t="s">
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="95" t="s">
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="91" t="s">
+      <c r="AC3" s="75" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -4580,8 +4557,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
       <c r="H4" s="21" t="s">
         <v>29</v>
       </c>
@@ -4591,9 +4568,9 @@
       <c r="J4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -4636,11 +4613,11 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="92"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="76"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="34" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="1">
@@ -4687,10 +4664,10 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="2"/>
-      <c r="AC5" s="38"/>
+      <c r="AC5" s="35"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B6" s="32"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="13">
         <v>15</v>
       </c>
@@ -4735,10 +4712,10 @@
       <c r="Z6" s="11"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="11"/>
-      <c r="AC6" s="39"/>
+      <c r="AC6" s="36"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B7" s="32"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="13">
         <v>21</v>
       </c>
@@ -4783,10 +4760,10 @@
       <c r="Z7" s="11"/>
       <c r="AA7" s="6"/>
       <c r="AB7" s="11"/>
-      <c r="AC7" s="39"/>
+      <c r="AC7" s="36"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B8" s="32"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="13">
         <v>26</v>
       </c>
@@ -4833,10 +4810,10 @@
       <c r="AB8" s="11">
         <v>0.6</v>
       </c>
-      <c r="AC8" s="39"/>
+      <c r="AC8" s="36"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B9" s="32"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="13">
         <v>29</v>
       </c>
@@ -4881,10 +4858,10 @@
       <c r="Z9" s="11"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="11"/>
-      <c r="AC9" s="39"/>
+      <c r="AC9" s="36"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>81</v>
       </c>
       <c r="C10" s="13">
@@ -4931,10 +4908,10 @@
       <c r="Z10" s="11"/>
       <c r="AA10" s="6"/>
       <c r="AB10" s="11"/>
-      <c r="AC10" s="39"/>
+      <c r="AC10" s="36"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B11" s="32"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="13">
         <v>10</v>
       </c>
@@ -4979,10 +4956,10 @@
       <c r="Z11" s="11"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="11"/>
-      <c r="AC11" s="39"/>
+      <c r="AC11" s="36"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B12" s="32"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="13">
         <v>10</v>
       </c>
@@ -5027,10 +5004,10 @@
       <c r="Z12" s="11"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="11"/>
-      <c r="AC12" s="39"/>
+      <c r="AC12" s="36"/>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B13" s="32"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="13">
         <v>13</v>
       </c>
@@ -5075,10 +5052,10 @@
       <c r="Z13" s="11"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="11"/>
-      <c r="AC13" s="39"/>
+      <c r="AC13" s="36"/>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="13">
@@ -5125,10 +5102,10 @@
       <c r="Z14" s="11"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="11"/>
-      <c r="AC14" s="39"/>
+      <c r="AC14" s="36"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B15" s="32"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="13">
         <v>16</v>
       </c>
@@ -5173,10 +5150,10 @@
       <c r="Z15" s="11"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="11"/>
-      <c r="AC15" s="39"/>
+      <c r="AC15" s="36"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B16" s="32"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="13">
         <v>18</v>
       </c>
@@ -5221,10 +5198,10 @@
       <c r="Z16" s="11"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="11"/>
-      <c r="AC16" s="39"/>
+      <c r="AC16" s="36"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B17" s="32"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="13">
         <v>21</v>
       </c>
@@ -5269,10 +5246,10 @@
       <c r="Z17" s="11"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="11"/>
-      <c r="AC17" s="39"/>
+      <c r="AC17" s="36"/>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B18" s="32"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="13">
         <v>23</v>
       </c>
@@ -5317,10 +5294,10 @@
       <c r="Z18" s="11"/>
       <c r="AA18" s="6"/>
       <c r="AB18" s="11"/>
-      <c r="AC18" s="39"/>
+      <c r="AC18" s="36"/>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B19" s="32"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="13">
         <v>30</v>
       </c>
@@ -5365,10 +5342,10 @@
       <c r="Z19" s="11"/>
       <c r="AA19" s="6"/>
       <c r="AB19" s="11"/>
-      <c r="AC19" s="39"/>
+      <c r="AC19" s="36"/>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="13">
@@ -5415,10 +5392,10 @@
       <c r="Z20" s="11"/>
       <c r="AA20" s="6"/>
       <c r="AB20" s="11"/>
-      <c r="AC20" s="39"/>
+      <c r="AC20" s="36"/>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="31" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="13">
@@ -5465,10 +5442,10 @@
       <c r="Z21" s="11"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="11"/>
-      <c r="AC21" s="39"/>
+      <c r="AC21" s="36"/>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B22" s="32"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="13">
         <v>14</v>
       </c>
@@ -5513,10 +5490,10 @@
       <c r="Z22" s="11"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="11"/>
-      <c r="AC22" s="39"/>
+      <c r="AC22" s="36"/>
     </row>
     <row r="23" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="34"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="14">
         <v>16</v>
       </c>
@@ -5561,10 +5538,10 @@
       <c r="Z23" s="12"/>
       <c r="AA23" s="7"/>
       <c r="AB23" s="12"/>
-      <c r="AC23" s="42"/>
+      <c r="AC23" s="39"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B24" s="37"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -5591,10 +5568,10 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="2"/>
-      <c r="AC24" s="38"/>
+      <c r="AC24" s="35"/>
     </row>
     <row r="25" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="34"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -5621,25 +5598,25 @@
       <c r="Z25" s="12"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="12"/>
-      <c r="AC25" s="42"/>
+      <c r="AC25" s="39"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>16.800000000000004</v>
       </c>
-      <c r="H26" s="70" t="s">
+      <c r="H26" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -5712,28 +5689,28 @@
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="AC26" s="43" t="str">
+      <c r="AC26" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>47.1</v>
       </c>
-      <c r="H27" s="75" t="s">
+      <c r="H27" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
       <c r="K27" s="19" t="str">
         <f>'Page 02'!K28</f>
         <v/>
@@ -5806,41 +5783,41 @@
         <f>'Page 02'!AB28</f>
         <v/>
       </c>
-      <c r="AC27" s="44" t="str">
+      <c r="AC27" s="41" t="str">
         <f>'Page 02'!AC28</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="45">
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="42">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>47.1</v>
       </c>
-      <c r="H28" s="74" t="s">
+      <c r="H28" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="45" t="str">
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="42" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
       </c>
-      <c r="L28" s="45" t="str">
+      <c r="L28" s="42" t="str">
         <f t="shared" ref="L28:N28" si="2">IF(SUM(L26:L27)=0,"",SUM(L26:L27))</f>
         <v/>
       </c>
-      <c r="M28" s="45" t="str">
+      <c r="M28" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N28" s="45" t="str">
+      <c r="N28" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5848,7 +5825,7 @@
         <f>IF(SUM(O26:O27)=0,"",SUM(O26:O27))</f>
         <v/>
       </c>
-      <c r="P28" s="45">
+      <c r="P28" s="42">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
         <v>44.9</v>
       </c>
@@ -5856,7 +5833,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R28" s="45">
+      <c r="R28" s="42">
         <f t="shared" si="3"/>
         <v>2.2000000000000002</v>
       </c>
@@ -5864,7 +5841,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T28" s="45" t="str">
+      <c r="T28" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5872,7 +5849,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V28" s="45" t="str">
+      <c r="V28" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5880,7 +5857,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="X28" s="45" t="str">
+      <c r="X28" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5888,7 +5865,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Z28" s="45" t="str">
+      <c r="Z28" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5896,23 +5873,26 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AB28" s="45">
+      <c r="AB28" s="42">
         <f>IF(SUM(AB26:AB27)=0,"",SUM(AB26:AB27))</f>
         <v>0.6</v>
       </c>
-      <c r="AC28" s="46" t="str">
+      <c r="AC28" s="43" t="str">
         <f>IF(SUM(AC26:AC27)=0,"",SUM(AC26:AC27))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -5926,15 +5906,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5968,103 +5945,103 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="80" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="82" t="s">
+      <c r="E2" s="82"/>
+      <c r="F2" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="82" t="s">
+      <c r="G2" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="85"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="50" t="s">
+      <c r="I2" s="90"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="65" t="s">
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="65" t="s">
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="65" t="s">
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="94"/>
+      <c r="AC2" s="78"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="89" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="90"/>
-      <c r="P3" s="89" t="s">
+      <c r="O3" s="74"/>
+      <c r="P3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="89" t="s">
+      <c r="Q3" s="74"/>
+      <c r="R3" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="90"/>
-      <c r="T3" s="89" t="s">
+      <c r="S3" s="74"/>
+      <c r="T3" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="90"/>
-      <c r="V3" s="89" t="s">
+      <c r="U3" s="74"/>
+      <c r="V3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="90"/>
-      <c r="X3" s="89" t="s">
+      <c r="W3" s="74"/>
+      <c r="X3" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="89" t="s">
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="95" t="s">
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="91" t="s">
+      <c r="AC3" s="75" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -6076,8 +6053,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
       <c r="H4" s="21" t="s">
         <v>29</v>
       </c>
@@ -6087,9 +6064,9 @@
       <c r="J4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -6132,11 +6109,11 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="92"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="76"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="34" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="1">
@@ -6183,10 +6160,10 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="2"/>
-      <c r="AC5" s="38"/>
+      <c r="AC5" s="35"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="31" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="13">
@@ -6233,10 +6210,10 @@
       <c r="Z6" s="11"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="11"/>
-      <c r="AC6" s="39"/>
+      <c r="AC6" s="36"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B7" s="32"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="13">
         <v>8</v>
       </c>
@@ -6281,10 +6258,10 @@
       <c r="Z7" s="11"/>
       <c r="AA7" s="6"/>
       <c r="AB7" s="11"/>
-      <c r="AC7" s="39"/>
+      <c r="AC7" s="36"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B8" s="32"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="13">
         <v>9</v>
       </c>
@@ -6329,10 +6306,10 @@
       <c r="Z8" s="11"/>
       <c r="AA8" s="6"/>
       <c r="AB8" s="11"/>
-      <c r="AC8" s="39"/>
+      <c r="AC8" s="36"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B9" s="32"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="13">
         <v>11</v>
       </c>
@@ -6377,10 +6354,10 @@
       <c r="Z9" s="11"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="11"/>
-      <c r="AC9" s="39"/>
+      <c r="AC9" s="36"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="13">
@@ -6427,10 +6404,10 @@
       <c r="Z10" s="11"/>
       <c r="AA10" s="6"/>
       <c r="AB10" s="11"/>
-      <c r="AC10" s="39"/>
+      <c r="AC10" s="36"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B11" s="32"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="13">
         <v>28</v>
       </c>
@@ -6475,10 +6452,10 @@
       <c r="Z11" s="11"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="11"/>
-      <c r="AC11" s="39"/>
+      <c r="AC11" s="36"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>95</v>
       </c>
       <c r="C12" s="13">
@@ -6527,10 +6504,10 @@
       <c r="AB12" s="11">
         <v>0.2</v>
       </c>
-      <c r="AC12" s="39"/>
+      <c r="AC12" s="36"/>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B13" s="32"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="13">
         <v>15</v>
       </c>
@@ -6575,10 +6552,10 @@
       <c r="Z13" s="11"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="11"/>
-      <c r="AC13" s="39"/>
+      <c r="AC13" s="36"/>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B14" s="32"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="13">
         <v>21</v>
       </c>
@@ -6623,10 +6600,10 @@
       <c r="Z14" s="11"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="11"/>
-      <c r="AC14" s="39"/>
+      <c r="AC14" s="36"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B15" s="32"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="13">
         <v>25</v>
       </c>
@@ -6671,18 +6648,36 @@
       <c r="Z15" s="11"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="11"/>
-      <c r="AC15" s="39"/>
+      <c r="AC15" s="36"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B16" s="32"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="B16" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="13">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
@@ -6690,7 +6685,9 @@
       <c r="O16" s="6"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="11"/>
+      <c r="R16" s="11">
+        <v>1.4</v>
+      </c>
       <c r="S16" s="6"/>
       <c r="T16" s="11"/>
       <c r="U16" s="6"/>
@@ -6701,10 +6698,10 @@
       <c r="Z16" s="11"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="11"/>
-      <c r="AC16" s="39"/>
+      <c r="AC16" s="36"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B17" s="32"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -6731,10 +6728,10 @@
       <c r="Z17" s="11"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="11"/>
-      <c r="AC17" s="39"/>
+      <c r="AC17" s="36"/>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B18" s="32"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -6761,10 +6758,10 @@
       <c r="Z18" s="11"/>
       <c r="AA18" s="6"/>
       <c r="AB18" s="11"/>
-      <c r="AC18" s="39"/>
+      <c r="AC18" s="36"/>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B19" s="32"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -6791,10 +6788,10 @@
       <c r="Z19" s="11"/>
       <c r="AA19" s="6"/>
       <c r="AB19" s="11"/>
-      <c r="AC19" s="39"/>
+      <c r="AC19" s="36"/>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B20" s="32"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -6821,10 +6818,10 @@
       <c r="Z20" s="11"/>
       <c r="AA20" s="6"/>
       <c r="AB20" s="11"/>
-      <c r="AC20" s="39"/>
+      <c r="AC20" s="36"/>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B21" s="32"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -6851,10 +6848,10 @@
       <c r="Z21" s="11"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="11"/>
-      <c r="AC21" s="39"/>
+      <c r="AC21" s="36"/>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B22" s="32"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -6881,10 +6878,10 @@
       <c r="Z22" s="11"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="11"/>
-      <c r="AC22" s="39"/>
+      <c r="AC22" s="36"/>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B23" s="40"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -6911,10 +6908,10 @@
       <c r="Z23" s="16"/>
       <c r="AA23" s="17"/>
       <c r="AB23" s="16"/>
-      <c r="AC23" s="41"/>
+      <c r="AC23" s="38"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B24" s="32"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
@@ -6941,10 +6938,10 @@
       <c r="Z24" s="11"/>
       <c r="AA24" s="6"/>
       <c r="AB24" s="11"/>
-      <c r="AC24" s="39"/>
+      <c r="AC24" s="36"/>
     </row>
     <row r="25" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="34"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -6971,25 +6968,25 @@
       <c r="Z25" s="12"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="12"/>
-      <c r="AC25" s="42"/>
+      <c r="AC25" s="39"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v>11.799999999999999</v>
-      </c>
-      <c r="H26" s="70" t="s">
+        <v>13.2</v>
+      </c>
+      <c r="H26" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -7020,7 +7017,7 @@
       </c>
       <c r="R26" s="18">
         <f>IF(SUM(R5:R25)=0,"",SUM(R5:R25))</f>
-        <v>3.8</v>
+        <v>5.1999999999999993</v>
       </c>
       <c r="S26" s="5" t="str">
         <f t="shared" ref="S26:AC26" si="1">IF(SUM(S5:S25)=0,"",SUM(S5:S25))</f>
@@ -7062,28 +7059,28 @@
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="AC26" s="43" t="str">
+      <c r="AC26" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>58.9</v>
-      </c>
-      <c r="H27" s="75" t="s">
+        <v>60.3</v>
+      </c>
+      <c r="H27" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
       <c r="K27" s="19" t="str">
         <f>'Page 03'!K28</f>
         <v/>
@@ -7156,41 +7153,41 @@
         <f>'Page 03'!AB28</f>
         <v>0.6</v>
       </c>
-      <c r="AC27" s="44" t="str">
+      <c r="AC27" s="41" t="str">
         <f>'Page 03'!AC28</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="45">
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="42">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>58.9</v>
-      </c>
-      <c r="H28" s="74" t="s">
+        <v>60.3</v>
+      </c>
+      <c r="H28" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="45" t="str">
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="42" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
       </c>
-      <c r="L28" s="45" t="str">
+      <c r="L28" s="42" t="str">
         <f t="shared" ref="L28:N28" si="2">IF(SUM(L26:L27)=0,"",SUM(L26:L27))</f>
         <v/>
       </c>
-      <c r="M28" s="45" t="str">
+      <c r="M28" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N28" s="45" t="str">
+      <c r="N28" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7198,7 +7195,7 @@
         <f>IF(SUM(O26:O27)=0,"",SUM(O26:O27))</f>
         <v/>
       </c>
-      <c r="P28" s="45">
+      <c r="P28" s="42">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
         <v>52.9</v>
       </c>
@@ -7206,15 +7203,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R28" s="45">
+      <c r="R28" s="42">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7.3999999999999995</v>
       </c>
       <c r="S28" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T28" s="45" t="str">
+      <c r="T28" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7222,7 +7219,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V28" s="45" t="str">
+      <c r="V28" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7230,7 +7227,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="X28" s="45" t="str">
+      <c r="X28" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7238,7 +7235,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Z28" s="45" t="str">
+      <c r="Z28" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7246,23 +7243,26 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AB28" s="45">
+      <c r="AB28" s="42">
         <f>IF(SUM(AB26:AB27)=0,"",SUM(AB26:AB27))</f>
         <v>0.8</v>
       </c>
-      <c r="AC28" s="46" t="str">
+      <c r="AC28" s="43" t="str">
         <f>IF(SUM(AC26:AC27)=0,"",SUM(AC26:AC27))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -7276,15 +7276,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7317,103 +7314,103 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="80" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="82" t="s">
+      <c r="E2" s="82"/>
+      <c r="F2" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="82" t="s">
+      <c r="G2" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="85"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="50" t="s">
+      <c r="I2" s="90"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="65" t="s">
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="65" t="s">
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="65" t="s">
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="94"/>
+      <c r="AC2" s="78"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="89" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="90"/>
-      <c r="P3" s="89" t="s">
+      <c r="O3" s="74"/>
+      <c r="P3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="89" t="s">
+      <c r="Q3" s="74"/>
+      <c r="R3" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="90"/>
-      <c r="T3" s="89" t="s">
+      <c r="S3" s="74"/>
+      <c r="T3" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="90"/>
-      <c r="V3" s="89" t="s">
+      <c r="U3" s="74"/>
+      <c r="V3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="90"/>
-      <c r="X3" s="89" t="s">
+      <c r="W3" s="74"/>
+      <c r="X3" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="89" t="s">
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="95" t="s">
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="91" t="s">
+      <c r="AC3" s="75" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -7425,8 +7422,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
       <c r="H4" s="21" t="s">
         <v>29</v>
       </c>
@@ -7436,9 +7433,9 @@
       <c r="J4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -7481,11 +7478,11 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="92"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="76"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B5" s="37"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -7512,10 +7509,10 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="2"/>
-      <c r="AC5" s="38"/>
+      <c r="AC5" s="35"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B6" s="32"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -7542,10 +7539,10 @@
       <c r="Z6" s="11"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="11"/>
-      <c r="AC6" s="39"/>
+      <c r="AC6" s="36"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B7" s="32"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -7572,10 +7569,10 @@
       <c r="Z7" s="11"/>
       <c r="AA7" s="6"/>
       <c r="AB7" s="11"/>
-      <c r="AC7" s="39"/>
+      <c r="AC7" s="36"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B8" s="32"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -7602,10 +7599,10 @@
       <c r="Z8" s="11"/>
       <c r="AA8" s="6"/>
       <c r="AB8" s="11"/>
-      <c r="AC8" s="39"/>
+      <c r="AC8" s="36"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B9" s="32"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -7632,10 +7629,10 @@
       <c r="Z9" s="11"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="11"/>
-      <c r="AC9" s="39"/>
+      <c r="AC9" s="36"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B10" s="32"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -7662,10 +7659,10 @@
       <c r="Z10" s="11"/>
       <c r="AA10" s="6"/>
       <c r="AB10" s="11"/>
-      <c r="AC10" s="39"/>
+      <c r="AC10" s="36"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B11" s="32"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -7692,10 +7689,10 @@
       <c r="Z11" s="11"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="11"/>
-      <c r="AC11" s="39"/>
+      <c r="AC11" s="36"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B12" s="32"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -7722,10 +7719,10 @@
       <c r="Z12" s="11"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="11"/>
-      <c r="AC12" s="39"/>
+      <c r="AC12" s="36"/>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B13" s="32"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -7752,10 +7749,10 @@
       <c r="Z13" s="11"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="11"/>
-      <c r="AC13" s="39"/>
+      <c r="AC13" s="36"/>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B14" s="32"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -7782,10 +7779,10 @@
       <c r="Z14" s="11"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="11"/>
-      <c r="AC14" s="39"/>
+      <c r="AC14" s="36"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B15" s="32"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -7812,10 +7809,10 @@
       <c r="Z15" s="11"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="11"/>
-      <c r="AC15" s="39"/>
+      <c r="AC15" s="36"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B16" s="32"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -7842,10 +7839,10 @@
       <c r="Z16" s="11"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="11"/>
-      <c r="AC16" s="39"/>
+      <c r="AC16" s="36"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B17" s="32"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -7872,10 +7869,10 @@
       <c r="Z17" s="11"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="11"/>
-      <c r="AC17" s="39"/>
+      <c r="AC17" s="36"/>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B18" s="32"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -7902,10 +7899,10 @@
       <c r="Z18" s="11"/>
       <c r="AA18" s="6"/>
       <c r="AB18" s="11"/>
-      <c r="AC18" s="39"/>
+      <c r="AC18" s="36"/>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B19" s="32"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -7932,10 +7929,10 @@
       <c r="Z19" s="11"/>
       <c r="AA19" s="6"/>
       <c r="AB19" s="11"/>
-      <c r="AC19" s="39"/>
+      <c r="AC19" s="36"/>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B20" s="32"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -7962,10 +7959,10 @@
       <c r="Z20" s="11"/>
       <c r="AA20" s="6"/>
       <c r="AB20" s="11"/>
-      <c r="AC20" s="39"/>
+      <c r="AC20" s="36"/>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B21" s="32"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -7992,10 +7989,10 @@
       <c r="Z21" s="11"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="11"/>
-      <c r="AC21" s="39"/>
+      <c r="AC21" s="36"/>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B22" s="32"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -8022,10 +8019,10 @@
       <c r="Z22" s="11"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="11"/>
-      <c r="AC22" s="39"/>
+      <c r="AC22" s="36"/>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B23" s="40"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -8052,10 +8049,10 @@
       <c r="Z23" s="16"/>
       <c r="AA23" s="17"/>
       <c r="AB23" s="16"/>
-      <c r="AC23" s="41"/>
+      <c r="AC23" s="38"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B24" s="32"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
@@ -8082,10 +8079,10 @@
       <c r="Z24" s="11"/>
       <c r="AA24" s="6"/>
       <c r="AB24" s="11"/>
-      <c r="AC24" s="39"/>
+      <c r="AC24" s="36"/>
     </row>
     <row r="25" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="34"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -8112,25 +8109,25 @@
       <c r="Z25" s="12"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="12"/>
-      <c r="AC25" s="42"/>
+      <c r="AC25" s="39"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="70" t="s">
+      <c r="H26" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -8203,28 +8200,28 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC26" s="43" t="str">
+      <c r="AC26" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>58.9</v>
-      </c>
-      <c r="H27" s="75" t="s">
+        <v>60.3</v>
+      </c>
+      <c r="H27" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
       <c r="K27" s="19" t="str">
         <f>'Page 04'!K28</f>
         <v/>
@@ -8255,7 +8252,7 @@
       </c>
       <c r="R27" s="19">
         <f>'Page 04'!R28</f>
-        <v>6</v>
+        <v>7.3999999999999995</v>
       </c>
       <c r="S27" s="6" t="str">
         <f>'Page 04'!S28</f>
@@ -8297,41 +8294,41 @@
         <f>'Page 04'!AB28</f>
         <v>0.8</v>
       </c>
-      <c r="AC27" s="44" t="str">
+      <c r="AC27" s="41" t="str">
         <f>'Page 04'!AC28</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="45">
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="42">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>58.9</v>
-      </c>
-      <c r="H28" s="74" t="s">
+        <v>60.3</v>
+      </c>
+      <c r="H28" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="45" t="str">
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="42" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
       </c>
-      <c r="L28" s="45" t="str">
+      <c r="L28" s="42" t="str">
         <f t="shared" ref="L28:N28" si="2">IF(SUM(L26:L27)=0,"",SUM(L26:L27))</f>
         <v/>
       </c>
-      <c r="M28" s="45" t="str">
+      <c r="M28" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N28" s="45" t="str">
+      <c r="N28" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -8339,7 +8336,7 @@
         <f>IF(SUM(O26:O27)=0,"",SUM(O26:O27))</f>
         <v/>
       </c>
-      <c r="P28" s="45">
+      <c r="P28" s="42">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
         <v>52.9</v>
       </c>
@@ -8347,15 +8344,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R28" s="45">
+      <c r="R28" s="42">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7.3999999999999995</v>
       </c>
       <c r="S28" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T28" s="45" t="str">
+      <c r="T28" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8363,7 +8360,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V28" s="45" t="str">
+      <c r="V28" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8371,7 +8368,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="X28" s="45" t="str">
+      <c r="X28" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8379,7 +8376,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Z28" s="45" t="str">
+      <c r="Z28" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8387,23 +8384,26 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AB28" s="45">
+      <c r="AB28" s="42">
         <f>IF(SUM(AB26:AB27)=0,"",SUM(AB26:AB27))</f>
         <v>0.8</v>
       </c>
-      <c r="AC28" s="46" t="str">
+      <c r="AC28" s="43" t="str">
         <f>IF(SUM(AC26:AC27)=0,"",SUM(AC26:AC27))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -8417,15 +8417,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/My_Flying_Logbook.xlsx
+++ b/My_Flying_Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E018700B-B6EB-9A4A-A672-482465955AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282DA331-7305-C64E-8410-E44C300F53DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="107">
   <si>
     <t>Month</t>
   </si>
@@ -396,6 +396,9 @@
   </si>
   <si>
     <t>Victor 1</t>
+  </si>
+  <si>
+    <t>October</t>
   </si>
 </sst>
 </file>
@@ -1088,6 +1091,63 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1109,61 +1169,43 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1188,45 +1230,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1667,98 +1670,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="69" t="s">
+      <c r="E2" s="51"/>
+      <c r="F2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="62" t="s">
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="57" t="s">
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57" t="s">
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="57" t="s">
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="60"/>
+      <c r="AC2" s="64"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="54" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54" t="s">
+      <c r="O3" s="58"/>
+      <c r="P3" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54" t="s">
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54" t="s">
+      <c r="S3" s="58"/>
+      <c r="T3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54" t="s">
+      <c r="U3" s="58"/>
+      <c r="V3" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54" t="s">
+      <c r="W3" s="58"/>
+      <c r="X3" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54" t="s">
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54" t="s">
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="55" t="s">
+      <c r="AC3" s="59" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1775,8 +1778,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="21" t="s">
         <v>29</v>
       </c>
@@ -1786,9 +1789,9 @@
       <c r="J4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -1831,8 +1834,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="61"/>
-      <c r="AC4" s="56"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="60"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="34" t="s">
@@ -2849,22 +2852,22 @@
       <c r="AC25" s="39"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H26" s="48" t="s">
+      <c r="H26" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -2943,22 +2946,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H27" s="53" t="s">
+      <c r="H27" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -2980,22 +2983,22 @@
       <c r="AC27" s="41"/>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
       <c r="G28" s="42">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H28" s="52" t="s">
+      <c r="H28" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
       <c r="K28" s="42" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -3075,15 +3078,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -3097,12 +3097,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -3136,98 +3139,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="85" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="87" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="85" t="s">
+      <c r="H2" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="90"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="62" t="s">
+      <c r="I2" s="82"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="58" t="s">
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="58" t="s">
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="58" t="s">
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="78"/>
+      <c r="AC2" s="91"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="83"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="73" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="73" t="s">
+      <c r="O3" s="87"/>
+      <c r="P3" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="73" t="s">
+      <c r="Q3" s="87"/>
+      <c r="R3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="74"/>
-      <c r="T3" s="73" t="s">
+      <c r="S3" s="87"/>
+      <c r="T3" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="74"/>
-      <c r="V3" s="73" t="s">
+      <c r="U3" s="87"/>
+      <c r="V3" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="74"/>
-      <c r="X3" s="73" t="s">
+      <c r="W3" s="87"/>
+      <c r="X3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="73" t="s">
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="79" t="s">
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="75" t="s">
+      <c r="AC3" s="88" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3244,8 +3247,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
       <c r="H4" s="21" t="s">
         <v>29</v>
       </c>
@@ -3255,9 +3258,9 @@
       <c r="J4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -3300,8 +3303,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="76"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="89"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="34" t="s">
@@ -4104,22 +4107,22 @@
       <c r="AC25" s="39"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="H26" s="48" t="s">
+      <c r="H26" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -4198,22 +4201,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H27" s="53" t="s">
+      <c r="H27" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
       <c r="K27" s="19" t="str">
         <f>'Page 01'!K28</f>
         <v/>
@@ -4292,22 +4295,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
       <c r="G28" s="42">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H28" s="52" t="s">
+      <c r="H28" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
       <c r="K28" s="42" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -4387,15 +4390,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -4409,12 +4409,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4449,98 +4452,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="85" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="87" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="85" t="s">
+      <c r="H2" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="90"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="62" t="s">
+      <c r="I2" s="82"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="58" t="s">
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="58" t="s">
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="58" t="s">
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="78"/>
+      <c r="AC2" s="91"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="83"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="73" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="73" t="s">
+      <c r="O3" s="87"/>
+      <c r="P3" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="73" t="s">
+      <c r="Q3" s="87"/>
+      <c r="R3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="74"/>
-      <c r="T3" s="73" t="s">
+      <c r="S3" s="87"/>
+      <c r="T3" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="74"/>
-      <c r="V3" s="73" t="s">
+      <c r="U3" s="87"/>
+      <c r="V3" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="74"/>
-      <c r="X3" s="73" t="s">
+      <c r="W3" s="87"/>
+      <c r="X3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="73" t="s">
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="79" t="s">
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="75" t="s">
+      <c r="AC3" s="88" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4557,8 +4560,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
       <c r="H4" s="21" t="s">
         <v>29</v>
       </c>
@@ -4568,9 +4571,9 @@
       <c r="J4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -4613,8 +4616,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="76"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="89"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="34" t="s">
@@ -5601,22 +5604,22 @@
       <c r="AC25" s="39"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>16.800000000000004</v>
       </c>
-      <c r="H26" s="48" t="s">
+      <c r="H26" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -5695,22 +5698,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>47.1</v>
       </c>
-      <c r="H27" s="53" t="s">
+      <c r="H27" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
       <c r="K27" s="19" t="str">
         <f>'Page 02'!K28</f>
         <v/>
@@ -5789,22 +5792,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
       <c r="G28" s="42">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>47.1</v>
       </c>
-      <c r="H28" s="52" t="s">
+      <c r="H28" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
       <c r="K28" s="42" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -5884,15 +5887,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -5906,12 +5906,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5945,98 +5948,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="85" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="87" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="85" t="s">
+      <c r="H2" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="90"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="62" t="s">
+      <c r="I2" s="82"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="58" t="s">
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="58" t="s">
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="58" t="s">
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="78"/>
+      <c r="AC2" s="91"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="83"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="73" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="73" t="s">
+      <c r="O3" s="87"/>
+      <c r="P3" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="73" t="s">
+      <c r="Q3" s="87"/>
+      <c r="R3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="74"/>
-      <c r="T3" s="73" t="s">
+      <c r="S3" s="87"/>
+      <c r="T3" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="74"/>
-      <c r="V3" s="73" t="s">
+      <c r="U3" s="87"/>
+      <c r="V3" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="74"/>
-      <c r="X3" s="73" t="s">
+      <c r="W3" s="87"/>
+      <c r="X3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="73" t="s">
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="79" t="s">
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="75" t="s">
+      <c r="AC3" s="88" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6053,8 +6056,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
       <c r="H4" s="21" t="s">
         <v>29</v>
       </c>
@@ -6064,9 +6067,9 @@
       <c r="J4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -6109,8 +6112,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="76"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="89"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="34" t="s">
@@ -6701,15 +6704,33 @@
       <c r="AC16" s="36"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B17" s="31"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="B17" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="13">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
@@ -6717,7 +6738,9 @@
       <c r="O17" s="6"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="11"/>
+      <c r="R17" s="11">
+        <v>1.4</v>
+      </c>
       <c r="S17" s="6"/>
       <c r="T17" s="11"/>
       <c r="U17" s="6"/>
@@ -6971,22 +6994,22 @@
       <c r="AC25" s="39"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
       <c r="G26" s="18">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v>13.2</v>
-      </c>
-      <c r="H26" s="48" t="s">
+        <v>14.599999999999998</v>
+      </c>
+      <c r="H26" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -7017,7 +7040,7 @@
       </c>
       <c r="R26" s="18">
         <f>IF(SUM(R5:R25)=0,"",SUM(R5:R25))</f>
-        <v>5.1999999999999993</v>
+        <v>6.6</v>
       </c>
       <c r="S26" s="5" t="str">
         <f t="shared" ref="S26:AC26" si="1">IF(SUM(S5:S25)=0,"",SUM(S5:S25))</f>
@@ -7065,22 +7088,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>60.3</v>
-      </c>
-      <c r="H27" s="53" t="s">
+        <v>61.7</v>
+      </c>
+      <c r="H27" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
       <c r="K27" s="19" t="str">
         <f>'Page 03'!K28</f>
         <v/>
@@ -7159,22 +7182,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
       <c r="G28" s="42">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>60.3</v>
-      </c>
-      <c r="H28" s="52" t="s">
+        <v>61.7</v>
+      </c>
+      <c r="H28" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
       <c r="K28" s="42" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -7205,7 +7228,7 @@
       </c>
       <c r="R28" s="42">
         <f t="shared" si="3"/>
-        <v>7.3999999999999995</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="S28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -7254,15 +7277,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -7276,12 +7296,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7314,98 +7337,98 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="85" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="87" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="85" t="s">
+      <c r="H2" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="90"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="62" t="s">
+      <c r="I2" s="82"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="58" t="s">
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="58" t="s">
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="58" t="s">
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="78"/>
+      <c r="AC2" s="91"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="83"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="73" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="73" t="s">
+      <c r="O3" s="87"/>
+      <c r="P3" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="73" t="s">
+      <c r="Q3" s="87"/>
+      <c r="R3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="74"/>
-      <c r="T3" s="73" t="s">
+      <c r="S3" s="87"/>
+      <c r="T3" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="74"/>
-      <c r="V3" s="73" t="s">
+      <c r="U3" s="87"/>
+      <c r="V3" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="74"/>
-      <c r="X3" s="73" t="s">
+      <c r="W3" s="87"/>
+      <c r="X3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="73" t="s">
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="79" t="s">
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="75" t="s">
+      <c r="AC3" s="88" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7422,8 +7445,8 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
       <c r="H4" s="21" t="s">
         <v>29</v>
       </c>
@@ -7433,9 +7456,9 @@
       <c r="J4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
       <c r="N4" s="20" t="s">
         <v>10</v>
       </c>
@@ -7478,8 +7501,8 @@
       <c r="AA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="76"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="89"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="34"/>
@@ -8112,22 +8135,22 @@
       <c r="AC25" s="39"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
       <c r="G26" s="18" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="48" t="s">
+      <c r="H26" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
       <c r="K26" s="18" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -8206,22 +8229,22 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
       <c r="G27" s="19">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>60.3</v>
-      </c>
-      <c r="H27" s="53" t="s">
+        <v>61.7</v>
+      </c>
+      <c r="H27" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
       <c r="K27" s="19" t="str">
         <f>'Page 04'!K28</f>
         <v/>
@@ -8252,7 +8275,7 @@
       </c>
       <c r="R27" s="19">
         <f>'Page 04'!R28</f>
-        <v>7.3999999999999995</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="S27" s="6" t="str">
         <f>'Page 04'!S28</f>
@@ -8300,22 +8323,22 @@
       </c>
     </row>
     <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
       <c r="G28" s="42">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>60.3</v>
-      </c>
-      <c r="H28" s="52" t="s">
+        <v>61.7</v>
+      </c>
+      <c r="H28" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
       <c r="K28" s="42" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -8346,7 +8369,7 @@
       </c>
       <c r="R28" s="42">
         <f t="shared" si="3"/>
-        <v>7.3999999999999995</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="S28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -8395,15 +8418,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="AC3:AC4"/>
@@ -8417,12 +8437,15 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/My_Flying_Logbook.xlsx
+++ b/My_Flying_Logbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E43779B-1F17-404E-88B9-72D661BC19D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992A9DC9-8FD4-9B46-96D6-E0512B8CFB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
   <sheets>
     <sheet name="Theorem Exam Pass Record" sheetId="2" r:id="rId1"/>
@@ -19,18 +19,15 @@
     <sheet name="Page 03" sheetId="10" r:id="rId4"/>
     <sheet name="Page 04" sheetId="11" r:id="rId5"/>
     <sheet name="Page 05" sheetId="12" r:id="rId6"/>
-    <sheet name="Blank Page" sheetId="13" r:id="rId7"/>
+    <sheet name="Page 06" sheetId="14" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Blank Page'!$B$2:$AC$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Page 01'!$B$2:$AC$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Page 02'!$B$2:$AC$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Page 03'!$B$2:$AC$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Page 04'!$B$2:$AC$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Page 05'!$B$2:$AC$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Page 06'!$B$2:$AC$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1069,7 +1066,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1194,13 +1191,40 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1209,10 +1233,64 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1221,7 +1299,16 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1266,114 +1353,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1389,19 +1368,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Page 0"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1806,7 +1772,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="112" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="112" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1824,135 +1790,135 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="94"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="94"/>
-      <c r="B2" s="55" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="59" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="61" t="s">
+      <c r="E2" s="86"/>
+      <c r="F2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="64"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="66" t="s">
+      <c r="I2" s="94"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="67"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="72" t="s">
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="42" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="42" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="52"/>
+      <c r="AC2" s="82"/>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="94"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="71"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
       <c r="N3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="48"/>
-      <c r="P3" s="47" t="s">
+      <c r="O3" s="74"/>
+      <c r="P3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="47" t="s">
+      <c r="Q3" s="74"/>
+      <c r="R3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="48"/>
-      <c r="T3" s="47" t="s">
+      <c r="S3" s="74"/>
+      <c r="T3" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="48"/>
-      <c r="V3" s="47" t="s">
+      <c r="U3" s="74"/>
+      <c r="V3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="48"/>
-      <c r="X3" s="47" t="s">
+      <c r="W3" s="74"/>
+      <c r="X3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="47" t="s">
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="53" t="s">
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="49" t="s">
+      <c r="AC3" s="76" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="23" t="s">
         <v>0</v>
       </c>
@@ -1965,8 +1931,8 @@
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
       <c r="H4" s="19" t="s">
         <v>28</v>
       </c>
@@ -1978,8 +1944,8 @@
       </c>
       <c r="K4" s="41"/>
       <c r="L4" s="41"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="74" t="s">
+      <c r="M4" s="48"/>
+      <c r="N4" s="42" t="s">
         <v>9</v>
       </c>
       <c r="O4" s="18" t="s">
@@ -2021,11 +1987,11 @@
       <c r="AA4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="50"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="77"/>
     </row>
     <row r="5" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="94"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="32" t="s">
         <v>19</v>
       </c>
@@ -2056,7 +2022,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="33"/>
-      <c r="N5" s="80"/>
+      <c r="N5" s="43"/>
       <c r="O5" s="5"/>
       <c r="P5" s="2">
         <v>0.8</v>
@@ -2076,7 +2042,7 @@
       <c r="AC5" s="33"/>
     </row>
     <row r="6" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="94"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="29"/>
       <c r="C6" s="13">
         <v>29</v>
@@ -2105,7 +2071,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="34"/>
-      <c r="N6" s="81"/>
+      <c r="N6" s="44"/>
       <c r="O6" s="6"/>
       <c r="P6" s="11">
         <v>1</v>
@@ -2125,7 +2091,7 @@
       <c r="AC6" s="34"/>
     </row>
     <row r="7" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="94"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="29"/>
       <c r="C7" s="13">
         <v>30</v>
@@ -2154,7 +2120,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="34"/>
-      <c r="N7" s="81"/>
+      <c r="N7" s="44"/>
       <c r="O7" s="6"/>
       <c r="P7" s="11">
         <v>1.1000000000000001</v>
@@ -2174,7 +2140,7 @@
       <c r="AC7" s="34"/>
     </row>
     <row r="8" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="94"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="29"/>
       <c r="C8" s="13">
         <v>30</v>
@@ -2203,7 +2169,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="34"/>
-      <c r="N8" s="81"/>
+      <c r="N8" s="44"/>
       <c r="O8" s="6"/>
       <c r="P8" s="11">
         <v>1.1000000000000001</v>
@@ -2223,7 +2189,7 @@
       <c r="AC8" s="34"/>
     </row>
     <row r="9" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="29"/>
       <c r="C9" s="13">
         <v>31</v>
@@ -2252,7 +2218,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="34"/>
-      <c r="N9" s="81"/>
+      <c r="N9" s="44"/>
       <c r="O9" s="6"/>
       <c r="P9" s="11">
         <v>1.1000000000000001</v>
@@ -2272,7 +2238,7 @@
       <c r="AC9" s="34"/>
     </row>
     <row r="10" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="94"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="29" t="s">
         <v>20</v>
       </c>
@@ -2303,7 +2269,7 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="34"/>
-      <c r="N10" s="81"/>
+      <c r="N10" s="44"/>
       <c r="O10" s="6"/>
       <c r="P10" s="11">
         <v>1.1000000000000001</v>
@@ -2323,7 +2289,7 @@
       <c r="AC10" s="34"/>
     </row>
     <row r="11" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="94"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="29"/>
       <c r="C11" s="13">
         <v>7</v>
@@ -2352,7 +2318,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="34"/>
-      <c r="N11" s="81"/>
+      <c r="N11" s="44"/>
       <c r="O11" s="6"/>
       <c r="P11" s="11">
         <v>1.3</v>
@@ -2372,7 +2338,7 @@
       <c r="AC11" s="34"/>
     </row>
     <row r="12" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="94"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="29"/>
       <c r="C12" s="13">
         <v>8</v>
@@ -2401,7 +2367,7 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="34"/>
-      <c r="N12" s="81"/>
+      <c r="N12" s="44"/>
       <c r="O12" s="6"/>
       <c r="P12" s="11">
         <v>1</v>
@@ -2421,7 +2387,7 @@
       <c r="AC12" s="34"/>
     </row>
     <row r="13" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="94"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="29"/>
       <c r="C13" s="13">
         <v>8</v>
@@ -2450,7 +2416,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="34"/>
-      <c r="N13" s="81"/>
+      <c r="N13" s="44"/>
       <c r="O13" s="6"/>
       <c r="P13" s="11">
         <v>1.1000000000000001</v>
@@ -2470,7 +2436,7 @@
       <c r="AC13" s="34"/>
     </row>
     <row r="14" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="94"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="29"/>
       <c r="C14" s="13">
         <v>9</v>
@@ -2499,7 +2465,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="34"/>
-      <c r="N14" s="81"/>
+      <c r="N14" s="44"/>
       <c r="O14" s="6"/>
       <c r="P14" s="11">
         <v>1.2</v>
@@ -2519,7 +2485,7 @@
       <c r="AC14" s="34"/>
     </row>
     <row r="15" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="94"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="29"/>
       <c r="C15" s="13">
         <v>9</v>
@@ -2548,7 +2514,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="34"/>
-      <c r="N15" s="81"/>
+      <c r="N15" s="44"/>
       <c r="O15" s="6"/>
       <c r="P15" s="11">
         <v>1.1000000000000001</v>
@@ -2568,7 +2534,7 @@
       <c r="AC15" s="34"/>
     </row>
     <row r="16" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="94"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="29"/>
       <c r="C16" s="13">
         <v>12</v>
@@ -2597,7 +2563,7 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="34"/>
-      <c r="N16" s="81"/>
+      <c r="N16" s="44"/>
       <c r="O16" s="6"/>
       <c r="P16" s="11">
         <v>1.3</v>
@@ -2617,7 +2583,7 @@
       <c r="AC16" s="34"/>
     </row>
     <row r="17" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="94"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="29"/>
       <c r="C17" s="13">
         <v>13</v>
@@ -2646,7 +2612,7 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="34"/>
-      <c r="N17" s="81"/>
+      <c r="N17" s="44"/>
       <c r="O17" s="6"/>
       <c r="P17" s="11">
         <v>1.3</v>
@@ -2666,7 +2632,7 @@
       <c r="AC17" s="34"/>
     </row>
     <row r="18" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="94"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="29"/>
       <c r="C18" s="13">
         <v>14</v>
@@ -2695,7 +2661,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="34"/>
-      <c r="N18" s="81"/>
+      <c r="N18" s="44"/>
       <c r="O18" s="6"/>
       <c r="P18" s="11">
         <v>1.1000000000000001</v>
@@ -2715,7 +2681,7 @@
       <c r="AC18" s="34"/>
     </row>
     <row r="19" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="94"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="29"/>
       <c r="C19" s="13">
         <v>20</v>
@@ -2744,7 +2710,7 @@
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="34"/>
-      <c r="N19" s="81"/>
+      <c r="N19" s="44"/>
       <c r="O19" s="6"/>
       <c r="P19" s="11">
         <v>1.1000000000000001</v>
@@ -2764,7 +2730,7 @@
       <c r="AC19" s="34"/>
     </row>
     <row r="20" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="94"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="29"/>
       <c r="C20" s="13">
         <v>20</v>
@@ -2793,7 +2759,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="34"/>
-      <c r="N20" s="81"/>
+      <c r="N20" s="44"/>
       <c r="O20" s="6"/>
       <c r="P20" s="11">
         <v>0.9</v>
@@ -2813,7 +2779,7 @@
       <c r="AC20" s="34"/>
     </row>
     <row r="21" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="29"/>
       <c r="C21" s="13">
         <v>28</v>
@@ -2842,7 +2808,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="34"/>
-      <c r="N21" s="81"/>
+      <c r="N21" s="44"/>
       <c r="O21" s="6"/>
       <c r="P21" s="11">
         <v>1.3</v>
@@ -2862,7 +2828,7 @@
       <c r="AC21" s="34"/>
     </row>
     <row r="22" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="94"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="29"/>
       <c r="C22" s="13">
         <v>29</v>
@@ -2891,7 +2857,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="34"/>
-      <c r="N22" s="81"/>
+      <c r="N22" s="44"/>
       <c r="O22" s="6"/>
       <c r="P22" s="11">
         <v>1.3</v>
@@ -2911,7 +2877,7 @@
       <c r="AC22" s="34"/>
     </row>
     <row r="23" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="94"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="29" t="s">
         <v>44</v>
       </c>
@@ -2942,7 +2908,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="34"/>
-      <c r="N23" s="81"/>
+      <c r="N23" s="44"/>
       <c r="O23" s="6"/>
       <c r="P23" s="11">
         <v>0.9</v>
@@ -2962,7 +2928,7 @@
       <c r="AC23" s="34"/>
     </row>
     <row r="24" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="94"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="35"/>
       <c r="C24" s="15">
         <v>10</v>
@@ -2991,7 +2957,7 @@
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
       <c r="M24" s="36"/>
-      <c r="N24" s="82"/>
+      <c r="N24" s="45"/>
       <c r="O24" s="17"/>
       <c r="P24" s="16">
         <v>1</v>
@@ -3011,12 +2977,12 @@
       <c r="AC24" s="36"/>
     </row>
     <row r="25" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="94"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="35"/>
       <c r="C25" s="15">
         <v>25</v>
       </c>
-      <c r="D25" s="96" t="s">
+      <c r="D25" s="49" t="s">
         <v>99</v>
       </c>
       <c r="E25" s="15" t="s">
@@ -3040,7 +3006,7 @@
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
       <c r="M25" s="37"/>
-      <c r="N25" s="83"/>
+      <c r="N25" s="46"/>
       <c r="O25" s="7"/>
       <c r="P25" s="12">
         <v>1.4</v>
@@ -3060,23 +3026,23 @@
       <c r="AC25" s="37"/>
     </row>
     <row r="26" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="94"/>
-      <c r="B26" s="97" t="s">
+      <c r="A26" s="47"/>
+      <c r="B26" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="2">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H26" s="44" t="s">
+      <c r="H26" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="45"/>
-      <c r="J26" s="46"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
       <c r="K26" s="2" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -3089,7 +3055,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N26" s="80" t="str">
+      <c r="N26" s="43" t="str">
         <f>IF(SUM(N5:N25)=0,"",SUM(N5:N25))</f>
         <v/>
       </c>
@@ -3155,27 +3121,27 @@
       </c>
     </row>
     <row r="27" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="94"/>
-      <c r="B27" s="84" t="s">
+      <c r="A27" s="47"/>
+      <c r="B27" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="86"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="11">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H27" s="87" t="s">
+      <c r="H27" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="88"/>
-      <c r="J27" s="89"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="34"/>
-      <c r="N27" s="81"/>
+      <c r="N27" s="44"/>
       <c r="O27" s="6"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="6"/>
@@ -3193,23 +3159,23 @@
       <c r="AC27" s="34"/>
     </row>
     <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
-      <c r="B28" s="90" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="92"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="12">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H28" s="93" t="s">
+      <c r="H28" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="91"/>
-      <c r="J28" s="92"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61"/>
       <c r="K28" s="12" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -3222,7 +3188,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N28" s="83" t="str">
+      <c r="N28" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -3344,136 +3310,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94"/>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="94"/>
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="94"/>
-      <c r="B2" s="55" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="59" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="61" t="s">
+      <c r="E2" s="86"/>
+      <c r="F2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="64"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="66" t="s">
+      <c r="I2" s="94"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="67"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="51" t="s">
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="42" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="42" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="52"/>
+      <c r="AC2" s="82"/>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="94"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="79" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="48"/>
-      <c r="P3" s="47" t="s">
+      <c r="O3" s="74"/>
+      <c r="P3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="47" t="s">
+      <c r="Q3" s="74"/>
+      <c r="R3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="48"/>
-      <c r="T3" s="47" t="s">
+      <c r="S3" s="74"/>
+      <c r="T3" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="48"/>
-      <c r="V3" s="47" t="s">
+      <c r="U3" s="74"/>
+      <c r="V3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="48"/>
-      <c r="X3" s="47" t="s">
+      <c r="W3" s="74"/>
+      <c r="X3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="47" t="s">
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="53" t="s">
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="49" t="s">
+      <c r="AC3" s="76" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="23" t="s">
         <v>0</v>
       </c>
@@ -3486,8 +3452,8 @@
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
       <c r="H4" s="19" t="s">
         <v>28</v>
       </c>
@@ -3499,8 +3465,8 @@
       </c>
       <c r="K4" s="41"/>
       <c r="L4" s="41"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="75" t="s">
+      <c r="M4" s="48"/>
+      <c r="N4" s="42" t="s">
         <v>9</v>
       </c>
       <c r="O4" s="18" t="s">
@@ -3542,11 +3508,11 @@
       <c r="AA4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="50"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="77"/>
     </row>
     <row r="5" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="94"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="32" t="s">
         <v>44</v>
       </c>
@@ -3577,7 +3543,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="28"/>
-      <c r="N5" s="76"/>
+      <c r="N5" s="43"/>
       <c r="O5" s="5"/>
       <c r="P5" s="2">
         <v>0.5</v>
@@ -3597,7 +3563,7 @@
       <c r="AC5" s="33"/>
     </row>
     <row r="6" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="94"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="38"/>
       <c r="C6" s="8">
         <v>31</v>
@@ -3625,8 +3591,8 @@
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="99"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="44"/>
       <c r="O6" s="10"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="10"/>
@@ -3646,7 +3612,7 @@
       <c r="AC6" s="39"/>
     </row>
     <row r="7" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="94"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="29" t="s">
         <v>51</v>
       </c>
@@ -3677,7 +3643,7 @@
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="30"/>
-      <c r="N7" s="77"/>
+      <c r="N7" s="44"/>
       <c r="O7" s="6"/>
       <c r="P7" s="11">
         <v>0.8</v>
@@ -3697,7 +3663,7 @@
       <c r="AC7" s="34"/>
     </row>
     <row r="8" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="94"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="32"/>
       <c r="C8" s="1">
         <v>22</v>
@@ -3726,7 +3692,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="28"/>
-      <c r="N8" s="76"/>
+      <c r="N8" s="44"/>
       <c r="O8" s="5"/>
       <c r="P8" s="2">
         <v>0.8</v>
@@ -3746,7 +3712,7 @@
       <c r="AC8" s="33"/>
     </row>
     <row r="9" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="29"/>
       <c r="C9" s="13">
         <v>22</v>
@@ -3775,7 +3741,7 @@
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="30"/>
-      <c r="N9" s="77"/>
+      <c r="N9" s="44"/>
       <c r="O9" s="6"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="6"/>
@@ -3795,7 +3761,7 @@
       <c r="AC9" s="34"/>
     </row>
     <row r="10" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="94"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="32" t="s">
         <v>53</v>
       </c>
@@ -3826,7 +3792,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="28"/>
-      <c r="N10" s="76"/>
+      <c r="N10" s="44"/>
       <c r="O10" s="5"/>
       <c r="P10" s="2">
         <v>1</v>
@@ -3846,7 +3812,7 @@
       <c r="AC10" s="33"/>
     </row>
     <row r="11" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="94"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="29"/>
       <c r="C11" s="13">
         <v>6</v>
@@ -3875,7 +3841,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="30"/>
-      <c r="N11" s="77"/>
+      <c r="N11" s="44"/>
       <c r="O11" s="6"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="6"/>
@@ -3895,7 +3861,7 @@
       <c r="AC11" s="34"/>
     </row>
     <row r="12" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="94"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="29" t="s">
         <v>63</v>
       </c>
@@ -3926,7 +3892,7 @@
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="30"/>
-      <c r="N12" s="77"/>
+      <c r="N12" s="45"/>
       <c r="O12" s="6"/>
       <c r="P12" s="11">
         <v>1</v>
@@ -3946,12 +3912,12 @@
       <c r="AC12" s="34"/>
     </row>
     <row r="13" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="94"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="31"/>
       <c r="C13" s="14">
         <v>9</v>
       </c>
-      <c r="D13" s="96" t="s">
+      <c r="D13" s="49" t="s">
         <v>99</v>
       </c>
       <c r="E13" s="14" t="s">
@@ -3975,7 +3941,7 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
       <c r="M13" s="20"/>
-      <c r="N13" s="78"/>
+      <c r="N13" s="46"/>
       <c r="O13" s="7"/>
       <c r="P13" s="12">
         <v>1.1000000000000001</v>
@@ -3995,10 +3961,10 @@
       <c r="AC13" s="37"/>
     </row>
     <row r="14" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="94"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="29"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="98"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -4008,7 +3974,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="34"/>
-      <c r="N14" s="81"/>
+      <c r="N14" s="44"/>
       <c r="O14" s="6"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="6"/>
@@ -4026,7 +3992,7 @@
       <c r="AC14" s="34"/>
     </row>
     <row r="15" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="94"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="29"/>
       <c r="C15" s="13"/>
       <c r="D15" s="1"/>
@@ -4039,7 +4005,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="34"/>
-      <c r="N15" s="81"/>
+      <c r="N15" s="44"/>
       <c r="O15" s="6"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="6"/>
@@ -4057,7 +4023,7 @@
       <c r="AC15" s="34"/>
     </row>
     <row r="16" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="94"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="29"/>
       <c r="C16" s="13"/>
       <c r="D16" s="1"/>
@@ -4070,7 +4036,7 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="34"/>
-      <c r="N16" s="81"/>
+      <c r="N16" s="44"/>
       <c r="O16" s="6"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="6"/>
@@ -4088,7 +4054,7 @@
       <c r="AC16" s="34"/>
     </row>
     <row r="17" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="94"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="29"/>
       <c r="C17" s="13"/>
       <c r="D17" s="1"/>
@@ -4101,7 +4067,7 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="34"/>
-      <c r="N17" s="81"/>
+      <c r="N17" s="44"/>
       <c r="O17" s="6"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="6"/>
@@ -4119,7 +4085,7 @@
       <c r="AC17" s="34"/>
     </row>
     <row r="18" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="94"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="29"/>
       <c r="C18" s="13"/>
       <c r="D18" s="1"/>
@@ -4132,7 +4098,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="34"/>
-      <c r="N18" s="81"/>
+      <c r="N18" s="44"/>
       <c r="O18" s="6"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="6"/>
@@ -4150,7 +4116,7 @@
       <c r="AC18" s="34"/>
     </row>
     <row r="19" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="94"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="29"/>
       <c r="C19" s="13"/>
       <c r="D19" s="1"/>
@@ -4163,7 +4129,7 @@
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="34"/>
-      <c r="N19" s="81"/>
+      <c r="N19" s="44"/>
       <c r="O19" s="6"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="6"/>
@@ -4181,7 +4147,7 @@
       <c r="AC19" s="34"/>
     </row>
     <row r="20" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="94"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="29"/>
       <c r="C20" s="13"/>
       <c r="D20" s="1"/>
@@ -4194,7 +4160,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="34"/>
-      <c r="N20" s="81"/>
+      <c r="N20" s="44"/>
       <c r="O20" s="6"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="6"/>
@@ -4212,7 +4178,7 @@
       <c r="AC20" s="34"/>
     </row>
     <row r="21" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="29"/>
       <c r="C21" s="13"/>
       <c r="D21" s="1"/>
@@ -4225,7 +4191,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="34"/>
-      <c r="N21" s="81"/>
+      <c r="N21" s="44"/>
       <c r="O21" s="6"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="6"/>
@@ -4243,7 +4209,7 @@
       <c r="AC21" s="34"/>
     </row>
     <row r="22" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="94"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="29"/>
       <c r="C22" s="13"/>
       <c r="D22" s="1"/>
@@ -4256,7 +4222,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="34"/>
-      <c r="N22" s="81"/>
+      <c r="N22" s="44"/>
       <c r="O22" s="6"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="6"/>
@@ -4274,7 +4240,7 @@
       <c r="AC22" s="34"/>
     </row>
     <row r="23" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="94"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="29"/>
       <c r="C23" s="13"/>
       <c r="D23" s="1"/>
@@ -4287,7 +4253,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="34"/>
-      <c r="N23" s="81"/>
+      <c r="N23" s="44"/>
       <c r="O23" s="6"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="6"/>
@@ -4305,7 +4271,7 @@
       <c r="AC23" s="34"/>
     </row>
     <row r="24" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="94"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="35"/>
       <c r="C24" s="15"/>
       <c r="D24" s="1"/>
@@ -4318,7 +4284,7 @@
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
       <c r="M24" s="36"/>
-      <c r="N24" s="82"/>
+      <c r="N24" s="45"/>
       <c r="O24" s="17"/>
       <c r="P24" s="16"/>
       <c r="Q24" s="17"/>
@@ -4336,7 +4302,7 @@
       <c r="AC24" s="36"/>
     </row>
     <row r="25" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="94"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="31"/>
       <c r="C25" s="14"/>
       <c r="D25" s="1"/>
@@ -4349,7 +4315,7 @@
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
       <c r="M25" s="37"/>
-      <c r="N25" s="83"/>
+      <c r="N25" s="46"/>
       <c r="O25" s="7"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="7"/>
@@ -4367,23 +4333,23 @@
       <c r="AC25" s="37"/>
     </row>
     <row r="26" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="94"/>
-      <c r="B26" s="97" t="s">
+      <c r="A26" s="47"/>
+      <c r="B26" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="2">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="H26" s="44" t="s">
+      <c r="H26" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="45"/>
-      <c r="J26" s="46"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
       <c r="K26" s="2" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -4392,11 +4358,11 @@
         <f t="shared" ref="L26:M26" si="0">IF(SUM(L5:L25)=0,"",SUM(L5:L25))</f>
         <v/>
       </c>
-      <c r="M26" s="101" t="str">
+      <c r="M26" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N26" s="76" t="str">
+      <c r="N26" s="43" t="str">
         <f>IF(SUM(N5:N25)=0,"",SUM(N5:N25))</f>
         <v/>
       </c>
@@ -4462,23 +4428,23 @@
       </c>
     </row>
     <row r="27" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="94"/>
-      <c r="B27" s="84" t="s">
+      <c r="A27" s="47"/>
+      <c r="B27" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="86"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="11">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H27" s="87" t="s">
+      <c r="H27" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="88"/>
-      <c r="J27" s="89"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
       <c r="K27" s="11" t="str">
         <f>'Page 01'!K28</f>
         <v/>
@@ -4491,7 +4457,7 @@
         <f>'Page 01'!M28</f>
         <v/>
       </c>
-      <c r="N27" s="77" t="str">
+      <c r="N27" s="44" t="str">
         <f>'Page 01'!N28</f>
         <v/>
       </c>
@@ -4557,23 +4523,23 @@
       </c>
     </row>
     <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
-      <c r="B28" s="90" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="92"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="12">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H28" s="93" t="s">
+      <c r="H28" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="91"/>
-      <c r="J28" s="92"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61"/>
       <c r="K28" s="12" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -4586,7 +4552,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N28" s="78" t="str">
+      <c r="N28" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4662,6 +4628,12 @@
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K2:M3"/>
     <mergeCell ref="N2:S2"/>
     <mergeCell ref="T2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
@@ -4672,12 +4644,6 @@
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K2:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -4709,135 +4675,135 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="94"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="94"/>
-      <c r="B2" s="55" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="59" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="61" t="s">
+      <c r="E2" s="86"/>
+      <c r="F2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="64"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="66" t="s">
+      <c r="I2" s="94"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="67"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="51" t="s">
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="42" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="42" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="52"/>
+      <c r="AC2" s="82"/>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="94"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="79" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="48"/>
-      <c r="P3" s="47" t="s">
+      <c r="O3" s="74"/>
+      <c r="P3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="47" t="s">
+      <c r="Q3" s="74"/>
+      <c r="R3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="48"/>
-      <c r="T3" s="47" t="s">
+      <c r="S3" s="74"/>
+      <c r="T3" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="48"/>
-      <c r="V3" s="47" t="s">
+      <c r="U3" s="74"/>
+      <c r="V3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="48"/>
-      <c r="X3" s="47" t="s">
+      <c r="W3" s="74"/>
+      <c r="X3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="47" t="s">
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="53" t="s">
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="49" t="s">
+      <c r="AC3" s="76" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="23" t="s">
         <v>0</v>
       </c>
@@ -4850,8 +4816,8 @@
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
       <c r="H4" s="19" t="s">
         <v>28</v>
       </c>
@@ -4863,8 +4829,8 @@
       </c>
       <c r="K4" s="41"/>
       <c r="L4" s="41"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="75" t="s">
+      <c r="M4" s="48"/>
+      <c r="N4" s="42" t="s">
         <v>9</v>
       </c>
       <c r="O4" s="18" t="s">
@@ -4906,11 +4872,11 @@
       <c r="AA4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="50"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="77"/>
     </row>
     <row r="5" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="94"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="32" t="s">
         <v>66</v>
       </c>
@@ -4941,7 +4907,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="28"/>
-      <c r="N5" s="76"/>
+      <c r="N5" s="43"/>
       <c r="O5" s="5"/>
       <c r="P5" s="2">
         <v>1.1000000000000001</v>
@@ -4961,7 +4927,7 @@
       <c r="AC5" s="33"/>
     </row>
     <row r="6" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="94"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="29"/>
       <c r="C6" s="13">
         <v>15</v>
@@ -4990,7 +4956,7 @@
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="30"/>
-      <c r="N6" s="77"/>
+      <c r="N6" s="44"/>
       <c r="O6" s="6"/>
       <c r="P6" s="11">
         <v>0.9</v>
@@ -5010,7 +4976,7 @@
       <c r="AC6" s="34"/>
     </row>
     <row r="7" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="94"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="29"/>
       <c r="C7" s="13">
         <v>21</v>
@@ -5039,7 +5005,7 @@
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="30"/>
-      <c r="N7" s="77"/>
+      <c r="N7" s="44"/>
       <c r="O7" s="6"/>
       <c r="P7" s="11">
         <v>1.1000000000000001</v>
@@ -5059,7 +5025,7 @@
       <c r="AC7" s="34"/>
     </row>
     <row r="8" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="94"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="29"/>
       <c r="C8" s="13">
         <v>26</v>
@@ -5088,7 +5054,7 @@
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="30"/>
-      <c r="N8" s="77"/>
+      <c r="N8" s="44"/>
       <c r="O8" s="6"/>
       <c r="P8" s="11">
         <v>1.1000000000000001</v>
@@ -5110,7 +5076,7 @@
       <c r="AC8" s="34"/>
     </row>
     <row r="9" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="29"/>
       <c r="C9" s="13">
         <v>29</v>
@@ -5139,7 +5105,7 @@
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="30"/>
-      <c r="N9" s="77"/>
+      <c r="N9" s="44"/>
       <c r="O9" s="6"/>
       <c r="P9" s="11">
         <v>0.7</v>
@@ -5159,7 +5125,7 @@
       <c r="AC9" s="34"/>
     </row>
     <row r="10" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="94"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="29" t="s">
         <v>80</v>
       </c>
@@ -5190,7 +5156,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="30"/>
-      <c r="N10" s="77"/>
+      <c r="N10" s="44"/>
       <c r="O10" s="6"/>
       <c r="P10" s="11">
         <v>1.1000000000000001</v>
@@ -5210,7 +5176,7 @@
       <c r="AC10" s="34"/>
     </row>
     <row r="11" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="94"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="29"/>
       <c r="C11" s="13">
         <v>10</v>
@@ -5239,7 +5205,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="30"/>
-      <c r="N11" s="77"/>
+      <c r="N11" s="44"/>
       <c r="O11" s="6"/>
       <c r="P11" s="11">
         <v>0.4</v>
@@ -5259,7 +5225,7 @@
       <c r="AC11" s="34"/>
     </row>
     <row r="12" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="94"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="29"/>
       <c r="C12" s="13">
         <v>10</v>
@@ -5288,7 +5254,7 @@
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="30"/>
-      <c r="N12" s="77"/>
+      <c r="N12" s="44"/>
       <c r="O12" s="6"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="6"/>
@@ -5308,7 +5274,7 @@
       <c r="AC12" s="34"/>
     </row>
     <row r="13" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="94"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="29"/>
       <c r="C13" s="13">
         <v>13</v>
@@ -5337,7 +5303,7 @@
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="30"/>
-      <c r="N13" s="77"/>
+      <c r="N13" s="44"/>
       <c r="O13" s="6"/>
       <c r="P13" s="11">
         <v>1.2</v>
@@ -5357,7 +5323,7 @@
       <c r="AC13" s="34"/>
     </row>
     <row r="14" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="94"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="29" t="s">
         <v>19</v>
       </c>
@@ -5388,7 +5354,7 @@
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="30"/>
-      <c r="N14" s="77"/>
+      <c r="N14" s="44"/>
       <c r="O14" s="6"/>
       <c r="P14" s="11">
         <v>0.6</v>
@@ -5408,7 +5374,7 @@
       <c r="AC14" s="34"/>
     </row>
     <row r="15" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="94"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="29"/>
       <c r="C15" s="13">
         <v>16</v>
@@ -5437,7 +5403,7 @@
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="30"/>
-      <c r="N15" s="77"/>
+      <c r="N15" s="44"/>
       <c r="O15" s="6"/>
       <c r="P15" s="11">
         <v>0.6</v>
@@ -5457,7 +5423,7 @@
       <c r="AC15" s="34"/>
     </row>
     <row r="16" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="94"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="29"/>
       <c r="C16" s="13">
         <v>18</v>
@@ -5486,7 +5452,7 @@
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="30"/>
-      <c r="N16" s="77"/>
+      <c r="N16" s="44"/>
       <c r="O16" s="6"/>
       <c r="P16" s="11">
         <v>0.8</v>
@@ -5506,7 +5472,7 @@
       <c r="AC16" s="34"/>
     </row>
     <row r="17" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="94"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="29"/>
       <c r="C17" s="13">
         <v>21</v>
@@ -5535,7 +5501,7 @@
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="30"/>
-      <c r="N17" s="77"/>
+      <c r="N17" s="44"/>
       <c r="O17" s="6"/>
       <c r="P17" s="11">
         <v>1.1000000000000001</v>
@@ -5555,7 +5521,7 @@
       <c r="AC17" s="34"/>
     </row>
     <row r="18" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="94"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="29"/>
       <c r="C18" s="13">
         <v>23</v>
@@ -5584,7 +5550,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="30"/>
-      <c r="N18" s="77"/>
+      <c r="N18" s="44"/>
       <c r="O18" s="6"/>
       <c r="P18" s="11">
         <v>0.8</v>
@@ -5604,7 +5570,7 @@
       <c r="AC18" s="34"/>
     </row>
     <row r="19" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="94"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="29"/>
       <c r="C19" s="13">
         <v>30</v>
@@ -5633,7 +5599,7 @@
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
       <c r="M19" s="30"/>
-      <c r="N19" s="77"/>
+      <c r="N19" s="44"/>
       <c r="O19" s="6"/>
       <c r="P19" s="11">
         <v>0.8</v>
@@ -5653,7 +5619,7 @@
       <c r="AC19" s="34"/>
     </row>
     <row r="20" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="94"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="29" t="s">
         <v>20</v>
       </c>
@@ -5684,7 +5650,7 @@
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="30"/>
-      <c r="N20" s="77"/>
+      <c r="N20" s="44"/>
       <c r="O20" s="6"/>
       <c r="P20" s="11">
         <v>1</v>
@@ -5704,7 +5670,7 @@
       <c r="AC20" s="34"/>
     </row>
     <row r="21" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="29" t="s">
         <v>44</v>
       </c>
@@ -5735,7 +5701,7 @@
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="30"/>
-      <c r="N21" s="77"/>
+      <c r="N21" s="44"/>
       <c r="O21" s="6"/>
       <c r="P21" s="11">
         <v>1</v>
@@ -5755,7 +5721,7 @@
       <c r="AC21" s="34"/>
     </row>
     <row r="22" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="94"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="29"/>
       <c r="C22" s="13">
         <v>14</v>
@@ -5784,7 +5750,7 @@
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
       <c r="M22" s="30"/>
-      <c r="N22" s="77"/>
+      <c r="N22" s="44"/>
       <c r="O22" s="6"/>
       <c r="P22" s="11">
         <v>1</v>
@@ -5804,7 +5770,7 @@
       <c r="AC22" s="34"/>
     </row>
     <row r="23" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="94"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="31"/>
       <c r="C23" s="14">
         <v>16</v>
@@ -5833,7 +5799,7 @@
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="20"/>
-      <c r="N23" s="78"/>
+      <c r="N23" s="46"/>
       <c r="O23" s="7"/>
       <c r="P23" s="12">
         <v>0.9</v>
@@ -5853,7 +5819,7 @@
       <c r="AC23" s="37"/>
     </row>
     <row r="24" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="94"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="32"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -5866,7 +5832,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="28"/>
-      <c r="N24" s="76"/>
+      <c r="N24" s="43"/>
       <c r="O24" s="5"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="5"/>
@@ -5884,7 +5850,7 @@
       <c r="AC24" s="33"/>
     </row>
     <row r="25" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="94"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="31"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -5897,7 +5863,7 @@
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="20"/>
-      <c r="N25" s="78"/>
+      <c r="N25" s="46"/>
       <c r="O25" s="7"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="7"/>
@@ -5915,23 +5881,23 @@
       <c r="AC25" s="37"/>
     </row>
     <row r="26" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="94"/>
-      <c r="B26" s="97" t="s">
+      <c r="A26" s="47"/>
+      <c r="B26" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="2">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>16.800000000000004</v>
       </c>
-      <c r="H26" s="44" t="s">
+      <c r="H26" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="45"/>
-      <c r="J26" s="46"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
       <c r="K26" s="2" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -5944,7 +5910,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N26" s="76" t="str">
+      <c r="N26" s="43" t="str">
         <f>IF(SUM(N5:N25)=0,"",SUM(N5:N25))</f>
         <v/>
       </c>
@@ -6010,23 +5976,23 @@
       </c>
     </row>
     <row r="27" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="94"/>
-      <c r="B27" s="84" t="s">
+      <c r="A27" s="47"/>
+      <c r="B27" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="86"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="11">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>47.1</v>
       </c>
-      <c r="H27" s="87" t="s">
+      <c r="H27" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="88"/>
-      <c r="J27" s="89"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
       <c r="K27" s="11" t="str">
         <f>'Page 02'!K28</f>
         <v/>
@@ -6039,7 +6005,7 @@
         <f>'Page 02'!M28</f>
         <v/>
       </c>
-      <c r="N27" s="81" t="str">
+      <c r="N27" s="44" t="str">
         <f>'Page 02'!N28</f>
         <v/>
       </c>
@@ -6105,23 +6071,23 @@
       </c>
     </row>
     <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
-      <c r="B28" s="90" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="92"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="12">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>47.1</v>
       </c>
-      <c r="H28" s="93" t="s">
+      <c r="H28" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="91"/>
-      <c r="J28" s="92"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61"/>
       <c r="K28" s="12" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -6134,7 +6100,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N28" s="83" t="str">
+      <c r="N28" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6210,6 +6176,12 @@
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K2:M3"/>
     <mergeCell ref="N2:S2"/>
     <mergeCell ref="T2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
@@ -6220,12 +6192,6 @@
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K2:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -6239,7 +6205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE447E2A-706F-BB48-B64D-34B46D089E61}">
   <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="112" workbookViewId="0"/>
+    <sheetView zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="112" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6257,135 +6223,135 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="94"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="94"/>
-      <c r="B2" s="55" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="59" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="61" t="s">
+      <c r="E2" s="86"/>
+      <c r="F2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="64"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="66" t="s">
+      <c r="I2" s="94"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="67"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="51" t="s">
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="42" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="42" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="52"/>
+      <c r="AC2" s="82"/>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="94"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="79" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="48"/>
-      <c r="P3" s="47" t="s">
+      <c r="O3" s="74"/>
+      <c r="P3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="47" t="s">
+      <c r="Q3" s="74"/>
+      <c r="R3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="48"/>
-      <c r="T3" s="47" t="s">
+      <c r="S3" s="74"/>
+      <c r="T3" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="48"/>
-      <c r="V3" s="47" t="s">
+      <c r="U3" s="74"/>
+      <c r="V3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="48"/>
-      <c r="X3" s="47" t="s">
+      <c r="W3" s="74"/>
+      <c r="X3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="47" t="s">
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="53" t="s">
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="49" t="s">
+      <c r="AC3" s="76" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="23" t="s">
         <v>0</v>
       </c>
@@ -6398,8 +6364,8 @@
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
       <c r="H4" s="19" t="s">
         <v>28</v>
       </c>
@@ -6411,8 +6377,8 @@
       </c>
       <c r="K4" s="41"/>
       <c r="L4" s="41"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="75" t="s">
+      <c r="M4" s="48"/>
+      <c r="N4" s="42" t="s">
         <v>9</v>
       </c>
       <c r="O4" s="18" t="s">
@@ -6454,11 +6420,11 @@
       <c r="AA4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="50"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="77"/>
     </row>
     <row r="5" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="94"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="32" t="s">
         <v>44</v>
       </c>
@@ -6489,7 +6455,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="28"/>
-      <c r="N5" s="76"/>
+      <c r="N5" s="43"/>
       <c r="O5" s="5"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="5"/>
@@ -6509,7 +6475,7 @@
       <c r="AC5" s="33"/>
     </row>
     <row r="6" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="94"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="29" t="s">
         <v>51</v>
       </c>
@@ -6540,7 +6506,7 @@
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="30"/>
-      <c r="N6" s="77"/>
+      <c r="N6" s="44"/>
       <c r="O6" s="6"/>
       <c r="P6" s="11">
         <v>0.9</v>
@@ -6560,7 +6526,7 @@
       <c r="AC6" s="34"/>
     </row>
     <row r="7" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="94"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="29"/>
       <c r="C7" s="13">
         <v>8</v>
@@ -6589,7 +6555,7 @@
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="30"/>
-      <c r="N7" s="77"/>
+      <c r="N7" s="44"/>
       <c r="O7" s="6"/>
       <c r="P7" s="11">
         <v>1.2</v>
@@ -6609,7 +6575,7 @@
       <c r="AC7" s="34"/>
     </row>
     <row r="8" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="94"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="29"/>
       <c r="C8" s="13">
         <v>9</v>
@@ -6638,7 +6604,7 @@
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="30"/>
-      <c r="N8" s="77"/>
+      <c r="N8" s="44"/>
       <c r="O8" s="6"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="6"/>
@@ -6658,7 +6624,7 @@
       <c r="AC8" s="34"/>
     </row>
     <row r="9" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="29"/>
       <c r="C9" s="13">
         <v>11</v>
@@ -6687,7 +6653,7 @@
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="30"/>
-      <c r="N9" s="77"/>
+      <c r="N9" s="44"/>
       <c r="O9" s="6"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="6"/>
@@ -6707,7 +6673,7 @@
       <c r="AC9" s="34"/>
     </row>
     <row r="10" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="94"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="29" t="s">
         <v>53</v>
       </c>
@@ -6738,7 +6704,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="30"/>
-      <c r="N10" s="77"/>
+      <c r="N10" s="44"/>
       <c r="O10" s="6"/>
       <c r="P10" s="11">
         <v>1.2</v>
@@ -6758,7 +6724,7 @@
       <c r="AC10" s="34"/>
     </row>
     <row r="11" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="94"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="29"/>
       <c r="C11" s="13">
         <v>28</v>
@@ -6787,7 +6753,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="30"/>
-      <c r="N11" s="77"/>
+      <c r="N11" s="44"/>
       <c r="O11" s="6"/>
       <c r="P11" s="11">
         <v>1</v>
@@ -6807,7 +6773,7 @@
       <c r="AC11" s="34"/>
     </row>
     <row r="12" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="94"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="29" t="s">
         <v>94</v>
       </c>
@@ -6838,7 +6804,7 @@
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="30"/>
-      <c r="N12" s="77"/>
+      <c r="N12" s="44"/>
       <c r="O12" s="6"/>
       <c r="P12" s="11">
         <v>1.4</v>
@@ -6860,7 +6826,7 @@
       <c r="AC12" s="34"/>
     </row>
     <row r="13" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="94"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="29"/>
       <c r="C13" s="13">
         <v>15</v>
@@ -6889,7 +6855,7 @@
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="30"/>
-      <c r="N13" s="77"/>
+      <c r="N13" s="44"/>
       <c r="O13" s="6"/>
       <c r="P13" s="11">
         <v>1.1000000000000001</v>
@@ -6909,7 +6875,7 @@
       <c r="AC13" s="34"/>
     </row>
     <row r="14" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="94"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="29"/>
       <c r="C14" s="13">
         <v>21</v>
@@ -6938,7 +6904,7 @@
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="30"/>
-      <c r="N14" s="77"/>
+      <c r="N14" s="44"/>
       <c r="O14" s="6"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="6"/>
@@ -6958,7 +6924,7 @@
       <c r="AC14" s="34"/>
     </row>
     <row r="15" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="94"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="29"/>
       <c r="C15" s="13">
         <v>25</v>
@@ -6987,7 +6953,7 @@
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="30"/>
-      <c r="N15" s="77"/>
+      <c r="N15" s="44"/>
       <c r="O15" s="6"/>
       <c r="P15" s="11">
         <v>1.2</v>
@@ -7007,7 +6973,7 @@
       <c r="AC15" s="34"/>
     </row>
     <row r="16" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="94"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="29" t="s">
         <v>103</v>
       </c>
@@ -7038,7 +7004,7 @@
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="30"/>
-      <c r="N16" s="77"/>
+      <c r="N16" s="44"/>
       <c r="O16" s="6"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="6"/>
@@ -7058,7 +7024,7 @@
       <c r="AC16" s="34"/>
     </row>
     <row r="17" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="94"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="29" t="s">
         <v>105</v>
       </c>
@@ -7089,7 +7055,7 @@
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="30"/>
-      <c r="N17" s="77"/>
+      <c r="N17" s="44"/>
       <c r="O17" s="6"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="6"/>
@@ -7109,7 +7075,7 @@
       <c r="AC17" s="34"/>
     </row>
     <row r="18" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="94"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="29"/>
       <c r="C18" s="13"/>
       <c r="D18" s="1"/>
@@ -7122,7 +7088,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="30"/>
-      <c r="N18" s="77"/>
+      <c r="N18" s="44"/>
       <c r="O18" s="6"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="6"/>
@@ -7140,7 +7106,7 @@
       <c r="AC18" s="34"/>
     </row>
     <row r="19" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="94"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="29"/>
       <c r="C19" s="13"/>
       <c r="D19" s="1"/>
@@ -7153,7 +7119,7 @@
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
       <c r="M19" s="30"/>
-      <c r="N19" s="77"/>
+      <c r="N19" s="44"/>
       <c r="O19" s="6"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="6"/>
@@ -7171,7 +7137,7 @@
       <c r="AC19" s="34"/>
     </row>
     <row r="20" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="94"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="29"/>
       <c r="C20" s="13"/>
       <c r="D20" s="1"/>
@@ -7184,7 +7150,7 @@
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="30"/>
-      <c r="N20" s="77"/>
+      <c r="N20" s="44"/>
       <c r="O20" s="6"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="6"/>
@@ -7202,7 +7168,7 @@
       <c r="AC20" s="34"/>
     </row>
     <row r="21" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="29"/>
       <c r="C21" s="13"/>
       <c r="D21" s="1"/>
@@ -7215,7 +7181,7 @@
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="30"/>
-      <c r="N21" s="77"/>
+      <c r="N21" s="44"/>
       <c r="O21" s="6"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="6"/>
@@ -7233,7 +7199,7 @@
       <c r="AC21" s="34"/>
     </row>
     <row r="22" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="94"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="29"/>
       <c r="C22" s="13"/>
       <c r="D22" s="1"/>
@@ -7246,7 +7212,7 @@
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
       <c r="M22" s="30"/>
-      <c r="N22" s="77"/>
+      <c r="N22" s="44"/>
       <c r="O22" s="6"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="6"/>
@@ -7264,7 +7230,7 @@
       <c r="AC22" s="34"/>
     </row>
     <row r="23" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="94"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="35"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -7277,7 +7243,7 @@
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
       <c r="M23" s="30"/>
-      <c r="N23" s="77"/>
+      <c r="N23" s="44"/>
       <c r="O23" s="6"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="6"/>
@@ -7295,7 +7261,7 @@
       <c r="AC23" s="34"/>
     </row>
     <row r="24" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="94"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="29"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -7308,7 +7274,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="28"/>
-      <c r="N24" s="76"/>
+      <c r="N24" s="43"/>
       <c r="O24" s="5"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="5"/>
@@ -7326,7 +7292,7 @@
       <c r="AC24" s="33"/>
     </row>
     <row r="25" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="94"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="31"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -7339,7 +7305,7 @@
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="20"/>
-      <c r="N25" s="78"/>
+      <c r="N25" s="46"/>
       <c r="O25" s="7"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="7"/>
@@ -7357,23 +7323,23 @@
       <c r="AC25" s="37"/>
     </row>
     <row r="26" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="94"/>
-      <c r="B26" s="97" t="s">
+      <c r="A26" s="47"/>
+      <c r="B26" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="2">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>14.599999999999998</v>
       </c>
-      <c r="H26" s="44" t="s">
+      <c r="H26" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="45"/>
-      <c r="J26" s="46"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
       <c r="K26" s="2" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -7386,7 +7352,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N26" s="76" t="str">
+      <c r="N26" s="43" t="str">
         <f>IF(SUM(N5:N25)=0,"",SUM(N5:N25))</f>
         <v/>
       </c>
@@ -7452,23 +7418,23 @@
       </c>
     </row>
     <row r="27" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="94"/>
-      <c r="B27" s="84" t="s">
+      <c r="A27" s="47"/>
+      <c r="B27" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="86"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="11">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>61.7</v>
       </c>
-      <c r="H27" s="87" t="s">
+      <c r="H27" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="88"/>
-      <c r="J27" s="89"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
       <c r="K27" s="11" t="str">
         <f>'Page 03'!K28</f>
         <v/>
@@ -7481,7 +7447,7 @@
         <f>'Page 03'!M28</f>
         <v/>
       </c>
-      <c r="N27" s="77" t="str">
+      <c r="N27" s="44" t="str">
         <f>'Page 03'!N28</f>
         <v/>
       </c>
@@ -7547,23 +7513,23 @@
       </c>
     </row>
     <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
-      <c r="B28" s="90" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="92"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="12">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>61.7</v>
       </c>
-      <c r="H28" s="93" t="s">
+      <c r="H28" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="91"/>
-      <c r="J28" s="92"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61"/>
       <c r="K28" s="12" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -7576,7 +7542,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N28" s="78" t="str">
+      <c r="N28" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7652,6 +7618,12 @@
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K2:M3"/>
     <mergeCell ref="N2:S2"/>
     <mergeCell ref="T2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
@@ -7662,12 +7634,6 @@
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K2:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -7681,9 +7647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DDE827-920C-154F-809E-0229729C3F27}">
   <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
-    </sheetView>
+    <sheetView zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="112" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7701,135 +7665,135 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="94"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="94"/>
-      <c r="B2" s="55" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="59" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="61" t="s">
+      <c r="E2" s="86"/>
+      <c r="F2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="64"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="66" t="s">
+      <c r="I2" s="94"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="67"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="51" t="s">
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="42" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="42" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="52"/>
+      <c r="AC2" s="82"/>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="94"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="79" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="48"/>
-      <c r="P3" s="47" t="s">
+      <c r="O3" s="74"/>
+      <c r="P3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="47" t="s">
+      <c r="Q3" s="74"/>
+      <c r="R3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="48"/>
-      <c r="T3" s="47" t="s">
+      <c r="S3" s="74"/>
+      <c r="T3" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="48"/>
-      <c r="V3" s="47" t="s">
+      <c r="U3" s="74"/>
+      <c r="V3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="48"/>
-      <c r="X3" s="47" t="s">
+      <c r="W3" s="74"/>
+      <c r="X3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="47" t="s">
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="53" t="s">
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="49" t="s">
+      <c r="AC3" s="76" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="23" t="s">
         <v>0</v>
       </c>
@@ -7842,8 +7806,8 @@
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
       <c r="H4" s="19" t="s">
         <v>28</v>
       </c>
@@ -7855,8 +7819,8 @@
       </c>
       <c r="K4" s="41"/>
       <c r="L4" s="41"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="75" t="s">
+      <c r="M4" s="48"/>
+      <c r="N4" s="42" t="s">
         <v>9</v>
       </c>
       <c r="O4" s="18" t="s">
@@ -7898,11 +7862,11 @@
       <c r="AA4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="50"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="77"/>
     </row>
     <row r="5" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="94"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="32"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -7915,7 +7879,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="28"/>
-      <c r="N5" s="76"/>
+      <c r="N5" s="43"/>
       <c r="O5" s="5"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="5"/>
@@ -7933,7 +7897,7 @@
       <c r="AC5" s="33"/>
     </row>
     <row r="6" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="94"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="29"/>
       <c r="C6" s="13"/>
       <c r="D6" s="1"/>
@@ -7946,7 +7910,7 @@
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="30"/>
-      <c r="N6" s="77"/>
+      <c r="N6" s="44"/>
       <c r="O6" s="6"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="6"/>
@@ -7964,7 +7928,7 @@
       <c r="AC6" s="34"/>
     </row>
     <row r="7" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="94"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="29"/>
       <c r="C7" s="13"/>
       <c r="D7" s="1"/>
@@ -7977,7 +7941,7 @@
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="30"/>
-      <c r="N7" s="77"/>
+      <c r="N7" s="44"/>
       <c r="O7" s="6"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="6"/>
@@ -7995,7 +7959,7 @@
       <c r="AC7" s="34"/>
     </row>
     <row r="8" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="94"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="29"/>
       <c r="C8" s="13"/>
       <c r="D8" s="1"/>
@@ -8008,7 +7972,7 @@
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="30"/>
-      <c r="N8" s="77"/>
+      <c r="N8" s="44"/>
       <c r="O8" s="6"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="6"/>
@@ -8026,7 +7990,7 @@
       <c r="AC8" s="34"/>
     </row>
     <row r="9" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="29"/>
       <c r="C9" s="13"/>
       <c r="D9" s="1"/>
@@ -8039,7 +8003,7 @@
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="30"/>
-      <c r="N9" s="77"/>
+      <c r="N9" s="44"/>
       <c r="O9" s="6"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="6"/>
@@ -8057,7 +8021,7 @@
       <c r="AC9" s="34"/>
     </row>
     <row r="10" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="94"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="29"/>
       <c r="C10" s="13"/>
       <c r="D10" s="1"/>
@@ -8070,7 +8034,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="30"/>
-      <c r="N10" s="77"/>
+      <c r="N10" s="44"/>
       <c r="O10" s="6"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="6"/>
@@ -8088,7 +8052,7 @@
       <c r="AC10" s="34"/>
     </row>
     <row r="11" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="94"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="29"/>
       <c r="C11" s="13"/>
       <c r="D11" s="1"/>
@@ -8101,7 +8065,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="30"/>
-      <c r="N11" s="77"/>
+      <c r="N11" s="44"/>
       <c r="O11" s="6"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="6"/>
@@ -8119,7 +8083,7 @@
       <c r="AC11" s="34"/>
     </row>
     <row r="12" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="94"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="29"/>
       <c r="C12" s="13"/>
       <c r="D12" s="1"/>
@@ -8132,7 +8096,7 @@
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="30"/>
-      <c r="N12" s="77"/>
+      <c r="N12" s="44"/>
       <c r="O12" s="6"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="6"/>
@@ -8150,7 +8114,7 @@
       <c r="AC12" s="34"/>
     </row>
     <row r="13" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="94"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="29"/>
       <c r="C13" s="13"/>
       <c r="D13" s="1"/>
@@ -8163,7 +8127,7 @@
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="30"/>
-      <c r="N13" s="77"/>
+      <c r="N13" s="44"/>
       <c r="O13" s="6"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="6"/>
@@ -8181,7 +8145,7 @@
       <c r="AC13" s="34"/>
     </row>
     <row r="14" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="94"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="29"/>
       <c r="C14" s="13"/>
       <c r="D14" s="1"/>
@@ -8194,7 +8158,7 @@
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="30"/>
-      <c r="N14" s="77"/>
+      <c r="N14" s="44"/>
       <c r="O14" s="6"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="6"/>
@@ -8212,7 +8176,7 @@
       <c r="AC14" s="34"/>
     </row>
     <row r="15" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="94"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="29"/>
       <c r="C15" s="13"/>
       <c r="D15" s="1"/>
@@ -8225,7 +8189,7 @@
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="30"/>
-      <c r="N15" s="77"/>
+      <c r="N15" s="44"/>
       <c r="O15" s="6"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="6"/>
@@ -8243,7 +8207,7 @@
       <c r="AC15" s="34"/>
     </row>
     <row r="16" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="94"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="29"/>
       <c r="C16" s="13"/>
       <c r="D16" s="1"/>
@@ -8256,7 +8220,7 @@
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="30"/>
-      <c r="N16" s="77"/>
+      <c r="N16" s="44"/>
       <c r="O16" s="6"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="6"/>
@@ -8274,7 +8238,7 @@
       <c r="AC16" s="34"/>
     </row>
     <row r="17" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="94"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="29"/>
       <c r="C17" s="13"/>
       <c r="D17" s="1"/>
@@ -8287,7 +8251,7 @@
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="30"/>
-      <c r="N17" s="77"/>
+      <c r="N17" s="44"/>
       <c r="O17" s="6"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="6"/>
@@ -8305,7 +8269,7 @@
       <c r="AC17" s="34"/>
     </row>
     <row r="18" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="94"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="29"/>
       <c r="C18" s="13"/>
       <c r="D18" s="1"/>
@@ -8318,7 +8282,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="30"/>
-      <c r="N18" s="77"/>
+      <c r="N18" s="44"/>
       <c r="O18" s="6"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="6"/>
@@ -8336,7 +8300,7 @@
       <c r="AC18" s="34"/>
     </row>
     <row r="19" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="94"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="29"/>
       <c r="C19" s="13"/>
       <c r="D19" s="1"/>
@@ -8349,7 +8313,7 @@
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
       <c r="M19" s="30"/>
-      <c r="N19" s="77"/>
+      <c r="N19" s="44"/>
       <c r="O19" s="6"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="6"/>
@@ -8367,7 +8331,7 @@
       <c r="AC19" s="34"/>
     </row>
     <row r="20" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="94"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="29"/>
       <c r="C20" s="13"/>
       <c r="D20" s="1"/>
@@ -8380,7 +8344,7 @@
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="30"/>
-      <c r="N20" s="77"/>
+      <c r="N20" s="44"/>
       <c r="O20" s="6"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="6"/>
@@ -8398,7 +8362,7 @@
       <c r="AC20" s="34"/>
     </row>
     <row r="21" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="29"/>
       <c r="C21" s="13"/>
       <c r="D21" s="1"/>
@@ -8411,7 +8375,7 @@
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="30"/>
-      <c r="N21" s="77"/>
+      <c r="N21" s="44"/>
       <c r="O21" s="6"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="6"/>
@@ -8429,7 +8393,7 @@
       <c r="AC21" s="34"/>
     </row>
     <row r="22" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="94"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="29"/>
       <c r="C22" s="13"/>
       <c r="D22" s="1"/>
@@ -8442,7 +8406,7 @@
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
       <c r="M22" s="30"/>
-      <c r="N22" s="77"/>
+      <c r="N22" s="44"/>
       <c r="O22" s="6"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="6"/>
@@ -8460,7 +8424,7 @@
       <c r="AC22" s="34"/>
     </row>
     <row r="23" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="94"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="35"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -8473,7 +8437,7 @@
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
       <c r="M23" s="30"/>
-      <c r="N23" s="77"/>
+      <c r="N23" s="44"/>
       <c r="O23" s="6"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="6"/>
@@ -8491,7 +8455,7 @@
       <c r="AC23" s="34"/>
     </row>
     <row r="24" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="94"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="29"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -8504,7 +8468,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="28"/>
-      <c r="N24" s="76"/>
+      <c r="N24" s="43"/>
       <c r="O24" s="5"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="5"/>
@@ -8522,7 +8486,7 @@
       <c r="AC24" s="33"/>
     </row>
     <row r="25" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="94"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="31"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -8535,7 +8499,7 @@
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="20"/>
-      <c r="N25" s="78"/>
+      <c r="N25" s="46"/>
       <c r="O25" s="7"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="7"/>
@@ -8553,23 +8517,23 @@
       <c r="AC25" s="37"/>
     </row>
     <row r="26" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="94"/>
-      <c r="B26" s="97" t="s">
+      <c r="A26" s="47"/>
+      <c r="B26" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="2" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="44" t="s">
+      <c r="H26" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="45"/>
-      <c r="J26" s="46"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
       <c r="K26" s="2" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -8582,7 +8546,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N26" s="76" t="str">
+      <c r="N26" s="43" t="str">
         <f>IF(SUM(N5:N25)=0,"",SUM(N5:N25))</f>
         <v/>
       </c>
@@ -8648,23 +8612,23 @@
       </c>
     </row>
     <row r="27" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="94"/>
-      <c r="B27" s="84" t="s">
+      <c r="A27" s="47"/>
+      <c r="B27" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="86"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="11">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>61.7</v>
       </c>
-      <c r="H27" s="87" t="s">
+      <c r="H27" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="88"/>
-      <c r="J27" s="89"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
       <c r="K27" s="11" t="str">
         <f>'Page 04'!K28</f>
         <v/>
@@ -8677,7 +8641,7 @@
         <f>'Page 04'!M28</f>
         <v/>
       </c>
-      <c r="N27" s="77" t="str">
+      <c r="N27" s="44" t="str">
         <f>'Page 04'!N28</f>
         <v/>
       </c>
@@ -8743,23 +8707,23 @@
       </c>
     </row>
     <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
-      <c r="B28" s="90" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="92"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="12">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>61.7</v>
       </c>
-      <c r="H28" s="93" t="s">
+      <c r="H28" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="91"/>
-      <c r="J28" s="92"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61"/>
       <c r="K28" s="12" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -8772,7 +8736,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N28" s="78" t="str">
+      <c r="N28" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -8848,6 +8812,12 @@
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K2:M3"/>
     <mergeCell ref="N2:S2"/>
     <mergeCell ref="T2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
@@ -8858,12 +8828,6 @@
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K2:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -8874,12 +8838,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E1707F-67D5-B942-A767-6A1E5C274032}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF253D2-11BB-AA45-933E-438A541CE8B0}">
   <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
-    </sheetView>
+    <sheetView zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="112" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8897,135 +8859,135 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="94"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="94"/>
-      <c r="B2" s="55" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="59" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="61" t="s">
+      <c r="E2" s="86"/>
+      <c r="F2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="64"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="66" t="s">
+      <c r="I2" s="94"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="67"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="51" t="s">
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="42" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="42" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="52"/>
+      <c r="AC2" s="82"/>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="94"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="79" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="48"/>
-      <c r="P3" s="47" t="s">
+      <c r="O3" s="74"/>
+      <c r="P3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="47" t="s">
+      <c r="Q3" s="74"/>
+      <c r="R3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="48"/>
-      <c r="T3" s="47" t="s">
+      <c r="S3" s="74"/>
+      <c r="T3" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="48"/>
-      <c r="V3" s="47" t="s">
+      <c r="U3" s="74"/>
+      <c r="V3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="48"/>
-      <c r="X3" s="47" t="s">
+      <c r="W3" s="74"/>
+      <c r="X3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="47" t="s">
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="53" t="s">
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="49" t="s">
+      <c r="AC3" s="76" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="23" t="s">
         <v>0</v>
       </c>
@@ -9038,8 +9000,8 @@
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
       <c r="H4" s="19" t="s">
         <v>28</v>
       </c>
@@ -9051,8 +9013,8 @@
       </c>
       <c r="K4" s="41"/>
       <c r="L4" s="41"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="75" t="s">
+      <c r="M4" s="48"/>
+      <c r="N4" s="42" t="s">
         <v>9</v>
       </c>
       <c r="O4" s="18" t="s">
@@ -9094,11 +9056,11 @@
       <c r="AA4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="50"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="77"/>
     </row>
     <row r="5" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="94"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="32"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -9111,7 +9073,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="28"/>
-      <c r="N5" s="76"/>
+      <c r="N5" s="43"/>
       <c r="O5" s="5"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="5"/>
@@ -9129,7 +9091,7 @@
       <c r="AC5" s="33"/>
     </row>
     <row r="6" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="94"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="29"/>
       <c r="C6" s="13"/>
       <c r="D6" s="1"/>
@@ -9142,7 +9104,7 @@
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="30"/>
-      <c r="N6" s="77"/>
+      <c r="N6" s="44"/>
       <c r="O6" s="6"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="6"/>
@@ -9160,7 +9122,7 @@
       <c r="AC6" s="34"/>
     </row>
     <row r="7" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="94"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="29"/>
       <c r="C7" s="13"/>
       <c r="D7" s="1"/>
@@ -9173,7 +9135,7 @@
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="30"/>
-      <c r="N7" s="77"/>
+      <c r="N7" s="44"/>
       <c r="O7" s="6"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="6"/>
@@ -9191,7 +9153,7 @@
       <c r="AC7" s="34"/>
     </row>
     <row r="8" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="94"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="29"/>
       <c r="C8" s="13"/>
       <c r="D8" s="1"/>
@@ -9204,7 +9166,7 @@
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="30"/>
-      <c r="N8" s="77"/>
+      <c r="N8" s="44"/>
       <c r="O8" s="6"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="6"/>
@@ -9222,7 +9184,7 @@
       <c r="AC8" s="34"/>
     </row>
     <row r="9" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="29"/>
       <c r="C9" s="13"/>
       <c r="D9" s="1"/>
@@ -9235,7 +9197,7 @@
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="30"/>
-      <c r="N9" s="77"/>
+      <c r="N9" s="44"/>
       <c r="O9" s="6"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="6"/>
@@ -9253,7 +9215,7 @@
       <c r="AC9" s="34"/>
     </row>
     <row r="10" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="94"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="29"/>
       <c r="C10" s="13"/>
       <c r="D10" s="1"/>
@@ -9266,7 +9228,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="30"/>
-      <c r="N10" s="77"/>
+      <c r="N10" s="44"/>
       <c r="O10" s="6"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="6"/>
@@ -9284,7 +9246,7 @@
       <c r="AC10" s="34"/>
     </row>
     <row r="11" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="94"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="29"/>
       <c r="C11" s="13"/>
       <c r="D11" s="1"/>
@@ -9297,7 +9259,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="30"/>
-      <c r="N11" s="77"/>
+      <c r="N11" s="44"/>
       <c r="O11" s="6"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="6"/>
@@ -9315,7 +9277,7 @@
       <c r="AC11" s="34"/>
     </row>
     <row r="12" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="94"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="29"/>
       <c r="C12" s="13"/>
       <c r="D12" s="1"/>
@@ -9328,7 +9290,7 @@
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="30"/>
-      <c r="N12" s="77"/>
+      <c r="N12" s="44"/>
       <c r="O12" s="6"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="6"/>
@@ -9346,7 +9308,7 @@
       <c r="AC12" s="34"/>
     </row>
     <row r="13" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="94"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="29"/>
       <c r="C13" s="13"/>
       <c r="D13" s="1"/>
@@ -9359,7 +9321,7 @@
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="30"/>
-      <c r="N13" s="77"/>
+      <c r="N13" s="44"/>
       <c r="O13" s="6"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="6"/>
@@ -9377,7 +9339,7 @@
       <c r="AC13" s="34"/>
     </row>
     <row r="14" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="94"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="29"/>
       <c r="C14" s="13"/>
       <c r="D14" s="1"/>
@@ -9390,7 +9352,7 @@
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="30"/>
-      <c r="N14" s="77"/>
+      <c r="N14" s="44"/>
       <c r="O14" s="6"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="6"/>
@@ -9408,7 +9370,7 @@
       <c r="AC14" s="34"/>
     </row>
     <row r="15" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="94"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="29"/>
       <c r="C15" s="13"/>
       <c r="D15" s="1"/>
@@ -9421,7 +9383,7 @@
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="30"/>
-      <c r="N15" s="77"/>
+      <c r="N15" s="44"/>
       <c r="O15" s="6"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="6"/>
@@ -9439,7 +9401,7 @@
       <c r="AC15" s="34"/>
     </row>
     <row r="16" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="94"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="29"/>
       <c r="C16" s="13"/>
       <c r="D16" s="1"/>
@@ -9452,7 +9414,7 @@
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="30"/>
-      <c r="N16" s="77"/>
+      <c r="N16" s="44"/>
       <c r="O16" s="6"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="6"/>
@@ -9470,7 +9432,7 @@
       <c r="AC16" s="34"/>
     </row>
     <row r="17" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="94"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="29"/>
       <c r="C17" s="13"/>
       <c r="D17" s="1"/>
@@ -9483,7 +9445,7 @@
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="30"/>
-      <c r="N17" s="77"/>
+      <c r="N17" s="44"/>
       <c r="O17" s="6"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="6"/>
@@ -9501,7 +9463,7 @@
       <c r="AC17" s="34"/>
     </row>
     <row r="18" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="94"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="29"/>
       <c r="C18" s="13"/>
       <c r="D18" s="1"/>
@@ -9514,7 +9476,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="30"/>
-      <c r="N18" s="77"/>
+      <c r="N18" s="44"/>
       <c r="O18" s="6"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="6"/>
@@ -9532,7 +9494,7 @@
       <c r="AC18" s="34"/>
     </row>
     <row r="19" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="94"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="29"/>
       <c r="C19" s="13"/>
       <c r="D19" s="1"/>
@@ -9545,7 +9507,7 @@
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
       <c r="M19" s="30"/>
-      <c r="N19" s="77"/>
+      <c r="N19" s="44"/>
       <c r="O19" s="6"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="6"/>
@@ -9563,7 +9525,7 @@
       <c r="AC19" s="34"/>
     </row>
     <row r="20" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="94"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="29"/>
       <c r="C20" s="13"/>
       <c r="D20" s="1"/>
@@ -9576,7 +9538,7 @@
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="30"/>
-      <c r="N20" s="77"/>
+      <c r="N20" s="44"/>
       <c r="O20" s="6"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="6"/>
@@ -9594,7 +9556,7 @@
       <c r="AC20" s="34"/>
     </row>
     <row r="21" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="29"/>
       <c r="C21" s="13"/>
       <c r="D21" s="1"/>
@@ -9607,7 +9569,7 @@
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="30"/>
-      <c r="N21" s="77"/>
+      <c r="N21" s="44"/>
       <c r="O21" s="6"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="6"/>
@@ -9625,7 +9587,7 @@
       <c r="AC21" s="34"/>
     </row>
     <row r="22" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="94"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="29"/>
       <c r="C22" s="13"/>
       <c r="D22" s="1"/>
@@ -9638,7 +9600,7 @@
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
       <c r="M22" s="30"/>
-      <c r="N22" s="77"/>
+      <c r="N22" s="44"/>
       <c r="O22" s="6"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="6"/>
@@ -9656,7 +9618,7 @@
       <c r="AC22" s="34"/>
     </row>
     <row r="23" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="94"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="35"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -9669,7 +9631,7 @@
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
       <c r="M23" s="30"/>
-      <c r="N23" s="77"/>
+      <c r="N23" s="44"/>
       <c r="O23" s="6"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="6"/>
@@ -9687,7 +9649,7 @@
       <c r="AC23" s="34"/>
     </row>
     <row r="24" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="94"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="29"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -9700,7 +9662,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="28"/>
-      <c r="N24" s="76"/>
+      <c r="N24" s="43"/>
       <c r="O24" s="5"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="5"/>
@@ -9718,7 +9680,7 @@
       <c r="AC24" s="33"/>
     </row>
     <row r="25" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="94"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="31"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -9731,7 +9693,7 @@
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="20"/>
-      <c r="N25" s="78"/>
+      <c r="N25" s="46"/>
       <c r="O25" s="7"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="7"/>
@@ -9749,23 +9711,23 @@
       <c r="AC25" s="37"/>
     </row>
     <row r="26" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="94"/>
-      <c r="B26" s="97" t="s">
+      <c r="A26" s="47"/>
+      <c r="B26" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="2" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="44" t="s">
+      <c r="H26" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="45"/>
-      <c r="J26" s="46"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
       <c r="K26" s="2" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -9778,7 +9740,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N26" s="76" t="str">
+      <c r="N26" s="43" t="str">
         <f>IF(SUM(N5:N25)=0,"",SUM(N5:N25))</f>
         <v/>
       </c>
@@ -9844,193 +9806,193 @@
       </c>
     </row>
     <row r="27" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="94"/>
-      <c r="B27" s="84" t="s">
+      <c r="A27" s="47"/>
+      <c r="B27" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="11" t="e">
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="11">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H27" s="87" t="s">
+        <v>61.7</v>
+      </c>
+      <c r="H27" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="88"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="11" t="e">
-        <f>'[1]Page 0'!K28</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L27" s="11" t="e">
-        <f>'[1]Page 0'!L28</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M27" s="11" t="e">
-        <f>'[1]Page 0'!M28</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N27" s="11" t="e">
-        <f>'[1]Page 0'!N28</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O27" s="11" t="e">
-        <f>'[1]Page 0'!O28</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P27" s="11" t="e">
-        <f>'[1]Page 0'!P28</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q27" s="11" t="e">
-        <f>'[1]Page 0'!Q28</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R27" s="11" t="e">
-        <f>'[1]Page 0'!R28</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S27" s="11" t="e">
-        <f>'[1]Page 0'!S28</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T27" s="11" t="e">
-        <f>'[1]Page 0'!T28</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U27" s="11" t="e">
-        <f>'[1]Page 0'!U28</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V27" s="11" t="e">
-        <f>'[1]Page 0'!V28</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W27" s="11" t="e">
-        <f>'[1]Page 0'!W28</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X27" s="11" t="e">
-        <f>'[1]Page 0'!X28</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y27" s="11" t="e">
-        <f>'[1]Page 0'!Y28</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z27" s="11" t="e">
-        <f>'[1]Page 0'!Z28</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA27" s="11" t="e">
-        <f>'[1]Page 0'!AA28</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AB27" s="11" t="e">
-        <f>'[1]Page 0'!AB28</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AC27" s="11" t="e">
-        <f>'[1]Page 0'!AC28</f>
-        <v>#REF!</v>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="11" t="str">
+        <f>'Page 05'!K28</f>
+        <v/>
+      </c>
+      <c r="L27" s="11" t="str">
+        <f>'Page 05'!L28</f>
+        <v/>
+      </c>
+      <c r="M27" s="34" t="str">
+        <f>'Page 05'!M28</f>
+        <v/>
+      </c>
+      <c r="N27" s="44" t="str">
+        <f>'Page 05'!N28</f>
+        <v/>
+      </c>
+      <c r="O27" s="6" t="str">
+        <f>'Page 05'!O28</f>
+        <v/>
+      </c>
+      <c r="P27" s="11">
+        <f>'Page 05'!P28</f>
+        <v>52.9</v>
+      </c>
+      <c r="Q27" s="6" t="str">
+        <f>'Page 05'!Q28</f>
+        <v/>
+      </c>
+      <c r="R27" s="11">
+        <f>'Page 05'!R28</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S27" s="6" t="str">
+        <f>'Page 05'!S28</f>
+        <v/>
+      </c>
+      <c r="T27" s="11" t="str">
+        <f>'Page 05'!T28</f>
+        <v/>
+      </c>
+      <c r="U27" s="6" t="str">
+        <f>'Page 05'!U28</f>
+        <v/>
+      </c>
+      <c r="V27" s="11" t="str">
+        <f>'Page 05'!V28</f>
+        <v/>
+      </c>
+      <c r="W27" s="6" t="str">
+        <f>'Page 05'!W28</f>
+        <v/>
+      </c>
+      <c r="X27" s="11" t="str">
+        <f>'Page 05'!X28</f>
+        <v/>
+      </c>
+      <c r="Y27" s="6" t="str">
+        <f>'Page 05'!Y28</f>
+        <v/>
+      </c>
+      <c r="Z27" s="11" t="str">
+        <f>'Page 05'!Z28</f>
+        <v/>
+      </c>
+      <c r="AA27" s="6" t="str">
+        <f>'Page 05'!AA28</f>
+        <v/>
+      </c>
+      <c r="AB27" s="11">
+        <f>'Page 05'!AB28</f>
+        <v>0.8</v>
+      </c>
+      <c r="AC27" s="34" t="str">
+        <f>'Page 05'!AC28</f>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
-      <c r="B28" s="90" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="12" t="e">
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="12">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H28" s="93" t="s">
+        <v>61.7</v>
+      </c>
+      <c r="H28" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="91"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="12" t="e">
+      <c r="I28" s="60"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="12" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L28" s="12" t="e">
+        <v/>
+      </c>
+      <c r="L28" s="12" t="str">
         <f t="shared" ref="L28:N28" si="2">IF(SUM(L26:L27)=0,"",SUM(L26:L27))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M28" s="37" t="e">
+        <v/>
+      </c>
+      <c r="M28" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N28" s="78" t="e">
+        <v/>
+      </c>
+      <c r="N28" s="46" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O28" s="7" t="e">
+        <v/>
+      </c>
+      <c r="O28" s="7" t="str">
         <f>IF(SUM(O26:O27)=0,"",SUM(O26:O27))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P28" s="12" t="e">
+        <v/>
+      </c>
+      <c r="P28" s="12">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q28" s="7" t="e">
+        <v>52.9</v>
+      </c>
+      <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="R28" s="12" t="e">
+        <v/>
+      </c>
+      <c r="R28" s="12">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S28" s="7" t="e">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S28" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T28" s="12" t="e">
+        <v/>
+      </c>
+      <c r="T28" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U28" s="7" t="e">
+        <v/>
+      </c>
+      <c r="U28" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V28" s="12" t="e">
+        <v/>
+      </c>
+      <c r="V28" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W28" s="7" t="e">
+        <v/>
+      </c>
+      <c r="W28" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="X28" s="12" t="e">
+        <v/>
+      </c>
+      <c r="X28" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Y28" s="7" t="e">
+        <v/>
+      </c>
+      <c r="Y28" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Z28" s="12" t="e">
+        <v/>
+      </c>
+      <c r="Z28" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AA28" s="7" t="e">
+        <v/>
+      </c>
+      <c r="AA28" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AB28" s="12" t="e">
+        <v/>
+      </c>
+      <c r="AB28" s="12">
         <f>IF(SUM(AB26:AB27)=0,"",SUM(AB26:AB27))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AC28" s="37" t="e">
+        <v>0.8</v>
+      </c>
+      <c r="AC28" s="37" t="str">
         <f>IF(SUM(AC26:AC27)=0,"",SUM(AC26:AC27))</f>
-        <v>#REF!</v>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/My_Flying_Logbook.xlsx
+++ b/My_Flying_Logbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992A9DC9-8FD4-9B46-96D6-E0512B8CFB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2017A007-5149-CC43-B9A5-F832AAF895A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
   <sheets>
     <sheet name="Theorem Exam Pass Record" sheetId="2" r:id="rId1"/>
@@ -19,15 +19,15 @@
     <sheet name="Page 03" sheetId="10" r:id="rId4"/>
     <sheet name="Page 04" sheetId="11" r:id="rId5"/>
     <sheet name="Page 05" sheetId="12" r:id="rId6"/>
-    <sheet name="Page 06" sheetId="14" r:id="rId7"/>
+    <sheet name="Blank Page (No Formula)" sheetId="14" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Blank Page (No Formula)'!$B$2:$AC$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Page 01'!$B$2:$AC$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Page 02'!$B$2:$AC$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Page 03'!$B$2:$AC$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Page 04'!$B$2:$AC$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Page 05'!$B$2:$AC$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Page 06'!$B$2:$AC$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1224,46 +1224,37 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1320,37 +1311,46 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1628,7 +1628,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1772,7 +1772,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="112" workbookViewId="0"/>
+    <sheetView zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="112" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1821,99 +1821,99 @@
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47"/>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="89" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="91" t="s">
+      <c r="E2" s="54"/>
+      <c r="F2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="94"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="67" t="s">
+      <c r="I2" s="62"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="68"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="78" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="81" t="s">
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="81" t="s">
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="82"/>
+      <c r="AC2" s="79"/>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="71"/>
+      <c r="P3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="71"/>
+      <c r="R3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="74"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="71"/>
+      <c r="T3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="74"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="71"/>
+      <c r="V3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="74"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="71"/>
+      <c r="X3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="83" t="s">
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="76" t="s">
+      <c r="AC3" s="73" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1931,8 +1931,8 @@
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="19" t="s">
         <v>28</v>
       </c>
@@ -1987,8 +1987,8 @@
       <c r="AA4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="77"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="74"/>
     </row>
     <row r="5" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
@@ -3027,22 +3027,22 @@
     </row>
     <row r="26" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="47"/>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="84"/>
       <c r="G26" s="2">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H26" s="62" t="s">
+      <c r="H26" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="54"/>
-      <c r="J26" s="55"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="84"/>
       <c r="K26" s="2" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -3122,22 +3122,22 @@
     </row>
     <row r="27" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="47"/>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="87"/>
       <c r="G27" s="11">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H27" s="63" t="s">
+      <c r="H27" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="65"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="94"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="34"/>
@@ -3160,22 +3160,22 @@
     </row>
     <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
       <c r="G28" s="12">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H28" s="66" t="s">
+      <c r="H28" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="60"/>
-      <c r="J28" s="61"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="90"/>
       <c r="K28" s="12" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -3255,11 +3255,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="K2:M3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
@@ -3274,12 +3275,11 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -3342,99 +3342,99 @@
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47"/>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="89" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="91" t="s">
+      <c r="E2" s="54"/>
+      <c r="F2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="94"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="67" t="s">
+      <c r="I2" s="62"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="68"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="78" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="81" t="s">
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="81" t="s">
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="82"/>
+      <c r="AC2" s="79"/>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="71"/>
+      <c r="P3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="71"/>
+      <c r="R3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="74"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="71"/>
+      <c r="T3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="74"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="71"/>
+      <c r="V3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="74"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="71"/>
+      <c r="X3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="83" t="s">
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="76" t="s">
+      <c r="AC3" s="73" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3452,8 +3452,8 @@
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="19" t="s">
         <v>28</v>
       </c>
@@ -3508,8 +3508,8 @@
       <c r="AA4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="77"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="74"/>
     </row>
     <row r="5" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
@@ -4334,22 +4334,22 @@
     </row>
     <row r="26" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="47"/>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="84"/>
       <c r="G26" s="2">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="H26" s="62" t="s">
+      <c r="H26" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="54"/>
-      <c r="J26" s="55"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="84"/>
       <c r="K26" s="2" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -4429,22 +4429,22 @@
     </row>
     <row r="27" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="47"/>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="87"/>
       <c r="G27" s="11">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H27" s="63" t="s">
+      <c r="H27" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="65"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="94"/>
       <c r="K27" s="11" t="str">
         <f>'Page 01'!K28</f>
         <v/>
@@ -4524,22 +4524,22 @@
     </row>
     <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
       <c r="G28" s="12">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H28" s="66" t="s">
+      <c r="H28" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="60"/>
-      <c r="J28" s="61"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="90"/>
       <c r="K28" s="12" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -4619,6 +4619,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="Z3:AA3"/>
@@ -4635,15 +4644,6 @@
     <mergeCell ref="H2:J3"/>
     <mergeCell ref="K2:M3"/>
     <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -4706,99 +4706,99 @@
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47"/>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="89" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="91" t="s">
+      <c r="E2" s="54"/>
+      <c r="F2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="94"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="67" t="s">
+      <c r="I2" s="62"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="68"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="78" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="81" t="s">
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="81" t="s">
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="82"/>
+      <c r="AC2" s="79"/>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="71"/>
+      <c r="P3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="71"/>
+      <c r="R3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="74"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="71"/>
+      <c r="T3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="74"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="71"/>
+      <c r="V3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="74"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="71"/>
+      <c r="X3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="83" t="s">
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="76" t="s">
+      <c r="AC3" s="73" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4816,8 +4816,8 @@
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="19" t="s">
         <v>28</v>
       </c>
@@ -4872,8 +4872,8 @@
       <c r="AA4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="77"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="74"/>
     </row>
     <row r="5" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
@@ -5882,22 +5882,22 @@
     </row>
     <row r="26" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="47"/>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="84"/>
       <c r="G26" s="2">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>16.800000000000004</v>
       </c>
-      <c r="H26" s="62" t="s">
+      <c r="H26" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="54"/>
-      <c r="J26" s="55"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="84"/>
       <c r="K26" s="2" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -5977,22 +5977,22 @@
     </row>
     <row r="27" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="47"/>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="87"/>
       <c r="G27" s="11">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>47.1</v>
       </c>
-      <c r="H27" s="63" t="s">
+      <c r="H27" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="65"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="94"/>
       <c r="K27" s="11" t="str">
         <f>'Page 02'!K28</f>
         <v/>
@@ -6072,22 +6072,22 @@
     </row>
     <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
       <c r="G28" s="12">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>47.1</v>
       </c>
-      <c r="H28" s="66" t="s">
+      <c r="H28" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="60"/>
-      <c r="J28" s="61"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="90"/>
       <c r="K28" s="12" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -6167,6 +6167,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="Z3:AA3"/>
@@ -6183,15 +6192,6 @@
     <mergeCell ref="H2:J3"/>
     <mergeCell ref="K2:M3"/>
     <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -6254,99 +6254,99 @@
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47"/>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="89" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="91" t="s">
+      <c r="E2" s="54"/>
+      <c r="F2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="94"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="67" t="s">
+      <c r="I2" s="62"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="68"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="78" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="81" t="s">
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="81" t="s">
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="82"/>
+      <c r="AC2" s="79"/>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="71"/>
+      <c r="P3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="71"/>
+      <c r="R3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="74"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="71"/>
+      <c r="T3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="74"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="71"/>
+      <c r="V3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="74"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="71"/>
+      <c r="X3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="83" t="s">
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="76" t="s">
+      <c r="AC3" s="73" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6364,8 +6364,8 @@
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="19" t="s">
         <v>28</v>
       </c>
@@ -6420,8 +6420,8 @@
       <c r="AA4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="77"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="74"/>
     </row>
     <row r="5" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
@@ -7324,22 +7324,22 @@
     </row>
     <row r="26" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="47"/>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="84"/>
       <c r="G26" s="2">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>14.599999999999998</v>
       </c>
-      <c r="H26" s="62" t="s">
+      <c r="H26" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="54"/>
-      <c r="J26" s="55"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="84"/>
       <c r="K26" s="2" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -7419,22 +7419,22 @@
     </row>
     <row r="27" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="47"/>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="87"/>
       <c r="G27" s="11">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>61.7</v>
       </c>
-      <c r="H27" s="63" t="s">
+      <c r="H27" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="65"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="94"/>
       <c r="K27" s="11" t="str">
         <f>'Page 03'!K28</f>
         <v/>
@@ -7514,22 +7514,22 @@
     </row>
     <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
       <c r="G28" s="12">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>61.7</v>
       </c>
-      <c r="H28" s="66" t="s">
+      <c r="H28" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="60"/>
-      <c r="J28" s="61"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="90"/>
       <c r="K28" s="12" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -7609,6 +7609,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="Z3:AA3"/>
@@ -7625,15 +7634,6 @@
     <mergeCell ref="H2:J3"/>
     <mergeCell ref="K2:M3"/>
     <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -7696,99 +7696,99 @@
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47"/>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="89" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="91" t="s">
+      <c r="E2" s="54"/>
+      <c r="F2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="94"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="67" t="s">
+      <c r="I2" s="62"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="68"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="78" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="81" t="s">
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="81" t="s">
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="82"/>
+      <c r="AC2" s="79"/>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="71"/>
+      <c r="P3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="71"/>
+      <c r="R3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="74"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="71"/>
+      <c r="T3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="74"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="71"/>
+      <c r="V3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="74"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="71"/>
+      <c r="X3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="83" t="s">
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="76" t="s">
+      <c r="AC3" s="73" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7806,8 +7806,8 @@
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="19" t="s">
         <v>28</v>
       </c>
@@ -7862,8 +7862,8 @@
       <c r="AA4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="77"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="74"/>
     </row>
     <row r="5" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
@@ -8518,22 +8518,22 @@
     </row>
     <row r="26" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="47"/>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="84"/>
       <c r="G26" s="2" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v/>
       </c>
-      <c r="H26" s="62" t="s">
+      <c r="H26" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="54"/>
-      <c r="J26" s="55"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="84"/>
       <c r="K26" s="2" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -8613,22 +8613,22 @@
     </row>
     <row r="27" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="47"/>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="87"/>
       <c r="G27" s="11">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>61.7</v>
       </c>
-      <c r="H27" s="63" t="s">
+      <c r="H27" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="65"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="94"/>
       <c r="K27" s="11" t="str">
         <f>'Page 04'!K28</f>
         <v/>
@@ -8708,22 +8708,22 @@
     </row>
     <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
       <c r="G28" s="12">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>61.7</v>
       </c>
-      <c r="H28" s="66" t="s">
+      <c r="H28" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="60"/>
-      <c r="J28" s="61"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="90"/>
       <c r="K28" s="12" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -8803,6 +8803,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="Z3:AA3"/>
@@ -8819,15 +8828,6 @@
     <mergeCell ref="H2:J3"/>
     <mergeCell ref="K2:M3"/>
     <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -8890,99 +8890,99 @@
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47"/>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="89" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="91" t="s">
+      <c r="E2" s="54"/>
+      <c r="F2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="94"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="67" t="s">
+      <c r="I2" s="62"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="68"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="78" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="81" t="s">
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="81" t="s">
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="82"/>
+      <c r="AC2" s="79"/>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="71"/>
+      <c r="P3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="71"/>
+      <c r="R3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="74"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="71"/>
+      <c r="T3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="74"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="71"/>
+      <c r="V3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="74"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="71"/>
+      <c r="X3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="83" t="s">
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="76" t="s">
+      <c r="AC3" s="73" t="s">
         <v>18</v>
       </c>
     </row>
@@ -9000,8 +9000,8 @@
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="19" t="s">
         <v>28</v>
       </c>
@@ -9056,8 +9056,8 @@
       <c r="AA4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="77"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="74"/>
     </row>
     <row r="5" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
@@ -9712,300 +9712,111 @@
     </row>
     <row r="26" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="47"/>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="2" t="str">
-        <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v/>
-      </c>
-      <c r="H26" s="62" t="s">
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="54"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="2" t="str">
-        <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
-        <v/>
-      </c>
-      <c r="L26" s="2" t="str">
-        <f t="shared" ref="L26:M26" si="0">IF(SUM(L5:L25)=0,"",SUM(L5:L25))</f>
-        <v/>
-      </c>
-      <c r="M26" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N26" s="43" t="str">
-        <f>IF(SUM(N5:N25)=0,"",SUM(N5:N25))</f>
-        <v/>
-      </c>
-      <c r="O26" s="6" t="str">
-        <f>IF(SUM(O5:O25)=0,"",SUM(O5:O25))</f>
-        <v/>
-      </c>
-      <c r="P26" s="2" t="str">
-        <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
-        <v/>
-      </c>
-      <c r="Q26" s="6" t="str">
-        <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
-        <v/>
-      </c>
-      <c r="R26" s="2" t="str">
-        <f>IF(SUM(R5:R25)=0,"",SUM(R5:R25))</f>
-        <v/>
-      </c>
-      <c r="S26" s="6" t="str">
-        <f t="shared" ref="S26:AC26" si="1">IF(SUM(S5:S25)=0,"",SUM(S5:S25))</f>
-        <v/>
-      </c>
-      <c r="T26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U26" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W26" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y26" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AA26" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AB26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AC26" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="I26" s="83"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="33"/>
     </row>
     <row r="27" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="47"/>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="11">
-        <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>61.7</v>
-      </c>
-      <c r="H27" s="63" t="s">
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="11" t="str">
-        <f>'Page 05'!K28</f>
-        <v/>
-      </c>
-      <c r="L27" s="11" t="str">
-        <f>'Page 05'!L28</f>
-        <v/>
-      </c>
-      <c r="M27" s="34" t="str">
-        <f>'Page 05'!M28</f>
-        <v/>
-      </c>
-      <c r="N27" s="44" t="str">
-        <f>'Page 05'!N28</f>
-        <v/>
-      </c>
-      <c r="O27" s="6" t="str">
-        <f>'Page 05'!O28</f>
-        <v/>
-      </c>
-      <c r="P27" s="11">
-        <f>'Page 05'!P28</f>
-        <v>52.9</v>
-      </c>
-      <c r="Q27" s="6" t="str">
-        <f>'Page 05'!Q28</f>
-        <v/>
-      </c>
-      <c r="R27" s="11">
-        <f>'Page 05'!R28</f>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="S27" s="6" t="str">
-        <f>'Page 05'!S28</f>
-        <v/>
-      </c>
-      <c r="T27" s="11" t="str">
-        <f>'Page 05'!T28</f>
-        <v/>
-      </c>
-      <c r="U27" s="6" t="str">
-        <f>'Page 05'!U28</f>
-        <v/>
-      </c>
-      <c r="V27" s="11" t="str">
-        <f>'Page 05'!V28</f>
-        <v/>
-      </c>
-      <c r="W27" s="6" t="str">
-        <f>'Page 05'!W28</f>
-        <v/>
-      </c>
-      <c r="X27" s="11" t="str">
-        <f>'Page 05'!X28</f>
-        <v/>
-      </c>
-      <c r="Y27" s="6" t="str">
-        <f>'Page 05'!Y28</f>
-        <v/>
-      </c>
-      <c r="Z27" s="11" t="str">
-        <f>'Page 05'!Z28</f>
-        <v/>
-      </c>
-      <c r="AA27" s="6" t="str">
-        <f>'Page 05'!AA28</f>
-        <v/>
-      </c>
-      <c r="AB27" s="11">
-        <f>'Page 05'!AB28</f>
-        <v>0.8</v>
-      </c>
-      <c r="AC27" s="34" t="str">
-        <f>'Page 05'!AC28</f>
-        <v/>
-      </c>
+      <c r="I27" s="93"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="34"/>
     </row>
     <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="12">
-        <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>61.7</v>
-      </c>
-      <c r="H28" s="66" t="s">
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="60"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="12" t="str">
-        <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
-        <v/>
-      </c>
-      <c r="L28" s="12" t="str">
-        <f t="shared" ref="L28:N28" si="2">IF(SUM(L26:L27)=0,"",SUM(L26:L27))</f>
-        <v/>
-      </c>
-      <c r="M28" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N28" s="46" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O28" s="7" t="str">
-        <f>IF(SUM(O26:O27)=0,"",SUM(O26:O27))</f>
-        <v/>
-      </c>
-      <c r="P28" s="12">
-        <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>52.9</v>
-      </c>
-      <c r="Q28" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R28" s="12">
-        <f t="shared" si="3"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="S28" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="T28" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="U28" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="V28" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="W28" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="X28" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Y28" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Z28" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AA28" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AB28" s="12">
-        <f>IF(SUM(AB26:AB27)=0,"",SUM(AB26:AB27))</f>
-        <v>0.8</v>
-      </c>
-      <c r="AC28" s="37" t="str">
-        <f>IF(SUM(AC26:AC27)=0,"",SUM(AC26:AC27))</f>
-        <v/>
-      </c>
+      <c r="I28" s="89"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
     <mergeCell ref="N2:S2"/>
     <mergeCell ref="T2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
@@ -10016,6 +9827,15 @@
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="F2:F4"/>

--- a/My_Flying_Logbook.xlsx
+++ b/My_Flying_Logbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2017A007-5149-CC43-B9A5-F832AAF895A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958B2120-D542-2C49-B534-9178AAB82E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
   <sheets>
     <sheet name="Theorem Exam Pass Record" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="110">
   <si>
     <t>Month</t>
   </si>
@@ -406,6 +406,15 @@
   <si>
     <t>SPECIALIST / INSTRUCTOR</t>
   </si>
+  <si>
+    <t>DA40</t>
+  </si>
+  <si>
+    <t>VH-LZP</t>
+  </si>
+  <si>
+    <t>Training Area Familiarization</t>
+  </si>
 </sst>
 </file>
 
@@ -416,7 +425,7 @@
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1224,37 +1233,46 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1311,46 +1329,37 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1628,9 +1637,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" style="3" customWidth="1"/>
@@ -1639,8 +1648,8 @@
     <col min="5" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:4" ht="17" thickBot="1"/>
+    <row r="2" spans="2:4" ht="19" customHeight="1">
       <c r="B2" s="22" t="s">
         <v>75</v>
       </c>
@@ -1648,7 +1657,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="19" customHeight="1" thickBot="1">
       <c r="B3" s="23" t="s">
         <v>76</v>
       </c>
@@ -1656,8 +1665,8 @@
         <v>1127225</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:4" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="19" customHeight="1" thickBot="1"/>
+    <row r="5" spans="2:4" ht="19" customHeight="1" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>38</v>
       </c>
@@ -1668,7 +1677,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" ht="19" customHeight="1">
       <c r="B6" s="27">
         <v>44308</v>
       </c>
@@ -1679,7 +1688,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" ht="19" customHeight="1">
       <c r="B7" s="27">
         <v>44575</v>
       </c>
@@ -1690,72 +1699,72 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" ht="19" customHeight="1">
       <c r="B8" s="29"/>
       <c r="C8" s="13"/>
       <c r="D8" s="30"/>
     </row>
-    <row r="9" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" ht="19" customHeight="1">
       <c r="B9" s="29"/>
       <c r="C9" s="13"/>
       <c r="D9" s="30"/>
     </row>
-    <row r="10" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" ht="19" customHeight="1">
       <c r="B10" s="29"/>
       <c r="C10" s="13"/>
       <c r="D10" s="30"/>
     </row>
-    <row r="11" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" ht="19" customHeight="1">
       <c r="B11" s="29"/>
       <c r="C11" s="13"/>
       <c r="D11" s="30"/>
     </row>
-    <row r="12" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" ht="19" customHeight="1">
       <c r="B12" s="29"/>
       <c r="C12" s="13"/>
       <c r="D12" s="30"/>
     </row>
-    <row r="13" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" ht="19" customHeight="1">
       <c r="B13" s="29"/>
       <c r="C13" s="13"/>
       <c r="D13" s="30"/>
     </row>
-    <row r="14" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" ht="19" customHeight="1">
       <c r="B14" s="29"/>
       <c r="C14" s="13"/>
       <c r="D14" s="30"/>
     </row>
-    <row r="15" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" ht="19" customHeight="1">
       <c r="B15" s="29"/>
       <c r="C15" s="13"/>
       <c r="D15" s="30"/>
     </row>
-    <row r="16" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" ht="19" customHeight="1">
       <c r="B16" s="29"/>
       <c r="C16" s="13"/>
       <c r="D16" s="30"/>
     </row>
-    <row r="17" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" ht="19" customHeight="1">
       <c r="B17" s="29"/>
       <c r="C17" s="13"/>
       <c r="D17" s="30"/>
     </row>
-    <row r="18" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" ht="19" customHeight="1">
       <c r="B18" s="29"/>
       <c r="C18" s="13"/>
       <c r="D18" s="30"/>
     </row>
-    <row r="19" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" ht="19" customHeight="1">
       <c r="B19" s="29"/>
       <c r="C19" s="13"/>
       <c r="D19" s="30"/>
     </row>
-    <row r="20" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" ht="19" customHeight="1">
       <c r="B20" s="29"/>
       <c r="C20" s="13"/>
       <c r="D20" s="30"/>
     </row>
-    <row r="21" spans="2:4" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="19" customHeight="1" thickBot="1">
       <c r="B21" s="31"/>
       <c r="C21" s="14"/>
       <c r="D21" s="20"/>
@@ -1774,7 +1783,7 @@
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="112" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -1788,7 +1797,7 @@
     <col min="28" max="29" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="3"/>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -1819,105 +1828,105 @@
       <c r="AB1" s="47"/>
       <c r="AC1" s="47"/>
     </row>
-    <row r="2" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="21" customHeight="1">
       <c r="A2" s="47"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="57" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="59" t="s">
+      <c r="E2" s="86"/>
+      <c r="F2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="94"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="75" t="s">
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="78" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="78" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="79"/>
-    </row>
-    <row r="3" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC2" s="82"/>
+    </row>
+    <row r="3" spans="1:29" ht="21" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="70" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="71"/>
-      <c r="P3" s="72" t="s">
+      <c r="O3" s="74"/>
+      <c r="P3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="72" t="s">
+      <c r="Q3" s="74"/>
+      <c r="R3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="71"/>
-      <c r="T3" s="72" t="s">
+      <c r="S3" s="74"/>
+      <c r="T3" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="71"/>
-      <c r="V3" s="72" t="s">
+      <c r="U3" s="74"/>
+      <c r="V3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="71"/>
-      <c r="X3" s="72" t="s">
+      <c r="W3" s="74"/>
+      <c r="X3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="72" t="s">
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="80" t="s">
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="73" t="s">
+      <c r="AC3" s="76" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="21" customHeight="1" thickBot="1">
       <c r="A4" s="47"/>
       <c r="B4" s="23" t="s">
         <v>0</v>
@@ -1931,8 +1940,8 @@
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
       <c r="H4" s="19" t="s">
         <v>28</v>
       </c>
@@ -1987,10 +1996,10 @@
       <c r="AA4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="74"/>
-    </row>
-    <row r="5" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="77"/>
+    </row>
+    <row r="5" spans="1:29" ht="21" customHeight="1">
       <c r="A5" s="47"/>
       <c r="B5" s="32" t="s">
         <v>19</v>
@@ -2041,7 +2050,7 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="33"/>
     </row>
-    <row r="6" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="21" customHeight="1">
       <c r="A6" s="47"/>
       <c r="B6" s="29"/>
       <c r="C6" s="13">
@@ -2090,7 +2099,7 @@
       <c r="AB6" s="11"/>
       <c r="AC6" s="34"/>
     </row>
-    <row r="7" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="21" customHeight="1">
       <c r="A7" s="47"/>
       <c r="B7" s="29"/>
       <c r="C7" s="13">
@@ -2139,7 +2148,7 @@
       <c r="AB7" s="11"/>
       <c r="AC7" s="34"/>
     </row>
-    <row r="8" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="21" customHeight="1">
       <c r="A8" s="47"/>
       <c r="B8" s="29"/>
       <c r="C8" s="13">
@@ -2188,7 +2197,7 @@
       <c r="AB8" s="11"/>
       <c r="AC8" s="34"/>
     </row>
-    <row r="9" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="21" customHeight="1">
       <c r="A9" s="47"/>
       <c r="B9" s="29"/>
       <c r="C9" s="13">
@@ -2237,7 +2246,7 @@
       <c r="AB9" s="11"/>
       <c r="AC9" s="34"/>
     </row>
-    <row r="10" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="21" customHeight="1">
       <c r="A10" s="47"/>
       <c r="B10" s="29" t="s">
         <v>20</v>
@@ -2288,7 +2297,7 @@
       <c r="AB10" s="11"/>
       <c r="AC10" s="34"/>
     </row>
-    <row r="11" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="21" customHeight="1">
       <c r="A11" s="47"/>
       <c r="B11" s="29"/>
       <c r="C11" s="13">
@@ -2337,7 +2346,7 @@
       <c r="AB11" s="11"/>
       <c r="AC11" s="34"/>
     </row>
-    <row r="12" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="21" customHeight="1">
       <c r="A12" s="47"/>
       <c r="B12" s="29"/>
       <c r="C12" s="13">
@@ -2386,7 +2395,7 @@
       <c r="AB12" s="11"/>
       <c r="AC12" s="34"/>
     </row>
-    <row r="13" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="21" customHeight="1">
       <c r="A13" s="47"/>
       <c r="B13" s="29"/>
       <c r="C13" s="13">
@@ -2435,7 +2444,7 @@
       <c r="AB13" s="11"/>
       <c r="AC13" s="34"/>
     </row>
-    <row r="14" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="21" customHeight="1">
       <c r="A14" s="47"/>
       <c r="B14" s="29"/>
       <c r="C14" s="13">
@@ -2484,7 +2493,7 @@
       <c r="AB14" s="11"/>
       <c r="AC14" s="34"/>
     </row>
-    <row r="15" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="21" customHeight="1">
       <c r="A15" s="47"/>
       <c r="B15" s="29"/>
       <c r="C15" s="13">
@@ -2533,7 +2542,7 @@
       <c r="AB15" s="11"/>
       <c r="AC15" s="34"/>
     </row>
-    <row r="16" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="21" customHeight="1">
       <c r="A16" s="47"/>
       <c r="B16" s="29"/>
       <c r="C16" s="13">
@@ -2582,7 +2591,7 @@
       <c r="AB16" s="11"/>
       <c r="AC16" s="34"/>
     </row>
-    <row r="17" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="21" customHeight="1">
       <c r="A17" s="47"/>
       <c r="B17" s="29"/>
       <c r="C17" s="13">
@@ -2631,7 +2640,7 @@
       <c r="AB17" s="11"/>
       <c r="AC17" s="34"/>
     </row>
-    <row r="18" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="21" customHeight="1">
       <c r="A18" s="47"/>
       <c r="B18" s="29"/>
       <c r="C18" s="13">
@@ -2680,7 +2689,7 @@
       <c r="AB18" s="11"/>
       <c r="AC18" s="34"/>
     </row>
-    <row r="19" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="21" customHeight="1">
       <c r="A19" s="47"/>
       <c r="B19" s="29"/>
       <c r="C19" s="13">
@@ -2729,7 +2738,7 @@
       <c r="AB19" s="11"/>
       <c r="AC19" s="34"/>
     </row>
-    <row r="20" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="21" customHeight="1">
       <c r="A20" s="47"/>
       <c r="B20" s="29"/>
       <c r="C20" s="13">
@@ -2778,7 +2787,7 @@
       <c r="AB20" s="11"/>
       <c r="AC20" s="34"/>
     </row>
-    <row r="21" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="21" customHeight="1">
       <c r="A21" s="47"/>
       <c r="B21" s="29"/>
       <c r="C21" s="13">
@@ -2827,7 +2836,7 @@
       <c r="AB21" s="11"/>
       <c r="AC21" s="34"/>
     </row>
-    <row r="22" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="21" customHeight="1">
       <c r="A22" s="47"/>
       <c r="B22" s="29"/>
       <c r="C22" s="13">
@@ -2876,7 +2885,7 @@
       <c r="AB22" s="11"/>
       <c r="AC22" s="34"/>
     </row>
-    <row r="23" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="21" customHeight="1">
       <c r="A23" s="47"/>
       <c r="B23" s="29" t="s">
         <v>44</v>
@@ -2927,7 +2936,7 @@
       <c r="AB23" s="11"/>
       <c r="AC23" s="34"/>
     </row>
-    <row r="24" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="21" customHeight="1">
       <c r="A24" s="47"/>
       <c r="B24" s="35"/>
       <c r="C24" s="15">
@@ -2976,7 +2985,7 @@
       <c r="AB24" s="16"/>
       <c r="AC24" s="36"/>
     </row>
-    <row r="25" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="21" customHeight="1" thickBot="1">
       <c r="A25" s="47"/>
       <c r="B25" s="35"/>
       <c r="C25" s="15">
@@ -3025,24 +3034,24 @@
       <c r="AB25" s="12"/>
       <c r="AC25" s="37"/>
     </row>
-    <row r="26" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="21" customHeight="1">
       <c r="A26" s="47"/>
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="84"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="2">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H26" s="91" t="s">
+      <c r="H26" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="83"/>
-      <c r="J26" s="84"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
       <c r="K26" s="2" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -3120,24 +3129,24 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="21" customHeight="1">
       <c r="A27" s="47"/>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="87"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="11">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H27" s="92" t="s">
+      <c r="H27" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="93"/>
-      <c r="J27" s="94"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="34"/>
@@ -3158,24 +3167,24 @@
       <c r="AB27" s="11"/>
       <c r="AC27" s="34"/>
     </row>
-    <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1">
       <c r="A28" s="47"/>
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="12">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H28" s="95" t="s">
+      <c r="H28" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="89"/>
-      <c r="J28" s="90"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61"/>
       <c r="K28" s="12" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -3255,12 +3264,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
     <mergeCell ref="K2:M3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
@@ -3275,11 +3283,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -3295,7 +3304,7 @@
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="112" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -3309,7 +3318,7 @@
     <col min="28" max="29" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="47"/>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -3340,105 +3349,105 @@
       <c r="AB1" s="47"/>
       <c r="AC1" s="47"/>
     </row>
-    <row r="2" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="21" customHeight="1">
       <c r="A2" s="47"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="57" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="59" t="s">
+      <c r="E2" s="86"/>
+      <c r="F2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="94"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="75" t="s">
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="78" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="78" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="79"/>
-    </row>
-    <row r="3" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC2" s="82"/>
+    </row>
+    <row r="3" spans="1:29" ht="21" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="70" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="71"/>
-      <c r="P3" s="72" t="s">
+      <c r="O3" s="74"/>
+      <c r="P3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="72" t="s">
+      <c r="Q3" s="74"/>
+      <c r="R3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="71"/>
-      <c r="T3" s="72" t="s">
+      <c r="S3" s="74"/>
+      <c r="T3" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="71"/>
-      <c r="V3" s="72" t="s">
+      <c r="U3" s="74"/>
+      <c r="V3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="71"/>
-      <c r="X3" s="72" t="s">
+      <c r="W3" s="74"/>
+      <c r="X3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="72" t="s">
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="80" t="s">
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="73" t="s">
+      <c r="AC3" s="76" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="21" customHeight="1" thickBot="1">
       <c r="A4" s="47"/>
       <c r="B4" s="23" t="s">
         <v>0</v>
@@ -3452,8 +3461,8 @@
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
       <c r="H4" s="19" t="s">
         <v>28</v>
       </c>
@@ -3508,10 +3517,10 @@
       <c r="AA4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="74"/>
-    </row>
-    <row r="5" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="77"/>
+    </row>
+    <row r="5" spans="1:29" ht="21" customHeight="1">
       <c r="A5" s="47"/>
       <c r="B5" s="32" t="s">
         <v>44</v>
@@ -3562,7 +3571,7 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="33"/>
     </row>
-    <row r="6" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="21" customHeight="1">
       <c r="A6" s="47"/>
       <c r="B6" s="38"/>
       <c r="C6" s="8">
@@ -3611,7 +3620,7 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="39"/>
     </row>
-    <row r="7" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="21" customHeight="1">
       <c r="A7" s="47"/>
       <c r="B7" s="29" t="s">
         <v>51</v>
@@ -3662,7 +3671,7 @@
       <c r="AB7" s="11"/>
       <c r="AC7" s="34"/>
     </row>
-    <row r="8" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="21" customHeight="1">
       <c r="A8" s="47"/>
       <c r="B8" s="32"/>
       <c r="C8" s="1">
@@ -3711,7 +3720,7 @@
       <c r="AB8" s="2"/>
       <c r="AC8" s="33"/>
     </row>
-    <row r="9" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="21" customHeight="1">
       <c r="A9" s="47"/>
       <c r="B9" s="29"/>
       <c r="C9" s="13">
@@ -3760,7 +3769,7 @@
       <c r="AB9" s="11"/>
       <c r="AC9" s="34"/>
     </row>
-    <row r="10" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="21" customHeight="1">
       <c r="A10" s="47"/>
       <c r="B10" s="32" t="s">
         <v>53</v>
@@ -3811,7 +3820,7 @@
       <c r="AB10" s="2"/>
       <c r="AC10" s="33"/>
     </row>
-    <row r="11" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="21" customHeight="1">
       <c r="A11" s="47"/>
       <c r="B11" s="29"/>
       <c r="C11" s="13">
@@ -3860,7 +3869,7 @@
       <c r="AB11" s="11"/>
       <c r="AC11" s="34"/>
     </row>
-    <row r="12" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="21" customHeight="1">
       <c r="A12" s="47"/>
       <c r="B12" s="29" t="s">
         <v>63</v>
@@ -3911,7 +3920,7 @@
       <c r="AB12" s="11"/>
       <c r="AC12" s="34"/>
     </row>
-    <row r="13" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="21" customHeight="1" thickBot="1">
       <c r="A13" s="47"/>
       <c r="B13" s="31"/>
       <c r="C13" s="14">
@@ -3960,7 +3969,7 @@
       <c r="AB13" s="12"/>
       <c r="AC13" s="37"/>
     </row>
-    <row r="14" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="21" customHeight="1">
       <c r="A14" s="47"/>
       <c r="B14" s="29"/>
       <c r="C14" s="13"/>
@@ -3991,7 +4000,7 @@
       <c r="AB14" s="11"/>
       <c r="AC14" s="34"/>
     </row>
-    <row r="15" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="21" customHeight="1">
       <c r="A15" s="47"/>
       <c r="B15" s="29"/>
       <c r="C15" s="13"/>
@@ -4022,7 +4031,7 @@
       <c r="AB15" s="11"/>
       <c r="AC15" s="34"/>
     </row>
-    <row r="16" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="21" customHeight="1">
       <c r="A16" s="47"/>
       <c r="B16" s="29"/>
       <c r="C16" s="13"/>
@@ -4053,7 +4062,7 @@
       <c r="AB16" s="11"/>
       <c r="AC16" s="34"/>
     </row>
-    <row r="17" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="21" customHeight="1">
       <c r="A17" s="47"/>
       <c r="B17" s="29"/>
       <c r="C17" s="13"/>
@@ -4084,7 +4093,7 @@
       <c r="AB17" s="11"/>
       <c r="AC17" s="34"/>
     </row>
-    <row r="18" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="21" customHeight="1">
       <c r="A18" s="47"/>
       <c r="B18" s="29"/>
       <c r="C18" s="13"/>
@@ -4115,7 +4124,7 @@
       <c r="AB18" s="11"/>
       <c r="AC18" s="34"/>
     </row>
-    <row r="19" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="21" customHeight="1">
       <c r="A19" s="47"/>
       <c r="B19" s="29"/>
       <c r="C19" s="13"/>
@@ -4146,7 +4155,7 @@
       <c r="AB19" s="11"/>
       <c r="AC19" s="34"/>
     </row>
-    <row r="20" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="21" customHeight="1">
       <c r="A20" s="47"/>
       <c r="B20" s="29"/>
       <c r="C20" s="13"/>
@@ -4177,7 +4186,7 @@
       <c r="AB20" s="11"/>
       <c r="AC20" s="34"/>
     </row>
-    <row r="21" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="21" customHeight="1">
       <c r="A21" s="47"/>
       <c r="B21" s="29"/>
       <c r="C21" s="13"/>
@@ -4208,7 +4217,7 @@
       <c r="AB21" s="11"/>
       <c r="AC21" s="34"/>
     </row>
-    <row r="22" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="21" customHeight="1">
       <c r="A22" s="47"/>
       <c r="B22" s="29"/>
       <c r="C22" s="13"/>
@@ -4239,7 +4248,7 @@
       <c r="AB22" s="11"/>
       <c r="AC22" s="34"/>
     </row>
-    <row r="23" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="21" customHeight="1">
       <c r="A23" s="47"/>
       <c r="B23" s="29"/>
       <c r="C23" s="13"/>
@@ -4270,7 +4279,7 @@
       <c r="AB23" s="11"/>
       <c r="AC23" s="34"/>
     </row>
-    <row r="24" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="21" customHeight="1">
       <c r="A24" s="47"/>
       <c r="B24" s="35"/>
       <c r="C24" s="15"/>
@@ -4301,7 +4310,7 @@
       <c r="AB24" s="16"/>
       <c r="AC24" s="36"/>
     </row>
-    <row r="25" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="21" customHeight="1" thickBot="1">
       <c r="A25" s="47"/>
       <c r="B25" s="31"/>
       <c r="C25" s="14"/>
@@ -4332,24 +4341,24 @@
       <c r="AB25" s="12"/>
       <c r="AC25" s="37"/>
     </row>
-    <row r="26" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="21" customHeight="1">
       <c r="A26" s="47"/>
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="84"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="2">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="H26" s="91" t="s">
+      <c r="H26" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="83"/>
-      <c r="J26" s="84"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
       <c r="K26" s="2" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -4427,24 +4436,24 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="21" customHeight="1">
       <c r="A27" s="47"/>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="87"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="11">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H27" s="92" t="s">
+      <c r="H27" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="93"/>
-      <c r="J27" s="94"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
       <c r="K27" s="11" t="str">
         <f>'Page 01'!K28</f>
         <v/>
@@ -4522,24 +4531,24 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1">
       <c r="A28" s="47"/>
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="12">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H28" s="95" t="s">
+      <c r="H28" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="89"/>
-      <c r="J28" s="90"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61"/>
       <c r="K28" s="12" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -4619,15 +4628,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="Z3:AA3"/>
@@ -4644,6 +4644,15 @@
     <mergeCell ref="H2:J3"/>
     <mergeCell ref="K2:M3"/>
     <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -4659,7 +4668,7 @@
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="112" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -4673,7 +4682,7 @@
     <col min="28" max="29" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="3"/>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -4704,105 +4713,105 @@
       <c r="AB1" s="47"/>
       <c r="AC1" s="47"/>
     </row>
-    <row r="2" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="21" customHeight="1">
       <c r="A2" s="47"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="57" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="59" t="s">
+      <c r="E2" s="86"/>
+      <c r="F2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="94"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="75" t="s">
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="78" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="78" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="79"/>
-    </row>
-    <row r="3" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC2" s="82"/>
+    </row>
+    <row r="3" spans="1:29" ht="21" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="70" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="71"/>
-      <c r="P3" s="72" t="s">
+      <c r="O3" s="74"/>
+      <c r="P3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="72" t="s">
+      <c r="Q3" s="74"/>
+      <c r="R3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="71"/>
-      <c r="T3" s="72" t="s">
+      <c r="S3" s="74"/>
+      <c r="T3" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="71"/>
-      <c r="V3" s="72" t="s">
+      <c r="U3" s="74"/>
+      <c r="V3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="71"/>
-      <c r="X3" s="72" t="s">
+      <c r="W3" s="74"/>
+      <c r="X3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="72" t="s">
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="80" t="s">
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="73" t="s">
+      <c r="AC3" s="76" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="21" customHeight="1" thickBot="1">
       <c r="A4" s="47"/>
       <c r="B4" s="23" t="s">
         <v>0</v>
@@ -4816,8 +4825,8 @@
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
       <c r="H4" s="19" t="s">
         <v>28</v>
       </c>
@@ -4872,10 +4881,10 @@
       <c r="AA4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="74"/>
-    </row>
-    <row r="5" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="77"/>
+    </row>
+    <row r="5" spans="1:29" ht="21" customHeight="1">
       <c r="A5" s="47"/>
       <c r="B5" s="32" t="s">
         <v>66</v>
@@ -4926,7 +4935,7 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="33"/>
     </row>
-    <row r="6" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="21" customHeight="1">
       <c r="A6" s="47"/>
       <c r="B6" s="29"/>
       <c r="C6" s="13">
@@ -4975,7 +4984,7 @@
       <c r="AB6" s="11"/>
       <c r="AC6" s="34"/>
     </row>
-    <row r="7" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="21" customHeight="1">
       <c r="A7" s="47"/>
       <c r="B7" s="29"/>
       <c r="C7" s="13">
@@ -5024,7 +5033,7 @@
       <c r="AB7" s="11"/>
       <c r="AC7" s="34"/>
     </row>
-    <row r="8" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="21" customHeight="1">
       <c r="A8" s="47"/>
       <c r="B8" s="29"/>
       <c r="C8" s="13">
@@ -5075,7 +5084,7 @@
       </c>
       <c r="AC8" s="34"/>
     </row>
-    <row r="9" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="21" customHeight="1">
       <c r="A9" s="47"/>
       <c r="B9" s="29"/>
       <c r="C9" s="13">
@@ -5124,7 +5133,7 @@
       <c r="AB9" s="11"/>
       <c r="AC9" s="34"/>
     </row>
-    <row r="10" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="21" customHeight="1">
       <c r="A10" s="47"/>
       <c r="B10" s="29" t="s">
         <v>80</v>
@@ -5175,7 +5184,7 @@
       <c r="AB10" s="11"/>
       <c r="AC10" s="34"/>
     </row>
-    <row r="11" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="21" customHeight="1">
       <c r="A11" s="47"/>
       <c r="B11" s="29"/>
       <c r="C11" s="13">
@@ -5224,7 +5233,7 @@
       <c r="AB11" s="11"/>
       <c r="AC11" s="34"/>
     </row>
-    <row r="12" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="21" customHeight="1">
       <c r="A12" s="47"/>
       <c r="B12" s="29"/>
       <c r="C12" s="13">
@@ -5273,7 +5282,7 @@
       <c r="AB12" s="11"/>
       <c r="AC12" s="34"/>
     </row>
-    <row r="13" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="21" customHeight="1">
       <c r="A13" s="47"/>
       <c r="B13" s="29"/>
       <c r="C13" s="13">
@@ -5322,7 +5331,7 @@
       <c r="AB13" s="11"/>
       <c r="AC13" s="34"/>
     </row>
-    <row r="14" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="21" customHeight="1">
       <c r="A14" s="47"/>
       <c r="B14" s="29" t="s">
         <v>19</v>
@@ -5373,7 +5382,7 @@
       <c r="AB14" s="11"/>
       <c r="AC14" s="34"/>
     </row>
-    <row r="15" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="21" customHeight="1">
       <c r="A15" s="47"/>
       <c r="B15" s="29"/>
       <c r="C15" s="13">
@@ -5422,7 +5431,7 @@
       <c r="AB15" s="11"/>
       <c r="AC15" s="34"/>
     </row>
-    <row r="16" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="21" customHeight="1">
       <c r="A16" s="47"/>
       <c r="B16" s="29"/>
       <c r="C16" s="13">
@@ -5471,7 +5480,7 @@
       <c r="AB16" s="11"/>
       <c r="AC16" s="34"/>
     </row>
-    <row r="17" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="21" customHeight="1">
       <c r="A17" s="47"/>
       <c r="B17" s="29"/>
       <c r="C17" s="13">
@@ -5520,7 +5529,7 @@
       <c r="AB17" s="11"/>
       <c r="AC17" s="34"/>
     </row>
-    <row r="18" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="21" customHeight="1">
       <c r="A18" s="47"/>
       <c r="B18" s="29"/>
       <c r="C18" s="13">
@@ -5569,7 +5578,7 @@
       <c r="AB18" s="11"/>
       <c r="AC18" s="34"/>
     </row>
-    <row r="19" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="21" customHeight="1">
       <c r="A19" s="47"/>
       <c r="B19" s="29"/>
       <c r="C19" s="13">
@@ -5618,7 +5627,7 @@
       <c r="AB19" s="11"/>
       <c r="AC19" s="34"/>
     </row>
-    <row r="20" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="21" customHeight="1">
       <c r="A20" s="47"/>
       <c r="B20" s="29" t="s">
         <v>20</v>
@@ -5669,7 +5678,7 @@
       <c r="AB20" s="11"/>
       <c r="AC20" s="34"/>
     </row>
-    <row r="21" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="21" customHeight="1">
       <c r="A21" s="47"/>
       <c r="B21" s="29" t="s">
         <v>44</v>
@@ -5720,7 +5729,7 @@
       <c r="AB21" s="11"/>
       <c r="AC21" s="34"/>
     </row>
-    <row r="22" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="21" customHeight="1">
       <c r="A22" s="47"/>
       <c r="B22" s="29"/>
       <c r="C22" s="13">
@@ -5769,7 +5778,7 @@
       <c r="AB22" s="11"/>
       <c r="AC22" s="34"/>
     </row>
-    <row r="23" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="21" customHeight="1" thickBot="1">
       <c r="A23" s="47"/>
       <c r="B23" s="31"/>
       <c r="C23" s="14">
@@ -5818,7 +5827,7 @@
       <c r="AB23" s="12"/>
       <c r="AC23" s="37"/>
     </row>
-    <row r="24" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="21" customHeight="1">
       <c r="A24" s="47"/>
       <c r="B24" s="32"/>
       <c r="C24" s="1"/>
@@ -5849,7 +5858,7 @@
       <c r="AB24" s="2"/>
       <c r="AC24" s="33"/>
     </row>
-    <row r="25" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="21" customHeight="1" thickBot="1">
       <c r="A25" s="47"/>
       <c r="B25" s="31"/>
       <c r="C25" s="14"/>
@@ -5880,24 +5889,24 @@
       <c r="AB25" s="12"/>
       <c r="AC25" s="37"/>
     </row>
-    <row r="26" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="21" customHeight="1">
       <c r="A26" s="47"/>
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="84"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="2">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>16.800000000000004</v>
       </c>
-      <c r="H26" s="91" t="s">
+      <c r="H26" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="83"/>
-      <c r="J26" s="84"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
       <c r="K26" s="2" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -5975,24 +5984,24 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="21" customHeight="1">
       <c r="A27" s="47"/>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="87"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="11">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>47.1</v>
       </c>
-      <c r="H27" s="92" t="s">
+      <c r="H27" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="93"/>
-      <c r="J27" s="94"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
       <c r="K27" s="11" t="str">
         <f>'Page 02'!K28</f>
         <v/>
@@ -6070,24 +6079,24 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1">
       <c r="A28" s="47"/>
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="12">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>47.1</v>
       </c>
-      <c r="H28" s="95" t="s">
+      <c r="H28" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="89"/>
-      <c r="J28" s="90"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61"/>
       <c r="K28" s="12" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -6167,15 +6176,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="Z3:AA3"/>
@@ -6192,6 +6192,15 @@
     <mergeCell ref="H2:J3"/>
     <mergeCell ref="K2:M3"/>
     <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -6205,9 +6214,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE447E2A-706F-BB48-B64D-34B46D089E61}">
   <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="112" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="112" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -6221,7 +6230,7 @@
     <col min="28" max="29" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="3"/>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -6252,105 +6261,105 @@
       <c r="AB1" s="47"/>
       <c r="AC1" s="47"/>
     </row>
-    <row r="2" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="21" customHeight="1">
       <c r="A2" s="47"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="57" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="59" t="s">
+      <c r="E2" s="86"/>
+      <c r="F2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="94"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="75" t="s">
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="78" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="78" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="79"/>
-    </row>
-    <row r="3" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC2" s="82"/>
+    </row>
+    <row r="3" spans="1:29" ht="21" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="70" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="71"/>
-      <c r="P3" s="72" t="s">
+      <c r="O3" s="74"/>
+      <c r="P3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="72" t="s">
+      <c r="Q3" s="74"/>
+      <c r="R3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="71"/>
-      <c r="T3" s="72" t="s">
+      <c r="S3" s="74"/>
+      <c r="T3" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="71"/>
-      <c r="V3" s="72" t="s">
+      <c r="U3" s="74"/>
+      <c r="V3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="71"/>
-      <c r="X3" s="72" t="s">
+      <c r="W3" s="74"/>
+      <c r="X3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="72" t="s">
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="80" t="s">
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="73" t="s">
+      <c r="AC3" s="76" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="21" customHeight="1" thickBot="1">
       <c r="A4" s="47"/>
       <c r="B4" s="23" t="s">
         <v>0</v>
@@ -6364,8 +6373,8 @@
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
       <c r="H4" s="19" t="s">
         <v>28</v>
       </c>
@@ -6420,10 +6429,10 @@
       <c r="AA4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="74"/>
-    </row>
-    <row r="5" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="77"/>
+    </row>
+    <row r="5" spans="1:29" ht="21" customHeight="1">
       <c r="A5" s="47"/>
       <c r="B5" s="32" t="s">
         <v>44</v>
@@ -6474,7 +6483,7 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="33"/>
     </row>
-    <row r="6" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="21" customHeight="1">
       <c r="A6" s="47"/>
       <c r="B6" s="29" t="s">
         <v>51</v>
@@ -6525,7 +6534,7 @@
       <c r="AB6" s="11"/>
       <c r="AC6" s="34"/>
     </row>
-    <row r="7" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="21" customHeight="1">
       <c r="A7" s="47"/>
       <c r="B7" s="29"/>
       <c r="C7" s="13">
@@ -6574,7 +6583,7 @@
       <c r="AB7" s="11"/>
       <c r="AC7" s="34"/>
     </row>
-    <row r="8" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="21" customHeight="1">
       <c r="A8" s="47"/>
       <c r="B8" s="29"/>
       <c r="C8" s="13">
@@ -6623,7 +6632,7 @@
       <c r="AB8" s="11"/>
       <c r="AC8" s="34"/>
     </row>
-    <row r="9" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="21" customHeight="1">
       <c r="A9" s="47"/>
       <c r="B9" s="29"/>
       <c r="C9" s="13">
@@ -6672,7 +6681,7 @@
       <c r="AB9" s="11"/>
       <c r="AC9" s="34"/>
     </row>
-    <row r="10" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="21" customHeight="1">
       <c r="A10" s="47"/>
       <c r="B10" s="29" t="s">
         <v>53</v>
@@ -6723,7 +6732,7 @@
       <c r="AB10" s="11"/>
       <c r="AC10" s="34"/>
     </row>
-    <row r="11" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="21" customHeight="1">
       <c r="A11" s="47"/>
       <c r="B11" s="29"/>
       <c r="C11" s="13">
@@ -6772,7 +6781,7 @@
       <c r="AB11" s="11"/>
       <c r="AC11" s="34"/>
     </row>
-    <row r="12" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="21" customHeight="1">
       <c r="A12" s="47"/>
       <c r="B12" s="29" t="s">
         <v>94</v>
@@ -6825,7 +6834,7 @@
       </c>
       <c r="AC12" s="34"/>
     </row>
-    <row r="13" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="21" customHeight="1">
       <c r="A13" s="47"/>
       <c r="B13" s="29"/>
       <c r="C13" s="13">
@@ -6874,7 +6883,7 @@
       <c r="AB13" s="11"/>
       <c r="AC13" s="34"/>
     </row>
-    <row r="14" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="21" customHeight="1">
       <c r="A14" s="47"/>
       <c r="B14" s="29"/>
       <c r="C14" s="13">
@@ -6923,7 +6932,7 @@
       <c r="AB14" s="11"/>
       <c r="AC14" s="34"/>
     </row>
-    <row r="15" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="21" customHeight="1">
       <c r="A15" s="47"/>
       <c r="B15" s="29"/>
       <c r="C15" s="13">
@@ -6972,7 +6981,7 @@
       <c r="AB15" s="11"/>
       <c r="AC15" s="34"/>
     </row>
-    <row r="16" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="21" customHeight="1">
       <c r="A16" s="47"/>
       <c r="B16" s="29" t="s">
         <v>103</v>
@@ -7023,7 +7032,7 @@
       <c r="AB16" s="11"/>
       <c r="AC16" s="34"/>
     </row>
-    <row r="17" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="21" customHeight="1">
       <c r="A17" s="47"/>
       <c r="B17" s="29" t="s">
         <v>105</v>
@@ -7074,7 +7083,1221 @@
       <c r="AB17" s="11"/>
       <c r="AC17" s="34"/>
     </row>
-    <row r="18" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="21" customHeight="1">
+      <c r="A18" s="47"/>
+      <c r="B18" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="13">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="34"/>
+    </row>
+    <row r="19" spans="1:29" ht="21" customHeight="1">
+      <c r="A19" s="47"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="34"/>
+    </row>
+    <row r="20" spans="1:29" ht="21" customHeight="1">
+      <c r="A20" s="47"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="34"/>
+    </row>
+    <row r="21" spans="1:29" ht="21" customHeight="1">
+      <c r="A21" s="47"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="34"/>
+    </row>
+    <row r="22" spans="1:29" ht="21" customHeight="1">
+      <c r="A22" s="47"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="34"/>
+    </row>
+    <row r="23" spans="1:29" ht="21" customHeight="1">
+      <c r="A23" s="47"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="34"/>
+    </row>
+    <row r="24" spans="1:29" ht="21" customHeight="1">
+      <c r="A24" s="47"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="33"/>
+    </row>
+    <row r="25" spans="1:29" ht="21" customHeight="1" thickBot="1">
+      <c r="A25" s="47"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="37"/>
+    </row>
+    <row r="26" spans="1:29" ht="21" customHeight="1">
+      <c r="A26" s="47"/>
+      <c r="B26" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="2">
+        <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
+        <v>15.7</v>
+      </c>
+      <c r="H26" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="2" t="str">
+        <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
+        <v/>
+      </c>
+      <c r="L26" s="2" t="str">
+        <f t="shared" ref="L26:M26" si="0">IF(SUM(L5:L25)=0,"",SUM(L5:L25))</f>
+        <v/>
+      </c>
+      <c r="M26" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N26" s="43" t="str">
+        <f>IF(SUM(N5:N25)=0,"",SUM(N5:N25))</f>
+        <v/>
+      </c>
+      <c r="O26" s="6" t="str">
+        <f>IF(SUM(O5:O25)=0,"",SUM(O5:O25))</f>
+        <v/>
+      </c>
+      <c r="P26" s="2">
+        <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
+        <v>9.1</v>
+      </c>
+      <c r="Q26" s="6" t="str">
+        <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
+        <v/>
+      </c>
+      <c r="R26" s="2">
+        <f>IF(SUM(R5:R25)=0,"",SUM(R5:R25))</f>
+        <v>6.6</v>
+      </c>
+      <c r="S26" s="6" t="str">
+        <f t="shared" ref="S26:AC26" si="1">IF(SUM(S5:S25)=0,"",SUM(S5:S25))</f>
+        <v/>
+      </c>
+      <c r="T26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AB26" s="2">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="AC26" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="21" customHeight="1">
+      <c r="A27" s="47"/>
+      <c r="B27" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="11">
+        <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
+        <v>62.8</v>
+      </c>
+      <c r="H27" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="11" t="str">
+        <f>'Page 03'!K28</f>
+        <v/>
+      </c>
+      <c r="L27" s="11" t="str">
+        <f>'Page 03'!L28</f>
+        <v/>
+      </c>
+      <c r="M27" s="34" t="str">
+        <f>'Page 03'!M28</f>
+        <v/>
+      </c>
+      <c r="N27" s="44" t="str">
+        <f>'Page 03'!N28</f>
+        <v/>
+      </c>
+      <c r="O27" s="6" t="str">
+        <f>'Page 03'!O28</f>
+        <v/>
+      </c>
+      <c r="P27" s="11">
+        <f>'Page 03'!P28</f>
+        <v>44.9</v>
+      </c>
+      <c r="Q27" s="6" t="str">
+        <f>'Page 03'!Q28</f>
+        <v/>
+      </c>
+      <c r="R27" s="11">
+        <f>'Page 03'!R28</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S27" s="6" t="str">
+        <f>'Page 03'!S28</f>
+        <v/>
+      </c>
+      <c r="T27" s="11" t="str">
+        <f>'Page 03'!T28</f>
+        <v/>
+      </c>
+      <c r="U27" s="6" t="str">
+        <f>'Page 03'!U28</f>
+        <v/>
+      </c>
+      <c r="V27" s="11" t="str">
+        <f>'Page 03'!V28</f>
+        <v/>
+      </c>
+      <c r="W27" s="6" t="str">
+        <f>'Page 03'!W28</f>
+        <v/>
+      </c>
+      <c r="X27" s="11" t="str">
+        <f>'Page 03'!X28</f>
+        <v/>
+      </c>
+      <c r="Y27" s="6" t="str">
+        <f>'Page 03'!Y28</f>
+        <v/>
+      </c>
+      <c r="Z27" s="11" t="str">
+        <f>'Page 03'!Z28</f>
+        <v/>
+      </c>
+      <c r="AA27" s="6" t="str">
+        <f>'Page 03'!AA28</f>
+        <v/>
+      </c>
+      <c r="AB27" s="11">
+        <f>'Page 03'!AB28</f>
+        <v>0.6</v>
+      </c>
+      <c r="AC27" s="34" t="str">
+        <f>'Page 03'!AC28</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1">
+      <c r="A28" s="47"/>
+      <c r="B28" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="12">
+        <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
+        <v>62.8</v>
+      </c>
+      <c r="H28" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="12" t="str">
+        <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
+        <v/>
+      </c>
+      <c r="L28" s="12" t="str">
+        <f t="shared" ref="L28:N28" si="2">IF(SUM(L26:L27)=0,"",SUM(L26:L27))</f>
+        <v/>
+      </c>
+      <c r="M28" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N28" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O28" s="7" t="str">
+        <f>IF(SUM(O26:O27)=0,"",SUM(O26:O27))</f>
+        <v/>
+      </c>
+      <c r="P28" s="12">
+        <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
+        <v>54</v>
+      </c>
+      <c r="Q28" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R28" s="12">
+        <f t="shared" si="3"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S28" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T28" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U28" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V28" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="W28" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="X28" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y28" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z28" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA28" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AB28" s="12">
+        <f>IF(SUM(AB26:AB27)=0,"",SUM(AB26:AB27))</f>
+        <v>0.8</v>
+      </c>
+      <c r="AC28" s="37" t="str">
+        <f>IF(SUM(AC26:AC27)=0,"",SUM(AC26:AC27))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K2:M3"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="13" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DDE827-920C-154F-809E-0229729C3F27}">
+  <dimension ref="A1:AC28"/>
+  <sheetViews>
+    <sheetView zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="112" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" customWidth="1"/>
+    <col min="9" max="10" width="7.42578125" customWidth="1"/>
+    <col min="11" max="13" width="6.85546875" customWidth="1"/>
+    <col min="14" max="27" width="7.42578125" customWidth="1"/>
+    <col min="28" max="29" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="17" thickBot="1">
+      <c r="A1" s="3"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+    </row>
+    <row r="2" spans="1:29" ht="21" customHeight="1">
+      <c r="A2" s="47"/>
+      <c r="B2" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="86"/>
+      <c r="F2" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="94"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC2" s="82"/>
+    </row>
+    <row r="3" spans="1:29" ht="21" customHeight="1">
+      <c r="A3" s="47"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="74"/>
+      <c r="P3" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="74"/>
+      <c r="T3" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="74"/>
+      <c r="V3" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" s="74"/>
+      <c r="X3" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC3" s="76" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="21" customHeight="1" thickBot="1">
+      <c r="A4" s="47"/>
+      <c r="B4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="77"/>
+    </row>
+    <row r="5" spans="1:29" ht="21" customHeight="1">
+      <c r="A5" s="47"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="33"/>
+    </row>
+    <row r="6" spans="1:29" ht="21" customHeight="1">
+      <c r="A6" s="47"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="34"/>
+    </row>
+    <row r="7" spans="1:29" ht="21" customHeight="1">
+      <c r="A7" s="47"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="34"/>
+    </row>
+    <row r="8" spans="1:29" ht="21" customHeight="1">
+      <c r="A8" s="47"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="34"/>
+    </row>
+    <row r="9" spans="1:29" ht="21" customHeight="1">
+      <c r="A9" s="47"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="34"/>
+    </row>
+    <row r="10" spans="1:29" ht="21" customHeight="1">
+      <c r="A10" s="47"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="34"/>
+    </row>
+    <row r="11" spans="1:29" ht="21" customHeight="1">
+      <c r="A11" s="47"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="34"/>
+    </row>
+    <row r="12" spans="1:29" ht="21" customHeight="1">
+      <c r="A12" s="47"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="34"/>
+    </row>
+    <row r="13" spans="1:29" ht="21" customHeight="1">
+      <c r="A13" s="47"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="34"/>
+    </row>
+    <row r="14" spans="1:29" ht="21" customHeight="1">
+      <c r="A14" s="47"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="34"/>
+    </row>
+    <row r="15" spans="1:29" ht="21" customHeight="1">
+      <c r="A15" s="47"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="34"/>
+    </row>
+    <row r="16" spans="1:29" ht="21" customHeight="1">
+      <c r="A16" s="47"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="34"/>
+    </row>
+    <row r="17" spans="1:29" ht="21" customHeight="1">
+      <c r="A17" s="47"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="34"/>
+    </row>
+    <row r="18" spans="1:29" ht="21" customHeight="1">
       <c r="A18" s="47"/>
       <c r="B18" s="29"/>
       <c r="C18" s="13"/>
@@ -7105,7 +8328,7 @@
       <c r="AB18" s="11"/>
       <c r="AC18" s="34"/>
     </row>
-    <row r="19" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="21" customHeight="1">
       <c r="A19" s="47"/>
       <c r="B19" s="29"/>
       <c r="C19" s="13"/>
@@ -7136,7 +8359,7 @@
       <c r="AB19" s="11"/>
       <c r="AC19" s="34"/>
     </row>
-    <row r="20" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="21" customHeight="1">
       <c r="A20" s="47"/>
       <c r="B20" s="29"/>
       <c r="C20" s="13"/>
@@ -7167,7 +8390,7 @@
       <c r="AB20" s="11"/>
       <c r="AC20" s="34"/>
     </row>
-    <row r="21" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="21" customHeight="1">
       <c r="A21" s="47"/>
       <c r="B21" s="29"/>
       <c r="C21" s="13"/>
@@ -7198,7 +8421,7 @@
       <c r="AB21" s="11"/>
       <c r="AC21" s="34"/>
     </row>
-    <row r="22" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="21" customHeight="1">
       <c r="A22" s="47"/>
       <c r="B22" s="29"/>
       <c r="C22" s="13"/>
@@ -7229,7 +8452,7 @@
       <c r="AB22" s="11"/>
       <c r="AC22" s="34"/>
     </row>
-    <row r="23" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="21" customHeight="1">
       <c r="A23" s="47"/>
       <c r="B23" s="35"/>
       <c r="C23" s="13"/>
@@ -7260,7 +8483,7 @@
       <c r="AB23" s="11"/>
       <c r="AC23" s="34"/>
     </row>
-    <row r="24" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="21" customHeight="1">
       <c r="A24" s="47"/>
       <c r="B24" s="29"/>
       <c r="C24" s="1"/>
@@ -7291,7 +8514,7 @@
       <c r="AB24" s="2"/>
       <c r="AC24" s="33"/>
     </row>
-    <row r="25" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="21" customHeight="1" thickBot="1">
       <c r="A25" s="47"/>
       <c r="B25" s="31"/>
       <c r="C25" s="14"/>
@@ -7322,24 +8545,24 @@
       <c r="AB25" s="12"/>
       <c r="AC25" s="37"/>
     </row>
-    <row r="26" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="21" customHeight="1">
       <c r="A26" s="47"/>
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="2">
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="2" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v>14.599999999999998</v>
-      </c>
-      <c r="H26" s="91" t="s">
+        <v/>
+      </c>
+      <c r="H26" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="83"/>
-      <c r="J26" s="84"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
       <c r="K26" s="2" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -7360,17 +8583,17 @@
         <f>IF(SUM(O5:O25)=0,"",SUM(O5:O25))</f>
         <v/>
       </c>
-      <c r="P26" s="2">
+      <c r="P26" s="2" t="str">
         <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
-        <v>7.9999999999999991</v>
+        <v/>
       </c>
       <c r="Q26" s="6" t="str">
         <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
         <v/>
       </c>
-      <c r="R26" s="2">
+      <c r="R26" s="2" t="str">
         <f>IF(SUM(R5:R25)=0,"",SUM(R5:R25))</f>
-        <v>6.6</v>
+        <v/>
       </c>
       <c r="S26" s="6" t="str">
         <f t="shared" ref="S26:AC26" si="1">IF(SUM(S5:S25)=0,"",SUM(S5:S25))</f>
@@ -7408,128 +8631,128 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AB26" s="2">
+      <c r="AB26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v/>
       </c>
       <c r="AC26" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="21" customHeight="1">
       <c r="A27" s="47"/>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="87"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="11">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>61.7</v>
-      </c>
-      <c r="H27" s="92" t="s">
+        <v>62.8</v>
+      </c>
+      <c r="H27" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="93"/>
-      <c r="J27" s="94"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
       <c r="K27" s="11" t="str">
-        <f>'Page 03'!K28</f>
+        <f>'Page 04'!K28</f>
         <v/>
       </c>
       <c r="L27" s="11" t="str">
-        <f>'Page 03'!L28</f>
+        <f>'Page 04'!L28</f>
         <v/>
       </c>
       <c r="M27" s="34" t="str">
-        <f>'Page 03'!M28</f>
+        <f>'Page 04'!M28</f>
         <v/>
       </c>
       <c r="N27" s="44" t="str">
-        <f>'Page 03'!N28</f>
+        <f>'Page 04'!N28</f>
         <v/>
       </c>
       <c r="O27" s="6" t="str">
-        <f>'Page 03'!O28</f>
+        <f>'Page 04'!O28</f>
         <v/>
       </c>
       <c r="P27" s="11">
-        <f>'Page 03'!P28</f>
-        <v>44.9</v>
+        <f>'Page 04'!P28</f>
+        <v>54</v>
       </c>
       <c r="Q27" s="6" t="str">
-        <f>'Page 03'!Q28</f>
+        <f>'Page 04'!Q28</f>
         <v/>
       </c>
       <c r="R27" s="11">
-        <f>'Page 03'!R28</f>
-        <v>2.2000000000000002</v>
+        <f>'Page 04'!R28</f>
+        <v>8.8000000000000007</v>
       </c>
       <c r="S27" s="6" t="str">
-        <f>'Page 03'!S28</f>
+        <f>'Page 04'!S28</f>
         <v/>
       </c>
       <c r="T27" s="11" t="str">
-        <f>'Page 03'!T28</f>
+        <f>'Page 04'!T28</f>
         <v/>
       </c>
       <c r="U27" s="6" t="str">
-        <f>'Page 03'!U28</f>
+        <f>'Page 04'!U28</f>
         <v/>
       </c>
       <c r="V27" s="11" t="str">
-        <f>'Page 03'!V28</f>
+        <f>'Page 04'!V28</f>
         <v/>
       </c>
       <c r="W27" s="6" t="str">
-        <f>'Page 03'!W28</f>
+        <f>'Page 04'!W28</f>
         <v/>
       </c>
       <c r="X27" s="11" t="str">
-        <f>'Page 03'!X28</f>
+        <f>'Page 04'!X28</f>
         <v/>
       </c>
       <c r="Y27" s="6" t="str">
-        <f>'Page 03'!Y28</f>
+        <f>'Page 04'!Y28</f>
         <v/>
       </c>
       <c r="Z27" s="11" t="str">
-        <f>'Page 03'!Z28</f>
+        <f>'Page 04'!Z28</f>
         <v/>
       </c>
       <c r="AA27" s="6" t="str">
-        <f>'Page 03'!AA28</f>
+        <f>'Page 04'!AA28</f>
         <v/>
       </c>
       <c r="AB27" s="11">
-        <f>'Page 03'!AB28</f>
-        <v>0.6</v>
+        <f>'Page 04'!AB28</f>
+        <v>0.8</v>
       </c>
       <c r="AC27" s="34" t="str">
-        <f>'Page 03'!AC28</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <f>'Page 04'!AC28</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1">
       <c r="A28" s="47"/>
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="12">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>61.7</v>
-      </c>
-      <c r="H28" s="95" t="s">
+        <v>62.8</v>
+      </c>
+      <c r="H28" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="89"/>
-      <c r="J28" s="90"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61"/>
       <c r="K28" s="12" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -7552,7 +8775,7 @@
       </c>
       <c r="P28" s="12">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>52.9</v>
+        <v>54</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -7609,15 +8832,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="Z3:AA3"/>
@@ -7634,6 +8848,15 @@
     <mergeCell ref="H2:J3"/>
     <mergeCell ref="K2:M3"/>
     <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -7643,13 +8866,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DDE827-920C-154F-809E-0229729C3F27}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF253D2-11BB-AA45-933E-438A541CE8B0}">
   <dimension ref="A1:AC28"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="112" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -7663,7 +8886,7 @@
     <col min="28" max="29" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="3"/>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -7694,105 +8917,105 @@
       <c r="AB1" s="47"/>
       <c r="AC1" s="47"/>
     </row>
-    <row r="2" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="21" customHeight="1">
       <c r="A2" s="47"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="57" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="59" t="s">
+      <c r="E2" s="86"/>
+      <c r="F2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="94"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="75" t="s">
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="78" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="78" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="79"/>
-    </row>
-    <row r="3" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC2" s="82"/>
+    </row>
+    <row r="3" spans="1:29" ht="21" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="70" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="71"/>
-      <c r="P3" s="72" t="s">
+      <c r="O3" s="74"/>
+      <c r="P3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="72" t="s">
+      <c r="Q3" s="74"/>
+      <c r="R3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="71"/>
-      <c r="T3" s="72" t="s">
+      <c r="S3" s="74"/>
+      <c r="T3" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="71"/>
-      <c r="V3" s="72" t="s">
+      <c r="U3" s="74"/>
+      <c r="V3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="71"/>
-      <c r="X3" s="72" t="s">
+      <c r="W3" s="74"/>
+      <c r="X3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="72" t="s">
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="80" t="s">
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="73" t="s">
+      <c r="AC3" s="76" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="21" customHeight="1" thickBot="1">
       <c r="A4" s="47"/>
       <c r="B4" s="23" t="s">
         <v>0</v>
@@ -7806,8 +9029,8 @@
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
       <c r="H4" s="19" t="s">
         <v>28</v>
       </c>
@@ -7862,10 +9085,10 @@
       <c r="AA4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="74"/>
-    </row>
-    <row r="5" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="77"/>
+    </row>
+    <row r="5" spans="1:29" ht="21" customHeight="1">
       <c r="A5" s="47"/>
       <c r="B5" s="32"/>
       <c r="C5" s="1"/>
@@ -7896,7 +9119,7 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="33"/>
     </row>
-    <row r="6" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="21" customHeight="1">
       <c r="A6" s="47"/>
       <c r="B6" s="29"/>
       <c r="C6" s="13"/>
@@ -7927,7 +9150,7 @@
       <c r="AB6" s="11"/>
       <c r="AC6" s="34"/>
     </row>
-    <row r="7" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="21" customHeight="1">
       <c r="A7" s="47"/>
       <c r="B7" s="29"/>
       <c r="C7" s="13"/>
@@ -7958,7 +9181,7 @@
       <c r="AB7" s="11"/>
       <c r="AC7" s="34"/>
     </row>
-    <row r="8" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="21" customHeight="1">
       <c r="A8" s="47"/>
       <c r="B8" s="29"/>
       <c r="C8" s="13"/>
@@ -7989,7 +9212,7 @@
       <c r="AB8" s="11"/>
       <c r="AC8" s="34"/>
     </row>
-    <row r="9" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="21" customHeight="1">
       <c r="A9" s="47"/>
       <c r="B9" s="29"/>
       <c r="C9" s="13"/>
@@ -8020,7 +9243,7 @@
       <c r="AB9" s="11"/>
       <c r="AC9" s="34"/>
     </row>
-    <row r="10" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="21" customHeight="1">
       <c r="A10" s="47"/>
       <c r="B10" s="29"/>
       <c r="C10" s="13"/>
@@ -8051,7 +9274,7 @@
       <c r="AB10" s="11"/>
       <c r="AC10" s="34"/>
     </row>
-    <row r="11" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="21" customHeight="1">
       <c r="A11" s="47"/>
       <c r="B11" s="29"/>
       <c r="C11" s="13"/>
@@ -8082,7 +9305,7 @@
       <c r="AB11" s="11"/>
       <c r="AC11" s="34"/>
     </row>
-    <row r="12" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="21" customHeight="1">
       <c r="A12" s="47"/>
       <c r="B12" s="29"/>
       <c r="C12" s="13"/>
@@ -8113,7 +9336,7 @@
       <c r="AB12" s="11"/>
       <c r="AC12" s="34"/>
     </row>
-    <row r="13" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="21" customHeight="1">
       <c r="A13" s="47"/>
       <c r="B13" s="29"/>
       <c r="C13" s="13"/>
@@ -8144,7 +9367,7 @@
       <c r="AB13" s="11"/>
       <c r="AC13" s="34"/>
     </row>
-    <row r="14" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="21" customHeight="1">
       <c r="A14" s="47"/>
       <c r="B14" s="29"/>
       <c r="C14" s="13"/>
@@ -8175,7 +9398,7 @@
       <c r="AB14" s="11"/>
       <c r="AC14" s="34"/>
     </row>
-    <row r="15" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="21" customHeight="1">
       <c r="A15" s="47"/>
       <c r="B15" s="29"/>
       <c r="C15" s="13"/>
@@ -8206,7 +9429,7 @@
       <c r="AB15" s="11"/>
       <c r="AC15" s="34"/>
     </row>
-    <row r="16" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="21" customHeight="1">
       <c r="A16" s="47"/>
       <c r="B16" s="29"/>
       <c r="C16" s="13"/>
@@ -8237,7 +9460,7 @@
       <c r="AB16" s="11"/>
       <c r="AC16" s="34"/>
     </row>
-    <row r="17" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="21" customHeight="1">
       <c r="A17" s="47"/>
       <c r="B17" s="29"/>
       <c r="C17" s="13"/>
@@ -8268,7 +9491,7 @@
       <c r="AB17" s="11"/>
       <c r="AC17" s="34"/>
     </row>
-    <row r="18" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="21" customHeight="1">
       <c r="A18" s="47"/>
       <c r="B18" s="29"/>
       <c r="C18" s="13"/>
@@ -8299,7 +9522,7 @@
       <c r="AB18" s="11"/>
       <c r="AC18" s="34"/>
     </row>
-    <row r="19" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="21" customHeight="1">
       <c r="A19" s="47"/>
       <c r="B19" s="29"/>
       <c r="C19" s="13"/>
@@ -8330,7 +9553,7 @@
       <c r="AB19" s="11"/>
       <c r="AC19" s="34"/>
     </row>
-    <row r="20" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="21" customHeight="1">
       <c r="A20" s="47"/>
       <c r="B20" s="29"/>
       <c r="C20" s="13"/>
@@ -8361,7 +9584,7 @@
       <c r="AB20" s="11"/>
       <c r="AC20" s="34"/>
     </row>
-    <row r="21" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="21" customHeight="1">
       <c r="A21" s="47"/>
       <c r="B21" s="29"/>
       <c r="C21" s="13"/>
@@ -8392,7 +9615,7 @@
       <c r="AB21" s="11"/>
       <c r="AC21" s="34"/>
     </row>
-    <row r="22" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="21" customHeight="1">
       <c r="A22" s="47"/>
       <c r="B22" s="29"/>
       <c r="C22" s="13"/>
@@ -8423,7 +9646,7 @@
       <c r="AB22" s="11"/>
       <c r="AC22" s="34"/>
     </row>
-    <row r="23" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="21" customHeight="1">
       <c r="A23" s="47"/>
       <c r="B23" s="35"/>
       <c r="C23" s="13"/>
@@ -8454,7 +9677,7 @@
       <c r="AB23" s="11"/>
       <c r="AC23" s="34"/>
     </row>
-    <row r="24" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="21" customHeight="1">
       <c r="A24" s="47"/>
       <c r="B24" s="29"/>
       <c r="C24" s="1"/>
@@ -8485,7 +9708,7 @@
       <c r="AB24" s="2"/>
       <c r="AC24" s="33"/>
     </row>
-    <row r="25" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="21" customHeight="1" thickBot="1">
       <c r="A25" s="47"/>
       <c r="B25" s="31"/>
       <c r="C25" s="14"/>
@@ -8516,1215 +9739,21 @@
       <c r="AB25" s="12"/>
       <c r="AC25" s="37"/>
     </row>
-    <row r="26" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="21" customHeight="1">
       <c r="A26" s="47"/>
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="2" t="str">
-        <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v/>
-      </c>
-      <c r="H26" s="91" t="s">
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="83"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="2" t="str">
-        <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
-        <v/>
-      </c>
-      <c r="L26" s="2" t="str">
-        <f t="shared" ref="L26:M26" si="0">IF(SUM(L5:L25)=0,"",SUM(L5:L25))</f>
-        <v/>
-      </c>
-      <c r="M26" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N26" s="43" t="str">
-        <f>IF(SUM(N5:N25)=0,"",SUM(N5:N25))</f>
-        <v/>
-      </c>
-      <c r="O26" s="6" t="str">
-        <f>IF(SUM(O5:O25)=0,"",SUM(O5:O25))</f>
-        <v/>
-      </c>
-      <c r="P26" s="2" t="str">
-        <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
-        <v/>
-      </c>
-      <c r="Q26" s="6" t="str">
-        <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
-        <v/>
-      </c>
-      <c r="R26" s="2" t="str">
-        <f>IF(SUM(R5:R25)=0,"",SUM(R5:R25))</f>
-        <v/>
-      </c>
-      <c r="S26" s="6" t="str">
-        <f t="shared" ref="S26:AC26" si="1">IF(SUM(S5:S25)=0,"",SUM(S5:S25))</f>
-        <v/>
-      </c>
-      <c r="T26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U26" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W26" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y26" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AA26" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AB26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AC26" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
-      <c r="B27" s="85" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="11">
-        <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>61.7</v>
-      </c>
-      <c r="H27" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="I27" s="93"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="11" t="str">
-        <f>'Page 04'!K28</f>
-        <v/>
-      </c>
-      <c r="L27" s="11" t="str">
-        <f>'Page 04'!L28</f>
-        <v/>
-      </c>
-      <c r="M27" s="34" t="str">
-        <f>'Page 04'!M28</f>
-        <v/>
-      </c>
-      <c r="N27" s="44" t="str">
-        <f>'Page 04'!N28</f>
-        <v/>
-      </c>
-      <c r="O27" s="6" t="str">
-        <f>'Page 04'!O28</f>
-        <v/>
-      </c>
-      <c r="P27" s="11">
-        <f>'Page 04'!P28</f>
-        <v>52.9</v>
-      </c>
-      <c r="Q27" s="6" t="str">
-        <f>'Page 04'!Q28</f>
-        <v/>
-      </c>
-      <c r="R27" s="11">
-        <f>'Page 04'!R28</f>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="S27" s="6" t="str">
-        <f>'Page 04'!S28</f>
-        <v/>
-      </c>
-      <c r="T27" s="11" t="str">
-        <f>'Page 04'!T28</f>
-        <v/>
-      </c>
-      <c r="U27" s="6" t="str">
-        <f>'Page 04'!U28</f>
-        <v/>
-      </c>
-      <c r="V27" s="11" t="str">
-        <f>'Page 04'!V28</f>
-        <v/>
-      </c>
-      <c r="W27" s="6" t="str">
-        <f>'Page 04'!W28</f>
-        <v/>
-      </c>
-      <c r="X27" s="11" t="str">
-        <f>'Page 04'!X28</f>
-        <v/>
-      </c>
-      <c r="Y27" s="6" t="str">
-        <f>'Page 04'!Y28</f>
-        <v/>
-      </c>
-      <c r="Z27" s="11" t="str">
-        <f>'Page 04'!Z28</f>
-        <v/>
-      </c>
-      <c r="AA27" s="6" t="str">
-        <f>'Page 04'!AA28</f>
-        <v/>
-      </c>
-      <c r="AB27" s="11">
-        <f>'Page 04'!AB28</f>
-        <v>0.8</v>
-      </c>
-      <c r="AC27" s="34" t="str">
-        <f>'Page 04'!AC28</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="12">
-        <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>61.7</v>
-      </c>
-      <c r="H28" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="89"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="12" t="str">
-        <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
-        <v/>
-      </c>
-      <c r="L28" s="12" t="str">
-        <f t="shared" ref="L28:N28" si="2">IF(SUM(L26:L27)=0,"",SUM(L26:L27))</f>
-        <v/>
-      </c>
-      <c r="M28" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N28" s="46" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O28" s="7" t="str">
-        <f>IF(SUM(O26:O27)=0,"",SUM(O26:O27))</f>
-        <v/>
-      </c>
-      <c r="P28" s="12">
-        <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>52.9</v>
-      </c>
-      <c r="Q28" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R28" s="12">
-        <f t="shared" si="3"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="S28" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="T28" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="U28" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="V28" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="W28" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="X28" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Y28" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Z28" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AA28" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AB28" s="12">
-        <f>IF(SUM(AB26:AB27)=0,"",SUM(AB26:AB27))</f>
-        <v>0.8</v>
-      </c>
-      <c r="AC28" s="37" t="str">
-        <f>IF(SUM(AC26:AC27)=0,"",SUM(AC26:AC27))</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K2:M3"/>
-    <mergeCell ref="N2:S2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="13" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF253D2-11BB-AA45-933E-438A541CE8B0}">
-  <dimension ref="A1:AC28"/>
-  <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="112" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1"/>
-    <col min="9" max="10" width="7.42578125" customWidth="1"/>
-    <col min="11" max="13" width="6.85546875" customWidth="1"/>
-    <col min="14" max="27" width="7.42578125" customWidth="1"/>
-    <col min="28" max="29" width="11.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-    </row>
-    <row r="2" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="78" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC2" s="79"/>
-    </row>
-    <row r="3" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="71"/>
-      <c r="P3" s="72" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="72" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="71"/>
-      <c r="T3" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="U3" s="71"/>
-      <c r="V3" s="72" t="s">
-        <v>11</v>
-      </c>
-      <c r="W3" s="71"/>
-      <c r="X3" s="72" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC3" s="73" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="R4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="V4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="W4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="X4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="74"/>
-    </row>
-    <row r="5" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="33"/>
-    </row>
-    <row r="6" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="34"/>
-    </row>
-    <row r="7" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="34"/>
-    </row>
-    <row r="8" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="34"/>
-    </row>
-    <row r="9" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="34"/>
-    </row>
-    <row r="10" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="34"/>
-    </row>
-    <row r="11" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="34"/>
-    </row>
-    <row r="12" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="34"/>
-    </row>
-    <row r="13" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="34"/>
-    </row>
-    <row r="14" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="34"/>
-    </row>
-    <row r="15" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="34"/>
-    </row>
-    <row r="16" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="34"/>
-    </row>
-    <row r="17" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="34"/>
-    </row>
-    <row r="18" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="34"/>
-    </row>
-    <row r="19" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="34"/>
-    </row>
-    <row r="20" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="34"/>
-    </row>
-    <row r="21" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="34"/>
-    </row>
-    <row r="22" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="34"/>
-    </row>
-    <row r="23" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="34"/>
-    </row>
-    <row r="24" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="33"/>
-    </row>
-    <row r="25" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="37"/>
-    </row>
-    <row r="26" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
-      <c r="B26" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="91" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="83"/>
-      <c r="J26" s="84"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="33"/>
@@ -9745,21 +9774,21 @@
       <c r="AB26" s="2"/>
       <c r="AC26" s="33"/>
     </row>
-    <row r="27" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="21" customHeight="1">
       <c r="A27" s="47"/>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="87"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="92" t="s">
+      <c r="H27" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="93"/>
-      <c r="J27" s="94"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="34"/>
@@ -9780,21 +9809,21 @@
       <c r="AB27" s="11"/>
       <c r="AC27" s="34"/>
     </row>
-    <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1">
       <c r="A28" s="47"/>
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="95" t="s">
+      <c r="H28" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="89"/>
-      <c r="J28" s="90"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
       <c r="M28" s="37"/>
@@ -9817,16 +9846,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="Z3:AA3"/>
@@ -9842,6 +9861,16 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:J3"/>
     <mergeCell ref="K2:M3"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/My_Flying_Logbook.xlsx
+++ b/My_Flying_Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958B2120-D542-2C49-B534-9178AAB82E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5A6E43-0A44-8E46-81B3-49DB44E8BBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="111">
   <si>
     <t>Month</t>
   </si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>Training Area Familiarization</t>
+  </si>
+  <si>
+    <t>VH-LZQ</t>
   </si>
 </sst>
 </file>
@@ -1233,46 +1236,37 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1329,37 +1323,46 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1648,7 +1651,7 @@
     <col min="5" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="17" thickBot="1"/>
+    <row r="1" spans="2:4" ht="18" thickBot="1"/>
     <row r="2" spans="2:4" ht="19" customHeight="1">
       <c r="B2" s="22" t="s">
         <v>75</v>
@@ -1797,7 +1800,7 @@
     <col min="28" max="29" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17" thickBot="1">
+    <row r="1" spans="1:29" ht="18" thickBot="1">
       <c r="A1" s="3"/>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -1830,99 +1833,99 @@
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1">
       <c r="A2" s="47"/>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="89" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="91" t="s">
+      <c r="E2" s="54"/>
+      <c r="F2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="94"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="67" t="s">
+      <c r="I2" s="62"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="68"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="78" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="81" t="s">
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="81" t="s">
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="82"/>
+      <c r="AC2" s="79"/>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="71"/>
+      <c r="P3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="71"/>
+      <c r="R3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="74"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="71"/>
+      <c r="T3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="74"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="71"/>
+      <c r="V3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="74"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="71"/>
+      <c r="X3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="83" t="s">
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="76" t="s">
+      <c r="AC3" s="73" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1940,8 +1943,8 @@
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="19" t="s">
         <v>28</v>
       </c>
@@ -1996,8 +1999,8 @@
       <c r="AA4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="77"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="74"/>
     </row>
     <row r="5" spans="1:29" ht="21" customHeight="1">
       <c r="A5" s="47"/>
@@ -3036,22 +3039,22 @@
     </row>
     <row r="26" spans="1:29" ht="21" customHeight="1">
       <c r="A26" s="47"/>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="84"/>
       <c r="G26" s="2">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H26" s="62" t="s">
+      <c r="H26" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="54"/>
-      <c r="J26" s="55"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="84"/>
       <c r="K26" s="2" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -3131,22 +3134,22 @@
     </row>
     <row r="27" spans="1:29" ht="21" customHeight="1">
       <c r="A27" s="47"/>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="87"/>
       <c r="G27" s="11">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H27" s="63" t="s">
+      <c r="H27" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="65"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="94"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="34"/>
@@ -3169,22 +3172,22 @@
     </row>
     <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1">
       <c r="A28" s="47"/>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
       <c r="G28" s="12">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H28" s="66" t="s">
+      <c r="H28" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="60"/>
-      <c r="J28" s="61"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="90"/>
       <c r="K28" s="12" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -3264,11 +3267,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="K2:M3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
@@ -3283,12 +3287,11 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -3351,99 +3354,99 @@
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1">
       <c r="A2" s="47"/>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="89" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="91" t="s">
+      <c r="E2" s="54"/>
+      <c r="F2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="94"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="67" t="s">
+      <c r="I2" s="62"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="68"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="78" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="81" t="s">
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="81" t="s">
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="82"/>
+      <c r="AC2" s="79"/>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="71"/>
+      <c r="P3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="71"/>
+      <c r="R3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="74"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="71"/>
+      <c r="T3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="74"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="71"/>
+      <c r="V3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="74"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="71"/>
+      <c r="X3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="83" t="s">
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="76" t="s">
+      <c r="AC3" s="73" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3461,8 +3464,8 @@
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="19" t="s">
         <v>28</v>
       </c>
@@ -3517,8 +3520,8 @@
       <c r="AA4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="77"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="74"/>
     </row>
     <row r="5" spans="1:29" ht="21" customHeight="1">
       <c r="A5" s="47"/>
@@ -4343,22 +4346,22 @@
     </row>
     <row r="26" spans="1:29" ht="21" customHeight="1">
       <c r="A26" s="47"/>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="84"/>
       <c r="G26" s="2">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="H26" s="62" t="s">
+      <c r="H26" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="54"/>
-      <c r="J26" s="55"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="84"/>
       <c r="K26" s="2" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -4438,22 +4441,22 @@
     </row>
     <row r="27" spans="1:29" ht="21" customHeight="1">
       <c r="A27" s="47"/>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="87"/>
       <c r="G27" s="11">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H27" s="63" t="s">
+      <c r="H27" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="65"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="94"/>
       <c r="K27" s="11" t="str">
         <f>'Page 01'!K28</f>
         <v/>
@@ -4533,22 +4536,22 @@
     </row>
     <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1">
       <c r="A28" s="47"/>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
       <c r="G28" s="12">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H28" s="66" t="s">
+      <c r="H28" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="60"/>
-      <c r="J28" s="61"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="90"/>
       <c r="K28" s="12" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -4628,6 +4631,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="Z3:AA3"/>
@@ -4644,15 +4656,6 @@
     <mergeCell ref="H2:J3"/>
     <mergeCell ref="K2:M3"/>
     <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -4682,7 +4685,7 @@
     <col min="28" max="29" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17" thickBot="1">
+    <row r="1" spans="1:29" ht="18" thickBot="1">
       <c r="A1" s="3"/>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -4715,99 +4718,99 @@
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1">
       <c r="A2" s="47"/>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="89" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="91" t="s">
+      <c r="E2" s="54"/>
+      <c r="F2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="94"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="67" t="s">
+      <c r="I2" s="62"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="68"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="78" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="81" t="s">
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="81" t="s">
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="82"/>
+      <c r="AC2" s="79"/>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="71"/>
+      <c r="P3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="71"/>
+      <c r="R3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="74"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="71"/>
+      <c r="T3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="74"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="71"/>
+      <c r="V3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="74"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="71"/>
+      <c r="X3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="83" t="s">
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="76" t="s">
+      <c r="AC3" s="73" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4825,8 +4828,8 @@
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="19" t="s">
         <v>28</v>
       </c>
@@ -4881,8 +4884,8 @@
       <c r="AA4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="77"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="74"/>
     </row>
     <row r="5" spans="1:29" ht="21" customHeight="1">
       <c r="A5" s="47"/>
@@ -5891,22 +5894,22 @@
     </row>
     <row r="26" spans="1:29" ht="21" customHeight="1">
       <c r="A26" s="47"/>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="84"/>
       <c r="G26" s="2">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>16.800000000000004</v>
       </c>
-      <c r="H26" s="62" t="s">
+      <c r="H26" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="54"/>
-      <c r="J26" s="55"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="84"/>
       <c r="K26" s="2" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -5986,22 +5989,22 @@
     </row>
     <row r="27" spans="1:29" ht="21" customHeight="1">
       <c r="A27" s="47"/>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="87"/>
       <c r="G27" s="11">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>47.1</v>
       </c>
-      <c r="H27" s="63" t="s">
+      <c r="H27" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="65"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="94"/>
       <c r="K27" s="11" t="str">
         <f>'Page 02'!K28</f>
         <v/>
@@ -6081,22 +6084,22 @@
     </row>
     <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1">
       <c r="A28" s="47"/>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
       <c r="G28" s="12">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>47.1</v>
       </c>
-      <c r="H28" s="66" t="s">
+      <c r="H28" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="60"/>
-      <c r="J28" s="61"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="90"/>
       <c r="K28" s="12" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -6176,6 +6179,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="Z3:AA3"/>
@@ -6192,15 +6204,6 @@
     <mergeCell ref="H2:J3"/>
     <mergeCell ref="K2:M3"/>
     <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -6230,7 +6233,7 @@
     <col min="28" max="29" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17" thickBot="1">
+    <row r="1" spans="1:29" ht="18" thickBot="1">
       <c r="A1" s="3"/>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -6263,99 +6266,99 @@
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1">
       <c r="A2" s="47"/>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="89" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="91" t="s">
+      <c r="E2" s="54"/>
+      <c r="F2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="94"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="67" t="s">
+      <c r="I2" s="62"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="68"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="78" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="81" t="s">
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="81" t="s">
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="82"/>
+      <c r="AC2" s="79"/>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="71"/>
+      <c r="P3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="71"/>
+      <c r="R3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="74"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="71"/>
+      <c r="T3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="74"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="71"/>
+      <c r="V3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="74"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="71"/>
+      <c r="X3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="83" t="s">
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="76" t="s">
+      <c r="AC3" s="73" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6373,8 +6376,8 @@
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="19" t="s">
         <v>28</v>
       </c>
@@ -6429,8 +6432,8 @@
       <c r="AA4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="77"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="74"/>
     </row>
     <row r="5" spans="1:29" ht="21" customHeight="1">
       <c r="A5" s="47"/>
@@ -7120,6 +7123,1219 @@
       <c r="P18" s="11">
         <v>1.1000000000000001</v>
       </c>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="34"/>
+    </row>
+    <row r="19" spans="1:29" ht="21" customHeight="1">
+      <c r="A19" s="47"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="13">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="34"/>
+    </row>
+    <row r="20" spans="1:29" ht="21" customHeight="1">
+      <c r="A20" s="47"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="34"/>
+    </row>
+    <row r="21" spans="1:29" ht="21" customHeight="1">
+      <c r="A21" s="47"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="34"/>
+    </row>
+    <row r="22" spans="1:29" ht="21" customHeight="1">
+      <c r="A22" s="47"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="34"/>
+    </row>
+    <row r="23" spans="1:29" ht="21" customHeight="1">
+      <c r="A23" s="47"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="34"/>
+    </row>
+    <row r="24" spans="1:29" ht="21" customHeight="1">
+      <c r="A24" s="47"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="33"/>
+    </row>
+    <row r="25" spans="1:29" ht="21" customHeight="1" thickBot="1">
+      <c r="A25" s="47"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="37"/>
+    </row>
+    <row r="26" spans="1:29" ht="21" customHeight="1">
+      <c r="A26" s="47"/>
+      <c r="B26" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="2">
+        <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H26" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="83"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="2" t="str">
+        <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
+        <v/>
+      </c>
+      <c r="L26" s="2" t="str">
+        <f t="shared" ref="L26:M26" si="0">IF(SUM(L5:L25)=0,"",SUM(L5:L25))</f>
+        <v/>
+      </c>
+      <c r="M26" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N26" s="43" t="str">
+        <f>IF(SUM(N5:N25)=0,"",SUM(N5:N25))</f>
+        <v/>
+      </c>
+      <c r="O26" s="6" t="str">
+        <f>IF(SUM(O5:O25)=0,"",SUM(O5:O25))</f>
+        <v/>
+      </c>
+      <c r="P26" s="2">
+        <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
+        <v>10.299999999999999</v>
+      </c>
+      <c r="Q26" s="6" t="str">
+        <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
+        <v/>
+      </c>
+      <c r="R26" s="2">
+        <f>IF(SUM(R5:R25)=0,"",SUM(R5:R25))</f>
+        <v>6.6</v>
+      </c>
+      <c r="S26" s="6" t="str">
+        <f t="shared" ref="S26:AC26" si="1">IF(SUM(S5:S25)=0,"",SUM(S5:S25))</f>
+        <v/>
+      </c>
+      <c r="T26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AB26" s="2">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="AC26" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="21" customHeight="1">
+      <c r="A27" s="47"/>
+      <c r="B27" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="11">
+        <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
+        <v>64</v>
+      </c>
+      <c r="H27" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="93"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="11" t="str">
+        <f>'Page 03'!K28</f>
+        <v/>
+      </c>
+      <c r="L27" s="11" t="str">
+        <f>'Page 03'!L28</f>
+        <v/>
+      </c>
+      <c r="M27" s="34" t="str">
+        <f>'Page 03'!M28</f>
+        <v/>
+      </c>
+      <c r="N27" s="44" t="str">
+        <f>'Page 03'!N28</f>
+        <v/>
+      </c>
+      <c r="O27" s="6" t="str">
+        <f>'Page 03'!O28</f>
+        <v/>
+      </c>
+      <c r="P27" s="11">
+        <f>'Page 03'!P28</f>
+        <v>44.9</v>
+      </c>
+      <c r="Q27" s="6" t="str">
+        <f>'Page 03'!Q28</f>
+        <v/>
+      </c>
+      <c r="R27" s="11">
+        <f>'Page 03'!R28</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S27" s="6" t="str">
+        <f>'Page 03'!S28</f>
+        <v/>
+      </c>
+      <c r="T27" s="11" t="str">
+        <f>'Page 03'!T28</f>
+        <v/>
+      </c>
+      <c r="U27" s="6" t="str">
+        <f>'Page 03'!U28</f>
+        <v/>
+      </c>
+      <c r="V27" s="11" t="str">
+        <f>'Page 03'!V28</f>
+        <v/>
+      </c>
+      <c r="W27" s="6" t="str">
+        <f>'Page 03'!W28</f>
+        <v/>
+      </c>
+      <c r="X27" s="11" t="str">
+        <f>'Page 03'!X28</f>
+        <v/>
+      </c>
+      <c r="Y27" s="6" t="str">
+        <f>'Page 03'!Y28</f>
+        <v/>
+      </c>
+      <c r="Z27" s="11" t="str">
+        <f>'Page 03'!Z28</f>
+        <v/>
+      </c>
+      <c r="AA27" s="6" t="str">
+        <f>'Page 03'!AA28</f>
+        <v/>
+      </c>
+      <c r="AB27" s="11">
+        <f>'Page 03'!AB28</f>
+        <v>0.6</v>
+      </c>
+      <c r="AC27" s="34" t="str">
+        <f>'Page 03'!AC28</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1">
+      <c r="A28" s="47"/>
+      <c r="B28" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="12">
+        <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
+        <v>64</v>
+      </c>
+      <c r="H28" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="89"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="12" t="str">
+        <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
+        <v/>
+      </c>
+      <c r="L28" s="12" t="str">
+        <f t="shared" ref="L28:N28" si="2">IF(SUM(L26:L27)=0,"",SUM(L26:L27))</f>
+        <v/>
+      </c>
+      <c r="M28" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N28" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O28" s="7" t="str">
+        <f>IF(SUM(O26:O27)=0,"",SUM(O26:O27))</f>
+        <v/>
+      </c>
+      <c r="P28" s="12">
+        <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
+        <v>55.199999999999996</v>
+      </c>
+      <c r="Q28" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R28" s="12">
+        <f t="shared" si="3"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S28" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T28" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U28" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V28" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="W28" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="X28" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y28" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z28" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA28" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AB28" s="12">
+        <f>IF(SUM(AB26:AB27)=0,"",SUM(AB26:AB27))</f>
+        <v>0.8</v>
+      </c>
+      <c r="AC28" s="37" t="str">
+        <f>IF(SUM(AC26:AC27)=0,"",SUM(AC26:AC27))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K2:M3"/>
+    <mergeCell ref="N2:S2"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="13" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DDE827-920C-154F-809E-0229729C3F27}">
+  <dimension ref="A1:AC28"/>
+  <sheetViews>
+    <sheetView zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="112" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" customWidth="1"/>
+    <col min="9" max="10" width="7.42578125" customWidth="1"/>
+    <col min="11" max="13" width="6.85546875" customWidth="1"/>
+    <col min="14" max="27" width="7.42578125" customWidth="1"/>
+    <col min="28" max="29" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="18" thickBot="1">
+      <c r="A1" s="3"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+    </row>
+    <row r="2" spans="1:29" ht="21" customHeight="1">
+      <c r="A2" s="47"/>
+      <c r="B2" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="54"/>
+      <c r="F2" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="62"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC2" s="79"/>
+    </row>
+    <row r="3" spans="1:29" ht="21" customHeight="1">
+      <c r="A3" s="47"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="71"/>
+      <c r="P3" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="71"/>
+      <c r="T3" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="71"/>
+      <c r="V3" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" s="71"/>
+      <c r="X3" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC3" s="73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="21" customHeight="1" thickBot="1">
+      <c r="A4" s="47"/>
+      <c r="B4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="74"/>
+    </row>
+    <row r="5" spans="1:29" ht="21" customHeight="1">
+      <c r="A5" s="47"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="33"/>
+    </row>
+    <row r="6" spans="1:29" ht="21" customHeight="1">
+      <c r="A6" s="47"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="34"/>
+    </row>
+    <row r="7" spans="1:29" ht="21" customHeight="1">
+      <c r="A7" s="47"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="34"/>
+    </row>
+    <row r="8" spans="1:29" ht="21" customHeight="1">
+      <c r="A8" s="47"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="34"/>
+    </row>
+    <row r="9" spans="1:29" ht="21" customHeight="1">
+      <c r="A9" s="47"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="34"/>
+    </row>
+    <row r="10" spans="1:29" ht="21" customHeight="1">
+      <c r="A10" s="47"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="34"/>
+    </row>
+    <row r="11" spans="1:29" ht="21" customHeight="1">
+      <c r="A11" s="47"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="34"/>
+    </row>
+    <row r="12" spans="1:29" ht="21" customHeight="1">
+      <c r="A12" s="47"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="34"/>
+    </row>
+    <row r="13" spans="1:29" ht="21" customHeight="1">
+      <c r="A13" s="47"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="34"/>
+    </row>
+    <row r="14" spans="1:29" ht="21" customHeight="1">
+      <c r="A14" s="47"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="34"/>
+    </row>
+    <row r="15" spans="1:29" ht="21" customHeight="1">
+      <c r="A15" s="47"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="34"/>
+    </row>
+    <row r="16" spans="1:29" ht="21" customHeight="1">
+      <c r="A16" s="47"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="34"/>
+    </row>
+    <row r="17" spans="1:29" ht="21" customHeight="1">
+      <c r="A17" s="47"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="34"/>
+    </row>
+    <row r="18" spans="1:29" ht="21" customHeight="1">
+      <c r="A18" s="47"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="11"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="11"/>
       <c r="S18" s="6"/>
@@ -7353,22 +8569,22 @@
     </row>
     <row r="26" spans="1:29" ht="21" customHeight="1">
       <c r="A26" s="47"/>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="2">
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="2" t="str">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v>15.7</v>
-      </c>
-      <c r="H26" s="62" t="s">
+        <v/>
+      </c>
+      <c r="H26" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="54"/>
-      <c r="J26" s="55"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="84"/>
       <c r="K26" s="2" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -7389,17 +8605,17 @@
         <f>IF(SUM(O5:O25)=0,"",SUM(O5:O25))</f>
         <v/>
       </c>
-      <c r="P26" s="2">
+      <c r="P26" s="2" t="str">
         <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
-        <v>9.1</v>
+        <v/>
       </c>
       <c r="Q26" s="6" t="str">
         <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
         <v/>
       </c>
-      <c r="R26" s="2">
+      <c r="R26" s="2" t="str">
         <f>IF(SUM(R5:R25)=0,"",SUM(R5:R25))</f>
-        <v>6.6</v>
+        <v/>
       </c>
       <c r="S26" s="6" t="str">
         <f t="shared" ref="S26:AC26" si="1">IF(SUM(S5:S25)=0,"",SUM(S5:S25))</f>
@@ -7437,9 +8653,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AB26" s="2">
+      <c r="AB26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v/>
       </c>
       <c r="AC26" s="33" t="str">
         <f t="shared" si="1"/>
@@ -7448,117 +8664,117 @@
     </row>
     <row r="27" spans="1:29" ht="21" customHeight="1">
       <c r="A27" s="47"/>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="87"/>
       <c r="G27" s="11">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>62.8</v>
-      </c>
-      <c r="H27" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="65"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="94"/>
       <c r="K27" s="11" t="str">
-        <f>'Page 03'!K28</f>
+        <f>'Page 04'!K28</f>
         <v/>
       </c>
       <c r="L27" s="11" t="str">
-        <f>'Page 03'!L28</f>
+        <f>'Page 04'!L28</f>
         <v/>
       </c>
       <c r="M27" s="34" t="str">
-        <f>'Page 03'!M28</f>
+        <f>'Page 04'!M28</f>
         <v/>
       </c>
       <c r="N27" s="44" t="str">
-        <f>'Page 03'!N28</f>
+        <f>'Page 04'!N28</f>
         <v/>
       </c>
       <c r="O27" s="6" t="str">
-        <f>'Page 03'!O28</f>
+        <f>'Page 04'!O28</f>
         <v/>
       </c>
       <c r="P27" s="11">
-        <f>'Page 03'!P28</f>
-        <v>44.9</v>
+        <f>'Page 04'!P28</f>
+        <v>55.199999999999996</v>
       </c>
       <c r="Q27" s="6" t="str">
-        <f>'Page 03'!Q28</f>
+        <f>'Page 04'!Q28</f>
         <v/>
       </c>
       <c r="R27" s="11">
-        <f>'Page 03'!R28</f>
-        <v>2.2000000000000002</v>
+        <f>'Page 04'!R28</f>
+        <v>8.8000000000000007</v>
       </c>
       <c r="S27" s="6" t="str">
-        <f>'Page 03'!S28</f>
+        <f>'Page 04'!S28</f>
         <v/>
       </c>
       <c r="T27" s="11" t="str">
-        <f>'Page 03'!T28</f>
+        <f>'Page 04'!T28</f>
         <v/>
       </c>
       <c r="U27" s="6" t="str">
-        <f>'Page 03'!U28</f>
+        <f>'Page 04'!U28</f>
         <v/>
       </c>
       <c r="V27" s="11" t="str">
-        <f>'Page 03'!V28</f>
+        <f>'Page 04'!V28</f>
         <v/>
       </c>
       <c r="W27" s="6" t="str">
-        <f>'Page 03'!W28</f>
+        <f>'Page 04'!W28</f>
         <v/>
       </c>
       <c r="X27" s="11" t="str">
-        <f>'Page 03'!X28</f>
+        <f>'Page 04'!X28</f>
         <v/>
       </c>
       <c r="Y27" s="6" t="str">
-        <f>'Page 03'!Y28</f>
+        <f>'Page 04'!Y28</f>
         <v/>
       </c>
       <c r="Z27" s="11" t="str">
-        <f>'Page 03'!Z28</f>
+        <f>'Page 04'!Z28</f>
         <v/>
       </c>
       <c r="AA27" s="6" t="str">
-        <f>'Page 03'!AA28</f>
+        <f>'Page 04'!AA28</f>
         <v/>
       </c>
       <c r="AB27" s="11">
-        <f>'Page 03'!AB28</f>
-        <v>0.6</v>
+        <f>'Page 04'!AB28</f>
+        <v>0.8</v>
       </c>
       <c r="AC27" s="34" t="str">
-        <f>'Page 03'!AC28</f>
+        <f>'Page 04'!AC28</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1">
       <c r="A28" s="47"/>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
       <c r="G28" s="12">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>62.8</v>
-      </c>
-      <c r="H28" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="60"/>
-      <c r="J28" s="61"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="90"/>
       <c r="K28" s="12" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -7581,7 +8797,7 @@
       </c>
       <c r="P28" s="12">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>54</v>
+        <v>55.199999999999996</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -7638,6 +8854,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="Z3:AA3"/>
@@ -7654,15 +8879,6 @@
     <mergeCell ref="H2:J3"/>
     <mergeCell ref="K2:M3"/>
     <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -7672,8 +8888,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DDE827-920C-154F-809E-0229729C3F27}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF253D2-11BB-AA45-933E-438A541CE8B0}">
   <dimension ref="A1:AC28"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="112" workbookViewId="0"/>
@@ -7692,7 +8908,7 @@
     <col min="28" max="29" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17" thickBot="1">
+    <row r="1" spans="1:29" ht="18" thickBot="1">
       <c r="A1" s="3"/>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -7725,99 +8941,99 @@
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1">
       <c r="A2" s="47"/>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="89" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="91" t="s">
+      <c r="E2" s="54"/>
+      <c r="F2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="94"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="67" t="s">
+      <c r="I2" s="62"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="68"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="78" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="81" t="s">
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="81" t="s">
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="82"/>
+      <c r="AC2" s="79"/>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="75" t="s">
+      <c r="O3" s="71"/>
+      <c r="P3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="71"/>
+      <c r="R3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="74"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="71"/>
+      <c r="T3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="74"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="71"/>
+      <c r="V3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="74"/>
-      <c r="X3" s="75" t="s">
+      <c r="W3" s="71"/>
+      <c r="X3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="75" t="s">
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="83" t="s">
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="76" t="s">
+      <c r="AC3" s="73" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7835,8 +9051,8 @@
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="19" t="s">
         <v>28</v>
       </c>
@@ -7891,8 +9107,8 @@
       <c r="AA4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="77"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="74"/>
     </row>
     <row r="5" spans="1:29" ht="21" customHeight="1">
       <c r="A5" s="47"/>
@@ -8547,1213 +9763,19 @@
     </row>
     <row r="26" spans="1:29" ht="21" customHeight="1">
       <c r="A26" s="47"/>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="2" t="str">
-        <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v/>
-      </c>
-      <c r="H26" s="62" t="s">
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="54"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="2" t="str">
-        <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
-        <v/>
-      </c>
-      <c r="L26" s="2" t="str">
-        <f t="shared" ref="L26:M26" si="0">IF(SUM(L5:L25)=0,"",SUM(L5:L25))</f>
-        <v/>
-      </c>
-      <c r="M26" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N26" s="43" t="str">
-        <f>IF(SUM(N5:N25)=0,"",SUM(N5:N25))</f>
-        <v/>
-      </c>
-      <c r="O26" s="6" t="str">
-        <f>IF(SUM(O5:O25)=0,"",SUM(O5:O25))</f>
-        <v/>
-      </c>
-      <c r="P26" s="2" t="str">
-        <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
-        <v/>
-      </c>
-      <c r="Q26" s="6" t="str">
-        <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
-        <v/>
-      </c>
-      <c r="R26" s="2" t="str">
-        <f>IF(SUM(R5:R25)=0,"",SUM(R5:R25))</f>
-        <v/>
-      </c>
-      <c r="S26" s="6" t="str">
-        <f t="shared" ref="S26:AC26" si="1">IF(SUM(S5:S25)=0,"",SUM(S5:S25))</f>
-        <v/>
-      </c>
-      <c r="T26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U26" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W26" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y26" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AA26" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AB26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AC26" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:29" ht="21" customHeight="1">
-      <c r="A27" s="47"/>
-      <c r="B27" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="11">
-        <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>62.8</v>
-      </c>
-      <c r="H27" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="11" t="str">
-        <f>'Page 04'!K28</f>
-        <v/>
-      </c>
-      <c r="L27" s="11" t="str">
-        <f>'Page 04'!L28</f>
-        <v/>
-      </c>
-      <c r="M27" s="34" t="str">
-        <f>'Page 04'!M28</f>
-        <v/>
-      </c>
-      <c r="N27" s="44" t="str">
-        <f>'Page 04'!N28</f>
-        <v/>
-      </c>
-      <c r="O27" s="6" t="str">
-        <f>'Page 04'!O28</f>
-        <v/>
-      </c>
-      <c r="P27" s="11">
-        <f>'Page 04'!P28</f>
-        <v>54</v>
-      </c>
-      <c r="Q27" s="6" t="str">
-        <f>'Page 04'!Q28</f>
-        <v/>
-      </c>
-      <c r="R27" s="11">
-        <f>'Page 04'!R28</f>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="S27" s="6" t="str">
-        <f>'Page 04'!S28</f>
-        <v/>
-      </c>
-      <c r="T27" s="11" t="str">
-        <f>'Page 04'!T28</f>
-        <v/>
-      </c>
-      <c r="U27" s="6" t="str">
-        <f>'Page 04'!U28</f>
-        <v/>
-      </c>
-      <c r="V27" s="11" t="str">
-        <f>'Page 04'!V28</f>
-        <v/>
-      </c>
-      <c r="W27" s="6" t="str">
-        <f>'Page 04'!W28</f>
-        <v/>
-      </c>
-      <c r="X27" s="11" t="str">
-        <f>'Page 04'!X28</f>
-        <v/>
-      </c>
-      <c r="Y27" s="6" t="str">
-        <f>'Page 04'!Y28</f>
-        <v/>
-      </c>
-      <c r="Z27" s="11" t="str">
-        <f>'Page 04'!Z28</f>
-        <v/>
-      </c>
-      <c r="AA27" s="6" t="str">
-        <f>'Page 04'!AA28</f>
-        <v/>
-      </c>
-      <c r="AB27" s="11">
-        <f>'Page 04'!AB28</f>
-        <v>0.8</v>
-      </c>
-      <c r="AC27" s="34" t="str">
-        <f>'Page 04'!AC28</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1">
-      <c r="A28" s="47"/>
-      <c r="B28" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="12">
-        <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>62.8</v>
-      </c>
-      <c r="H28" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="60"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="12" t="str">
-        <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
-        <v/>
-      </c>
-      <c r="L28" s="12" t="str">
-        <f t="shared" ref="L28:N28" si="2">IF(SUM(L26:L27)=0,"",SUM(L26:L27))</f>
-        <v/>
-      </c>
-      <c r="M28" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N28" s="46" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O28" s="7" t="str">
-        <f>IF(SUM(O26:O27)=0,"",SUM(O26:O27))</f>
-        <v/>
-      </c>
-      <c r="P28" s="12">
-        <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>54</v>
-      </c>
-      <c r="Q28" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R28" s="12">
-        <f t="shared" si="3"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="S28" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="T28" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="U28" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="V28" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="W28" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="X28" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Y28" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Z28" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AA28" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AB28" s="12">
-        <f>IF(SUM(AB26:AB27)=0,"",SUM(AB26:AB27))</f>
-        <v>0.8</v>
-      </c>
-      <c r="AC28" s="37" t="str">
-        <f>IF(SUM(AC26:AC27)=0,"",SUM(AC26:AC27))</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="K2:M3"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="13" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF253D2-11BB-AA45-933E-438A541CE8B0}">
-  <dimension ref="A1:AC28"/>
-  <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="112" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1"/>
-    <col min="9" max="10" width="7.42578125" customWidth="1"/>
-    <col min="11" max="13" width="6.85546875" customWidth="1"/>
-    <col min="14" max="27" width="7.42578125" customWidth="1"/>
-    <col min="28" max="29" width="11.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" ht="17" thickBot="1">
-      <c r="A1" s="3"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-    </row>
-    <row r="2" spans="1:29" ht="21" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="85" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="91" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="94"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="L2" s="68"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC2" s="82"/>
-    </row>
-    <row r="3" spans="1:29" ht="21" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="74"/>
-      <c r="T3" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="U3" s="74"/>
-      <c r="V3" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="W3" s="74"/>
-      <c r="X3" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC3" s="76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="21" customHeight="1" thickBot="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="R4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="V4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="W4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="X4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="77"/>
-    </row>
-    <row r="5" spans="1:29" ht="21" customHeight="1">
-      <c r="A5" s="47"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="33"/>
-    </row>
-    <row r="6" spans="1:29" ht="21" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="34"/>
-    </row>
-    <row r="7" spans="1:29" ht="21" customHeight="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="34"/>
-    </row>
-    <row r="8" spans="1:29" ht="21" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="34"/>
-    </row>
-    <row r="9" spans="1:29" ht="21" customHeight="1">
-      <c r="A9" s="47"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="34"/>
-    </row>
-    <row r="10" spans="1:29" ht="21" customHeight="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="34"/>
-    </row>
-    <row r="11" spans="1:29" ht="21" customHeight="1">
-      <c r="A11" s="47"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="34"/>
-    </row>
-    <row r="12" spans="1:29" ht="21" customHeight="1">
-      <c r="A12" s="47"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="34"/>
-    </row>
-    <row r="13" spans="1:29" ht="21" customHeight="1">
-      <c r="A13" s="47"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="34"/>
-    </row>
-    <row r="14" spans="1:29" ht="21" customHeight="1">
-      <c r="A14" s="47"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="34"/>
-    </row>
-    <row r="15" spans="1:29" ht="21" customHeight="1">
-      <c r="A15" s="47"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="34"/>
-    </row>
-    <row r="16" spans="1:29" ht="21" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="34"/>
-    </row>
-    <row r="17" spans="1:29" ht="21" customHeight="1">
-      <c r="A17" s="47"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="34"/>
-    </row>
-    <row r="18" spans="1:29" ht="21" customHeight="1">
-      <c r="A18" s="47"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="34"/>
-    </row>
-    <row r="19" spans="1:29" ht="21" customHeight="1">
-      <c r="A19" s="47"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="34"/>
-    </row>
-    <row r="20" spans="1:29" ht="21" customHeight="1">
-      <c r="A20" s="47"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="34"/>
-    </row>
-    <row r="21" spans="1:29" ht="21" customHeight="1">
-      <c r="A21" s="47"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="34"/>
-    </row>
-    <row r="22" spans="1:29" ht="21" customHeight="1">
-      <c r="A22" s="47"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="34"/>
-    </row>
-    <row r="23" spans="1:29" ht="21" customHeight="1">
-      <c r="A23" s="47"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="34"/>
-    </row>
-    <row r="24" spans="1:29" ht="21" customHeight="1">
-      <c r="A24" s="47"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="33"/>
-    </row>
-    <row r="25" spans="1:29" ht="21" customHeight="1" thickBot="1">
-      <c r="A25" s="47"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="37"/>
-    </row>
-    <row r="26" spans="1:29" ht="21" customHeight="1">
-      <c r="A26" s="47"/>
-      <c r="B26" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="54"/>
-      <c r="J26" s="55"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="84"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="33"/>
@@ -9776,19 +9798,19 @@
     </row>
     <row r="27" spans="1:29" ht="21" customHeight="1">
       <c r="A27" s="47"/>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="87"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="63" t="s">
+      <c r="H27" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="65"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="94"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="34"/>
@@ -9811,19 +9833,19 @@
     </row>
     <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1">
       <c r="A28" s="47"/>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="66" t="s">
+      <c r="H28" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="60"/>
-      <c r="J28" s="61"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="90"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
       <c r="M28" s="37"/>
@@ -9846,6 +9868,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="Z3:AA3"/>
@@ -9862,15 +9893,6 @@
     <mergeCell ref="H2:J3"/>
     <mergeCell ref="K2:M3"/>
     <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/My_Flying_Logbook.xlsx
+++ b/My_Flying_Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5A6E43-0A44-8E46-81B3-49DB44E8BBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD819CF8-5298-DC45-A8D6-9248A8FADD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="111">
   <si>
     <t>Month</t>
   </si>
@@ -7189,20 +7189,38 @@
     <row r="20" spans="1:29" ht="21" customHeight="1">
       <c r="A20" s="47"/>
       <c r="B20" s="29"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="C20" s="13">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="30"/>
       <c r="N20" s="44"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="11"/>
+      <c r="P20" s="11">
+        <v>1</v>
+      </c>
       <c r="Q20" s="6"/>
       <c r="R20" s="11"/>
       <c r="S20" s="6"/>
@@ -7383,7 +7401,7 @@
       <c r="F26" s="84"/>
       <c r="G26" s="2">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v>16.899999999999999</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="H26" s="91" t="s">
         <v>47</v>
@@ -7412,7 +7430,7 @@
       </c>
       <c r="P26" s="2">
         <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
-        <v>10.299999999999999</v>
+        <v>11.299999999999999</v>
       </c>
       <c r="Q26" s="6" t="str">
         <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
@@ -7478,7 +7496,7 @@
       <c r="F27" s="87"/>
       <c r="G27" s="11">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H27" s="92" t="s">
         <v>59</v>
@@ -7573,7 +7591,7 @@
       <c r="F28" s="90"/>
       <c r="G28" s="12">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H28" s="95" t="s">
         <v>48</v>
@@ -7602,7 +7620,7 @@
       </c>
       <c r="P28" s="12">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>55.199999999999996</v>
+        <v>56.199999999999996</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -8673,7 +8691,7 @@
       <c r="F27" s="87"/>
       <c r="G27" s="11">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H27" s="92" t="s">
         <v>59</v>
@@ -8702,7 +8720,7 @@
       </c>
       <c r="P27" s="11">
         <f>'Page 04'!P28</f>
-        <v>55.199999999999996</v>
+        <v>56.199999999999996</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>'Page 04'!Q28</f>
@@ -8768,7 +8786,7 @@
       <c r="F28" s="90"/>
       <c r="G28" s="12">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H28" s="95" t="s">
         <v>48</v>
@@ -8797,7 +8815,7 @@
       </c>
       <c r="P28" s="12">
         <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
-        <v>55.199999999999996</v>
+        <v>56.199999999999996</v>
       </c>
       <c r="Q28" s="7" t="str">
         <f t="shared" si="3"/>

--- a/My_Flying_Logbook.xlsx
+++ b/My_Flying_Logbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD819CF8-5298-DC45-A8D6-9248A8FADD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3B956E-836E-6E4C-80F1-53DF92E28A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="5" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
   <sheets>
     <sheet name="Theorem Exam Pass Record" sheetId="2" r:id="rId1"/>
@@ -19,15 +19,17 @@
     <sheet name="Page 03" sheetId="10" r:id="rId4"/>
     <sheet name="Page 04" sheetId="11" r:id="rId5"/>
     <sheet name="Page 05" sheetId="12" r:id="rId6"/>
-    <sheet name="Blank Page (No Formula)" sheetId="14" r:id="rId7"/>
+    <sheet name="Page 06" sheetId="15" r:id="rId7"/>
+    <sheet name="Blank Page (No Formula)" sheetId="14" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Blank Page (No Formula)'!$B$2:$AC$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Blank Page (No Formula)'!$B$2:$AC$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Page 01'!$B$2:$AC$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Page 02'!$B$2:$AC$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Page 03'!$B$2:$AC$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Page 04'!$B$2:$AC$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Page 05'!$B$2:$AC$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Page 06'!$B$2:$AC$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="113">
   <si>
     <t>Month</t>
   </si>
@@ -417,6 +419,12 @@
   </si>
   <si>
     <t>VH-LZQ</t>
+  </si>
+  <si>
+    <t>Year 2023</t>
+  </si>
+  <si>
+    <t>YSBK-PRT-YSBK</t>
   </si>
 </sst>
 </file>
@@ -6217,6 +6225,1507 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE447E2A-706F-BB48-B64D-34B46D089E61}">
   <dimension ref="A1:AC28"/>
   <sheetViews>
+    <sheetView zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="112" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" customWidth="1"/>
+    <col min="9" max="10" width="7.42578125" customWidth="1"/>
+    <col min="11" max="13" width="6.85546875" customWidth="1"/>
+    <col min="14" max="27" width="7.42578125" customWidth="1"/>
+    <col min="28" max="29" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="18" thickBot="1">
+      <c r="A1" s="3"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+    </row>
+    <row r="2" spans="1:29" ht="21" customHeight="1">
+      <c r="A2" s="47"/>
+      <c r="B2" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="54"/>
+      <c r="F2" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="62"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC2" s="79"/>
+    </row>
+    <row r="3" spans="1:29" ht="21" customHeight="1">
+      <c r="A3" s="47"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="71"/>
+      <c r="P3" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="71"/>
+      <c r="T3" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="71"/>
+      <c r="V3" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" s="71"/>
+      <c r="X3" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC3" s="73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="21" customHeight="1" thickBot="1">
+      <c r="A4" s="47"/>
+      <c r="B4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="74"/>
+    </row>
+    <row r="5" spans="1:29" ht="21" customHeight="1">
+      <c r="A5" s="47"/>
+      <c r="B5" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="5"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="33"/>
+    </row>
+    <row r="6" spans="1:29" ht="21" customHeight="1">
+      <c r="A6" s="47"/>
+      <c r="B6" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="13">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="34"/>
+    </row>
+    <row r="7" spans="1:29" ht="21" customHeight="1">
+      <c r="A7" s="47"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="13">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="34"/>
+    </row>
+    <row r="8" spans="1:29" ht="21" customHeight="1">
+      <c r="A8" s="47"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="13">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="11">
+        <v>1</v>
+      </c>
+      <c r="S8" s="6"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="34"/>
+    </row>
+    <row r="9" spans="1:29" ht="21" customHeight="1">
+      <c r="A9" s="47"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="13">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="11">
+        <v>1</v>
+      </c>
+      <c r="S9" s="6"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="34"/>
+    </row>
+    <row r="10" spans="1:29" ht="21" customHeight="1">
+      <c r="A10" s="47"/>
+      <c r="B10" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="13">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="34"/>
+    </row>
+    <row r="11" spans="1:29" ht="21" customHeight="1">
+      <c r="A11" s="47"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="13">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="34"/>
+    </row>
+    <row r="12" spans="1:29" ht="21" customHeight="1">
+      <c r="A12" s="47"/>
+      <c r="B12" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="13">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="AC12" s="34"/>
+    </row>
+    <row r="13" spans="1:29" ht="21" customHeight="1">
+      <c r="A13" s="47"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="13">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="34"/>
+    </row>
+    <row r="14" spans="1:29" ht="21" customHeight="1">
+      <c r="A14" s="47"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="13">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="S14" s="6"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="34"/>
+    </row>
+    <row r="15" spans="1:29" ht="21" customHeight="1">
+      <c r="A15" s="47"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="13">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="34"/>
+    </row>
+    <row r="16" spans="1:29" ht="21" customHeight="1">
+      <c r="A16" s="47"/>
+      <c r="B16" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="13">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="S16" s="6"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="34"/>
+    </row>
+    <row r="17" spans="1:29" ht="21" customHeight="1">
+      <c r="A17" s="47"/>
+      <c r="B17" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="13">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="S17" s="6"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="34"/>
+    </row>
+    <row r="18" spans="1:29" ht="21" customHeight="1">
+      <c r="A18" s="47"/>
+      <c r="B18" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="13">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="34"/>
+    </row>
+    <row r="19" spans="1:29" ht="21" customHeight="1">
+      <c r="A19" s="47"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="13">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="34"/>
+    </row>
+    <row r="20" spans="1:29" ht="21" customHeight="1" thickBot="1">
+      <c r="A20" s="47"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="14">
+        <v>21</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="37"/>
+    </row>
+    <row r="21" spans="1:29" ht="21" customHeight="1">
+      <c r="A21" s="47"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="33"/>
+    </row>
+    <row r="22" spans="1:29" ht="21" customHeight="1">
+      <c r="A22" s="47"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="34"/>
+    </row>
+    <row r="23" spans="1:29" ht="21" customHeight="1">
+      <c r="A23" s="47"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="34"/>
+    </row>
+    <row r="24" spans="1:29" ht="21" customHeight="1">
+      <c r="A24" s="47"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="33"/>
+    </row>
+    <row r="25" spans="1:29" ht="21" customHeight="1" thickBot="1">
+      <c r="A25" s="47"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="37"/>
+    </row>
+    <row r="26" spans="1:29" ht="21" customHeight="1">
+      <c r="A26" s="47"/>
+      <c r="B26" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="2">
+        <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H26" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="83"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="2" t="str">
+        <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
+        <v/>
+      </c>
+      <c r="L26" s="2" t="str">
+        <f t="shared" ref="L26:M26" si="0">IF(SUM(L5:L25)=0,"",SUM(L5:L25))</f>
+        <v/>
+      </c>
+      <c r="M26" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N26" s="43" t="str">
+        <f>IF(SUM(N5:N25)=0,"",SUM(N5:N25))</f>
+        <v/>
+      </c>
+      <c r="O26" s="6" t="str">
+        <f>IF(SUM(O5:O25)=0,"",SUM(O5:O25))</f>
+        <v/>
+      </c>
+      <c r="P26" s="2">
+        <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
+        <v>11.299999999999999</v>
+      </c>
+      <c r="Q26" s="6" t="str">
+        <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
+        <v/>
+      </c>
+      <c r="R26" s="2">
+        <f>IF(SUM(R5:R25)=0,"",SUM(R5:R25))</f>
+        <v>6.6</v>
+      </c>
+      <c r="S26" s="6" t="str">
+        <f t="shared" ref="S26:AC26" si="1">IF(SUM(S5:S25)=0,"",SUM(S5:S25))</f>
+        <v/>
+      </c>
+      <c r="T26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AB26" s="2">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="AC26" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="21" customHeight="1">
+      <c r="A27" s="47"/>
+      <c r="B27" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="11">
+        <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
+        <v>65</v>
+      </c>
+      <c r="H27" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="93"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="11" t="str">
+        <f>'Page 03'!K28</f>
+        <v/>
+      </c>
+      <c r="L27" s="11" t="str">
+        <f>'Page 03'!L28</f>
+        <v/>
+      </c>
+      <c r="M27" s="34" t="str">
+        <f>'Page 03'!M28</f>
+        <v/>
+      </c>
+      <c r="N27" s="44" t="str">
+        <f>'Page 03'!N28</f>
+        <v/>
+      </c>
+      <c r="O27" s="6" t="str">
+        <f>'Page 03'!O28</f>
+        <v/>
+      </c>
+      <c r="P27" s="11">
+        <f>'Page 03'!P28</f>
+        <v>44.9</v>
+      </c>
+      <c r="Q27" s="6" t="str">
+        <f>'Page 03'!Q28</f>
+        <v/>
+      </c>
+      <c r="R27" s="11">
+        <f>'Page 03'!R28</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S27" s="6" t="str">
+        <f>'Page 03'!S28</f>
+        <v/>
+      </c>
+      <c r="T27" s="11" t="str">
+        <f>'Page 03'!T28</f>
+        <v/>
+      </c>
+      <c r="U27" s="6" t="str">
+        <f>'Page 03'!U28</f>
+        <v/>
+      </c>
+      <c r="V27" s="11" t="str">
+        <f>'Page 03'!V28</f>
+        <v/>
+      </c>
+      <c r="W27" s="6" t="str">
+        <f>'Page 03'!W28</f>
+        <v/>
+      </c>
+      <c r="X27" s="11" t="str">
+        <f>'Page 03'!X28</f>
+        <v/>
+      </c>
+      <c r="Y27" s="6" t="str">
+        <f>'Page 03'!Y28</f>
+        <v/>
+      </c>
+      <c r="Z27" s="11" t="str">
+        <f>'Page 03'!Z28</f>
+        <v/>
+      </c>
+      <c r="AA27" s="6" t="str">
+        <f>'Page 03'!AA28</f>
+        <v/>
+      </c>
+      <c r="AB27" s="11">
+        <f>'Page 03'!AB28</f>
+        <v>0.6</v>
+      </c>
+      <c r="AC27" s="34" t="str">
+        <f>'Page 03'!AC28</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1">
+      <c r="A28" s="47"/>
+      <c r="B28" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="12">
+        <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
+        <v>65</v>
+      </c>
+      <c r="H28" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="89"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="12" t="str">
+        <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
+        <v/>
+      </c>
+      <c r="L28" s="12" t="str">
+        <f t="shared" ref="L28:N28" si="2">IF(SUM(L26:L27)=0,"",SUM(L26:L27))</f>
+        <v/>
+      </c>
+      <c r="M28" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N28" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O28" s="7" t="str">
+        <f>IF(SUM(O26:O27)=0,"",SUM(O26:O27))</f>
+        <v/>
+      </c>
+      <c r="P28" s="12">
+        <f t="shared" ref="P28:AA28" si="3">IF(SUM(P26:P27)=0,"",SUM(P26:P27))</f>
+        <v>56.199999999999996</v>
+      </c>
+      <c r="Q28" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R28" s="12">
+        <f t="shared" si="3"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S28" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T28" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U28" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V28" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="W28" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="X28" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y28" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z28" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA28" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AB28" s="12">
+        <f>IF(SUM(AB26:AB27)=0,"",SUM(AB26:AB27))</f>
+        <v>0.8</v>
+      </c>
+      <c r="AC28" s="37" t="str">
+        <f>IF(SUM(AC26:AC27)=0,"",SUM(AC26:AC27))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="K2:M3"/>
+    <mergeCell ref="N2:S2"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="13" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DDE827-920C-154F-809E-0229729C3F27}">
+  <dimension ref="A1:AC28"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="112" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6267,7 +7776,7 @@
     <row r="2" spans="1:29" ht="21" customHeight="1">
       <c r="A2" s="47"/>
       <c r="B2" s="53" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="C2" s="54"/>
       <c r="D2" s="57" t="s">
@@ -6438,10 +7947,10 @@
     <row r="5" spans="1:29" ht="21" customHeight="1">
       <c r="A5" s="47"/>
       <c r="B5" s="32" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>99</v>
@@ -6456,7 +7965,7 @@
         <v>50</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>27</v>
@@ -6472,7 +7981,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="2">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="S5" s="5"/>
       <c r="T5" s="2"/>
@@ -6488,41 +7997,21 @@
     </row>
     <row r="6" spans="1:29" ht="21" customHeight="1">
       <c r="A6" s="47"/>
-      <c r="B6" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="13">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="30"/>
       <c r="N6" s="44"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="11">
-        <v>0.9</v>
-      </c>
+      <c r="P6" s="11"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="11"/>
       <c r="S6" s="6"/>
@@ -6540,38 +8029,20 @@
     <row r="7" spans="1:29" ht="21" customHeight="1">
       <c r="A7" s="47"/>
       <c r="B7" s="29"/>
-      <c r="C7" s="13">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="30"/>
       <c r="N7" s="44"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="11">
-        <v>1.2</v>
-      </c>
+      <c r="P7" s="11"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="11"/>
       <c r="S7" s="6"/>
@@ -6589,30 +8060,14 @@
     <row r="8" spans="1:29" ht="21" customHeight="1">
       <c r="A8" s="47"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="13">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="30"/>
@@ -6620,9 +8075,7 @@
       <c r="O8" s="6"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="6"/>
-      <c r="R8" s="11">
-        <v>1</v>
-      </c>
+      <c r="R8" s="11"/>
       <c r="S8" s="6"/>
       <c r="T8" s="11"/>
       <c r="U8" s="6"/>
@@ -6638,30 +8091,14 @@
     <row r="9" spans="1:29" ht="21" customHeight="1">
       <c r="A9" s="47"/>
       <c r="B9" s="29"/>
-      <c r="C9" s="13">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="30"/>
@@ -6669,9 +8106,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="6"/>
-      <c r="R9" s="11">
-        <v>1</v>
-      </c>
+      <c r="R9" s="11"/>
       <c r="S9" s="6"/>
       <c r="T9" s="11"/>
       <c r="U9" s="6"/>
@@ -6686,41 +8121,21 @@
     </row>
     <row r="10" spans="1:29" ht="21" customHeight="1">
       <c r="A10" s="47"/>
-      <c r="B10" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="13">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="30"/>
       <c r="N10" s="44"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="11">
-        <v>1.2</v>
-      </c>
+      <c r="P10" s="11"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="11"/>
       <c r="S10" s="6"/>
@@ -6738,38 +8153,20 @@
     <row r="11" spans="1:29" ht="21" customHeight="1">
       <c r="A11" s="47"/>
       <c r="B11" s="29"/>
-      <c r="C11" s="13">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="30"/>
       <c r="N11" s="44"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="11">
-        <v>1</v>
-      </c>
+      <c r="P11" s="11"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="11"/>
       <c r="S11" s="6"/>
@@ -6786,41 +8183,21 @@
     </row>
     <row r="12" spans="1:29" ht="21" customHeight="1">
       <c r="A12" s="47"/>
-      <c r="B12" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="13">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="30"/>
       <c r="N12" s="44"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="11">
-        <v>1.4</v>
-      </c>
+      <c r="P12" s="11"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="11"/>
       <c r="S12" s="6"/>
@@ -6832,46 +8209,26 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="11"/>
       <c r="AA12" s="6"/>
-      <c r="AB12" s="11">
-        <v>0.2</v>
-      </c>
+      <c r="AB12" s="11"/>
       <c r="AC12" s="34"/>
     </row>
     <row r="13" spans="1:29" ht="21" customHeight="1">
       <c r="A13" s="47"/>
       <c r="B13" s="29"/>
-      <c r="C13" s="13">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="30"/>
       <c r="N13" s="44"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="11">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="P13" s="11"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="11"/>
       <c r="S13" s="6"/>
@@ -6889,30 +8246,14 @@
     <row r="14" spans="1:29" ht="21" customHeight="1">
       <c r="A14" s="47"/>
       <c r="B14" s="29"/>
-      <c r="C14" s="13">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="30"/>
@@ -6920,9 +8261,7 @@
       <c r="O14" s="6"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="6"/>
-      <c r="R14" s="11">
-        <v>0.8</v>
-      </c>
+      <c r="R14" s="11"/>
       <c r="S14" s="6"/>
       <c r="T14" s="11"/>
       <c r="U14" s="6"/>
@@ -6938,38 +8277,20 @@
     <row r="15" spans="1:29" ht="21" customHeight="1">
       <c r="A15" s="47"/>
       <c r="B15" s="29"/>
-      <c r="C15" s="13">
-        <v>25</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="30"/>
       <c r="N15" s="44"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="11">
-        <v>1.2</v>
-      </c>
+      <c r="P15" s="11"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="11"/>
       <c r="S15" s="6"/>
@@ -6986,33 +8307,15 @@
     </row>
     <row r="16" spans="1:29" ht="21" customHeight="1">
       <c r="A16" s="47"/>
-      <c r="B16" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="13">
-        <v>20</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="30"/>
@@ -7020,9 +8323,7 @@
       <c r="O16" s="6"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="11">
-        <v>1.4</v>
-      </c>
+      <c r="R16" s="11"/>
       <c r="S16" s="6"/>
       <c r="T16" s="11"/>
       <c r="U16" s="6"/>
@@ -7037,33 +8338,15 @@
     </row>
     <row r="17" spans="1:29" ht="21" customHeight="1">
       <c r="A17" s="47"/>
-      <c r="B17" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="13">
-        <v>16</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="30"/>
@@ -7071,9 +8354,7 @@
       <c r="O17" s="6"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="11">
-        <v>1.4</v>
-      </c>
+      <c r="R17" s="11"/>
       <c r="S17" s="6"/>
       <c r="T17" s="11"/>
       <c r="U17" s="6"/>
@@ -7088,41 +8369,21 @@
     </row>
     <row r="18" spans="1:29" ht="21" customHeight="1">
       <c r="A18" s="47"/>
-      <c r="B18" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="13">
-        <v>16</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="30"/>
       <c r="N18" s="44"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="11">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="P18" s="11"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="11"/>
       <c r="S18" s="6"/>
@@ -7140,38 +8401,20 @@
     <row r="19" spans="1:29" ht="21" customHeight="1">
       <c r="A19" s="47"/>
       <c r="B19" s="29"/>
-      <c r="C19" s="13">
-        <v>20</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
       <c r="M19" s="30"/>
       <c r="N19" s="44"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="11">
-        <v>1.2</v>
-      </c>
+      <c r="P19" s="11"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="11"/>
       <c r="S19" s="6"/>
@@ -7189,38 +8432,20 @@
     <row r="20" spans="1:29" ht="21" customHeight="1">
       <c r="A20" s="47"/>
       <c r="B20" s="29"/>
-      <c r="C20" s="13">
-        <v>21</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="30"/>
       <c r="N20" s="44"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="11">
-        <v>1</v>
-      </c>
+      <c r="P20" s="11"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="11"/>
       <c r="S20" s="6"/>
@@ -7401,7 +8626,7 @@
       <c r="F26" s="84"/>
       <c r="G26" s="2">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
-        <v>17.899999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="H26" s="91" t="s">
         <v>47</v>
@@ -7428,9 +8653,9 @@
         <f>IF(SUM(O5:O25)=0,"",SUM(O5:O25))</f>
         <v/>
       </c>
-      <c r="P26" s="2">
+      <c r="P26" s="2" t="str">
         <f>IF(SUM(P5:P25)=0,"",SUM(P5:P25))</f>
-        <v>11.299999999999999</v>
+        <v/>
       </c>
       <c r="Q26" s="6" t="str">
         <f>IF(SUM(Q5:Q25)=0,"",SUM(Q5:Q25))</f>
@@ -7438,7 +8663,7 @@
       </c>
       <c r="R26" s="2">
         <f>IF(SUM(R5:R25)=0,"",SUM(R5:R25))</f>
-        <v>6.6</v>
+        <v>0.4</v>
       </c>
       <c r="S26" s="6" t="str">
         <f t="shared" ref="S26:AC26" si="1">IF(SUM(S5:S25)=0,"",SUM(S5:S25))</f>
@@ -7476,9 +8701,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AB26" s="2">
+      <c r="AB26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v/>
       </c>
       <c r="AC26" s="33" t="str">
         <f t="shared" si="1"/>
@@ -7496,7 +8721,7 @@
       <c r="F27" s="87"/>
       <c r="G27" s="11">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>65</v>
+        <v>65.399999999999991</v>
       </c>
       <c r="H27" s="92" t="s">
         <v>59</v>
@@ -7504,79 +8729,79 @@
       <c r="I27" s="93"/>
       <c r="J27" s="94"/>
       <c r="K27" s="11" t="str">
-        <f>'Page 03'!K28</f>
+        <f>'Page 04'!K28</f>
         <v/>
       </c>
       <c r="L27" s="11" t="str">
-        <f>'Page 03'!L28</f>
+        <f>'Page 04'!L28</f>
         <v/>
       </c>
       <c r="M27" s="34" t="str">
-        <f>'Page 03'!M28</f>
+        <f>'Page 04'!M28</f>
         <v/>
       </c>
       <c r="N27" s="44" t="str">
-        <f>'Page 03'!N28</f>
+        <f>'Page 04'!N28</f>
         <v/>
       </c>
       <c r="O27" s="6" t="str">
-        <f>'Page 03'!O28</f>
+        <f>'Page 04'!O28</f>
         <v/>
       </c>
       <c r="P27" s="11">
-        <f>'Page 03'!P28</f>
-        <v>44.9</v>
+        <f>'Page 04'!P28</f>
+        <v>56.199999999999996</v>
       </c>
       <c r="Q27" s="6" t="str">
-        <f>'Page 03'!Q28</f>
+        <f>'Page 04'!Q28</f>
         <v/>
       </c>
       <c r="R27" s="11">
-        <f>'Page 03'!R28</f>
-        <v>2.2000000000000002</v>
+        <f>'Page 04'!R28</f>
+        <v>8.8000000000000007</v>
       </c>
       <c r="S27" s="6" t="str">
-        <f>'Page 03'!S28</f>
+        <f>'Page 04'!S28</f>
         <v/>
       </c>
       <c r="T27" s="11" t="str">
-        <f>'Page 03'!T28</f>
+        <f>'Page 04'!T28</f>
         <v/>
       </c>
       <c r="U27" s="6" t="str">
-        <f>'Page 03'!U28</f>
+        <f>'Page 04'!U28</f>
         <v/>
       </c>
       <c r="V27" s="11" t="str">
-        <f>'Page 03'!V28</f>
+        <f>'Page 04'!V28</f>
         <v/>
       </c>
       <c r="W27" s="6" t="str">
-        <f>'Page 03'!W28</f>
+        <f>'Page 04'!W28</f>
         <v/>
       </c>
       <c r="X27" s="11" t="str">
-        <f>'Page 03'!X28</f>
+        <f>'Page 04'!X28</f>
         <v/>
       </c>
       <c r="Y27" s="6" t="str">
-        <f>'Page 03'!Y28</f>
+        <f>'Page 04'!Y28</f>
         <v/>
       </c>
       <c r="Z27" s="11" t="str">
-        <f>'Page 03'!Z28</f>
+        <f>'Page 04'!Z28</f>
         <v/>
       </c>
       <c r="AA27" s="6" t="str">
-        <f>'Page 03'!AA28</f>
+        <f>'Page 04'!AA28</f>
         <v/>
       </c>
       <c r="AB27" s="11">
-        <f>'Page 03'!AB28</f>
-        <v>0.6</v>
+        <f>'Page 04'!AB28</f>
+        <v>0.8</v>
       </c>
       <c r="AC27" s="34" t="str">
-        <f>'Page 03'!AC28</f>
+        <f>'Page 04'!AC28</f>
         <v/>
       </c>
     </row>
@@ -7591,7 +8816,7 @@
       <c r="F28" s="90"/>
       <c r="G28" s="12">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>65</v>
+        <v>65.399999999999991</v>
       </c>
       <c r="H28" s="95" t="s">
         <v>48</v>
@@ -7628,7 +8853,7 @@
       </c>
       <c r="R28" s="12">
         <f t="shared" si="3"/>
-        <v>8.8000000000000007</v>
+        <v>9.2000000000000011</v>
       </c>
       <c r="S28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -7703,7 +8928,6 @@
     <mergeCell ref="K2:M3"/>
     <mergeCell ref="N2:S2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <colBreaks count="1" manualBreakCount="1">
@@ -7712,8 +8936,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DDE827-920C-154F-809E-0229729C3F27}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2D0855-DEA6-5D44-8E0E-CDF46561763C}">
   <dimension ref="A1:AC28"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="112" workbookViewId="0"/>
@@ -8691,7 +9915,7 @@
       <c r="F27" s="87"/>
       <c r="G27" s="11">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
-        <v>65</v>
+        <v>65.399999999999991</v>
       </c>
       <c r="H27" s="92" t="s">
         <v>59</v>
@@ -8699,79 +9923,79 @@
       <c r="I27" s="93"/>
       <c r="J27" s="94"/>
       <c r="K27" s="11" t="str">
-        <f>'Page 04'!K28</f>
+        <f>'Page 05'!K28</f>
         <v/>
       </c>
       <c r="L27" s="11" t="str">
-        <f>'Page 04'!L28</f>
+        <f>'Page 05'!L28</f>
         <v/>
       </c>
       <c r="M27" s="34" t="str">
-        <f>'Page 04'!M28</f>
+        <f>'Page 05'!M28</f>
         <v/>
       </c>
       <c r="N27" s="44" t="str">
-        <f>'Page 04'!N28</f>
+        <f>'Page 05'!N28</f>
         <v/>
       </c>
       <c r="O27" s="6" t="str">
-        <f>'Page 04'!O28</f>
+        <f>'Page 05'!O28</f>
         <v/>
       </c>
       <c r="P27" s="11">
-        <f>'Page 04'!P28</f>
+        <f>'Page 05'!P28</f>
         <v>56.199999999999996</v>
       </c>
       <c r="Q27" s="6" t="str">
-        <f>'Page 04'!Q28</f>
+        <f>'Page 05'!Q28</f>
         <v/>
       </c>
       <c r="R27" s="11">
-        <f>'Page 04'!R28</f>
-        <v>8.8000000000000007</v>
+        <f>'Page 05'!R28</f>
+        <v>9.2000000000000011</v>
       </c>
       <c r="S27" s="6" t="str">
-        <f>'Page 04'!S28</f>
+        <f>'Page 05'!S28</f>
         <v/>
       </c>
       <c r="T27" s="11" t="str">
-        <f>'Page 04'!T28</f>
+        <f>'Page 05'!T28</f>
         <v/>
       </c>
       <c r="U27" s="6" t="str">
-        <f>'Page 04'!U28</f>
+        <f>'Page 05'!U28</f>
         <v/>
       </c>
       <c r="V27" s="11" t="str">
-        <f>'Page 04'!V28</f>
+        <f>'Page 05'!V28</f>
         <v/>
       </c>
       <c r="W27" s="6" t="str">
-        <f>'Page 04'!W28</f>
+        <f>'Page 05'!W28</f>
         <v/>
       </c>
       <c r="X27" s="11" t="str">
-        <f>'Page 04'!X28</f>
+        <f>'Page 05'!X28</f>
         <v/>
       </c>
       <c r="Y27" s="6" t="str">
-        <f>'Page 04'!Y28</f>
+        <f>'Page 05'!Y28</f>
         <v/>
       </c>
       <c r="Z27" s="11" t="str">
-        <f>'Page 04'!Z28</f>
+        <f>'Page 05'!Z28</f>
         <v/>
       </c>
       <c r="AA27" s="6" t="str">
-        <f>'Page 04'!AA28</f>
+        <f>'Page 05'!AA28</f>
         <v/>
       </c>
       <c r="AB27" s="11">
-        <f>'Page 04'!AB28</f>
+        <f>'Page 05'!AB28</f>
         <v>0.8</v>
       </c>
       <c r="AC27" s="34" t="str">
-        <f>'Page 04'!AC28</f>
+        <f>'Page 05'!AC28</f>
         <v/>
       </c>
     </row>
@@ -8786,7 +10010,7 @@
       <c r="F28" s="90"/>
       <c r="G28" s="12">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
-        <v>65</v>
+        <v>65.399999999999991</v>
       </c>
       <c r="H28" s="95" t="s">
         <v>48</v>
@@ -8823,7 +10047,7 @@
       </c>
       <c r="R28" s="12">
         <f t="shared" si="3"/>
-        <v>8.8000000000000007</v>
+        <v>9.2000000000000011</v>
       </c>
       <c r="S28" s="7" t="str">
         <f t="shared" si="3"/>
@@ -8872,6 +10096,7 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="N2:S2"/>
     <mergeCell ref="T2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AB2:AC2"/>
@@ -8896,7 +10121,6 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:J3"/>
     <mergeCell ref="K2:M3"/>
-    <mergeCell ref="N2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -8906,11 +10130,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF253D2-11BB-AA45-933E-438A541CE8B0}">
   <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="112" workbookViewId="0"/>
+    <sheetView zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="112" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>

--- a/My_Flying_Logbook.xlsx
+++ b/My_Flying_Logbook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3B956E-836E-6E4C-80F1-53DF92E28A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286B1AFB-939A-1B43-9486-94467D750A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="5" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="113">
   <si>
     <t>Month</t>
   </si>
@@ -1244,37 +1244,46 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1331,46 +1340,37 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1841,99 +1841,99 @@
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1">
       <c r="A2" s="47"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="57" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="59" t="s">
+      <c r="E2" s="86"/>
+      <c r="F2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="94"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="75" t="s">
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="78" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="78" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="79"/>
+      <c r="AC2" s="82"/>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="70" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="71"/>
-      <c r="P3" s="72" t="s">
+      <c r="O3" s="74"/>
+      <c r="P3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="72" t="s">
+      <c r="Q3" s="74"/>
+      <c r="R3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="71"/>
-      <c r="T3" s="72" t="s">
+      <c r="S3" s="74"/>
+      <c r="T3" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="71"/>
-      <c r="V3" s="72" t="s">
+      <c r="U3" s="74"/>
+      <c r="V3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="71"/>
-      <c r="X3" s="72" t="s">
+      <c r="W3" s="74"/>
+      <c r="X3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="72" t="s">
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="80" t="s">
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="73" t="s">
+      <c r="AC3" s="76" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1951,8 +1951,8 @@
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
       <c r="H4" s="19" t="s">
         <v>28</v>
       </c>
@@ -2007,8 +2007,8 @@
       <c r="AA4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="74"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="77"/>
     </row>
     <row r="5" spans="1:29" ht="21" customHeight="1">
       <c r="A5" s="47"/>
@@ -3047,22 +3047,22 @@
     </row>
     <row r="26" spans="1:29" ht="21" customHeight="1">
       <c r="A26" s="47"/>
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="84"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="2">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H26" s="91" t="s">
+      <c r="H26" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="83"/>
-      <c r="J26" s="84"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
       <c r="K26" s="2" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -3142,22 +3142,22 @@
     </row>
     <row r="27" spans="1:29" ht="21" customHeight="1">
       <c r="A27" s="47"/>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="87"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="11">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H27" s="92" t="s">
+      <c r="H27" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="93"/>
-      <c r="J27" s="94"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="34"/>
@@ -3180,22 +3180,22 @@
     </row>
     <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1">
       <c r="A28" s="47"/>
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="12">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>23.499999999999996</v>
       </c>
-      <c r="H28" s="95" t="s">
+      <c r="H28" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="89"/>
-      <c r="J28" s="90"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61"/>
       <c r="K28" s="12" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -3275,12 +3275,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
     <mergeCell ref="K2:M3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
@@ -3295,11 +3294,12 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -3362,99 +3362,99 @@
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1">
       <c r="A2" s="47"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="57" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="59" t="s">
+      <c r="E2" s="86"/>
+      <c r="F2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="94"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="75" t="s">
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="78" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="78" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="79"/>
+      <c r="AC2" s="82"/>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="70" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="71"/>
-      <c r="P3" s="72" t="s">
+      <c r="O3" s="74"/>
+      <c r="P3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="72" t="s">
+      <c r="Q3" s="74"/>
+      <c r="R3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="71"/>
-      <c r="T3" s="72" t="s">
+      <c r="S3" s="74"/>
+      <c r="T3" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="71"/>
-      <c r="V3" s="72" t="s">
+      <c r="U3" s="74"/>
+      <c r="V3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="71"/>
-      <c r="X3" s="72" t="s">
+      <c r="W3" s="74"/>
+      <c r="X3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="72" t="s">
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="80" t="s">
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="73" t="s">
+      <c r="AC3" s="76" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3472,8 +3472,8 @@
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
       <c r="H4" s="19" t="s">
         <v>28</v>
       </c>
@@ -3528,8 +3528,8 @@
       <c r="AA4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="74"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="77"/>
     </row>
     <row r="5" spans="1:29" ht="21" customHeight="1">
       <c r="A5" s="47"/>
@@ -4354,22 +4354,22 @@
     </row>
     <row r="26" spans="1:29" ht="21" customHeight="1">
       <c r="A26" s="47"/>
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="84"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="2">
         <f>IF(SUM(K26:AA26)=0,"",SUM(K26:AA26))</f>
         <v>6.7999999999999989</v>
       </c>
-      <c r="H26" s="91" t="s">
+      <c r="H26" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="83"/>
-      <c r="J26" s="84"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
       <c r="K26" s="2" t="str">
         <f>IF(SUM(K5:K25)=0,"",SUM(K5:K25))</f>
         <v/>
@@ -4449,22 +4449,22 @@
     </row>
     <row r="27" spans="1:29" ht="21" customHeight="1">
       <c r="A27" s="47"/>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="87"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="11">
         <f>IF(SUM(K28:AA28)=0,"",SUM(K28:AA28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H27" s="92" t="s">
+      <c r="H27" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="93"/>
-      <c r="J27" s="94"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
       <c r="K27" s="11" t="str">
         <f>'Page 01'!K28</f>
         <v/>
@@ -4544,22 +4544,22 @@
     </row>
     <row r="28" spans="1:29" ht="21" customHeight="1" thickBot="1">
       <c r="A28" s="47"/>
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="12">
         <f>IF(SUM(G27,AC28)=0, "", SUM(G27,AC28))</f>
         <v>30.299999999999997</v>
       </c>
-      <c r="H28" s="95" t="s">
+      <c r="H28" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="89"/>
-      <c r="J28" s="90"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61"/>
       <c r="K28" s="12" t="str">
         <f>IF(SUM(K26:K27)=0,"",SUM(K26:K27))</f>
         <v/>
@@ -4639,15 +4639,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="Z3:AA3"/>
@@ -4664,6 +4655,15 @@
     <mergeCell ref="H2:J3"/>
     <mergeCell ref="K2:M3"/>
     <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -4726,99 +4726,99 @@
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1">
       <c r="A2" s="47"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="57" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="59" t="s">
+      <c r="E2" s="86"/>
+      <c r="F2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="64" t="s">
+      <c r="I2" s="94"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="75" t="s">
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="78" t="s">
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="78" t="s">
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="79"/>
+      <c r="AC2" s="82"/>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="70" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="71"/>
-      <c r="P3" s="72" t="s">
+      <c r="O3" s="74"/>
+      <c r="P3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="72" t="s">
+      <c r="Q3" s="74"/>
+      <c r="R3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="71"/>
-      <c r="T3" s="72" t="s">
+      <c r="S3" s="74"/>
+      <c r="T3" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="71"/>
-      <c r="V3" s="72" t="s">
+      <c r="U3" s="74"/>
+      <c r="V3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="71"/>
-      <c r="X3" s="72" t="s">
+      <c r="W3" s="74"/>
+      <c r="X3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="72" t="s">
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="80" t="s">
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="73" t="s">
+      <c r="AC3" s="76" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4836,8 +4836,8 @@
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
       <c r="H4" s="19" t="s">
         <v>28</v>
       </c>
@@ -4892,8 +4892,8 @@
       <c r="AA4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="74"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="77"/>
     </row>
     <row r="5" spans="1:29" ht="21" customHeight="1">
       <c r="A5" s="47"/>
@@ -5902,22 +5902,22 @@
     </row>
     <row r="26" spans="1:29" ht="21" customHeight="1">
       <c r="A26" s="47"/>
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="53" t="s">
 